--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scost\Documents\DA8\Projects\budget_lookups-scost46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D7390-69C8-4E4D-940F-4D193C4C736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +458,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1168,7 +1168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,27 +1176,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1256,23 +1256,56 @@
       <c r="C2">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>15396420.870000005</v>
+      </c>
+      <c r="E2" s="5">
+        <f>IFERROR(D2/B2,0)</f>
+        <v>4.3170750765267295E-2</v>
+      </c>
+      <c r="F2">
+        <f>RANK(E2,E:E,1)</f>
+        <v>38</v>
+      </c>
       <c r="G2">
         <v>382685200</v>
       </c>
       <c r="H2">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="I2">
+        <f>G2-H2</f>
+        <v>36344389.180000007</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IFERROR(I2/G2,0)</f>
+        <v>9.4972027086493035E-2</v>
+      </c>
+      <c r="K2">
+        <f>RANK(J2,J:J,1)</f>
+        <v>42</v>
+      </c>
       <c r="L2">
         <v>376548600</v>
       </c>
       <c r="M2">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="N2">
+        <f>L2-M2</f>
+        <v>21269107.770000994</v>
+      </c>
+      <c r="O2" s="5">
+        <f>IFERROR(N2/L2,0)</f>
+        <v>5.6484362894991494E-2</v>
+      </c>
+      <c r="P2">
+        <f>RANK(O2,O:O,1)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1282,23 +1315,56 @@
       <c r="C3">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="D3">
+        <f t="shared" ref="D3:D52" si="0">B3-C3</f>
+        <v>7585.4099999999744</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E52" si="1">IFERROR(D3/B3,0)</f>
+        <v>2.3069981751824741E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F52" si="2">RANK(E3,E:E,1)</f>
+        <v>30</v>
+      </c>
       <c r="G3">
         <v>334800</v>
       </c>
       <c r="H3">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3">
+        <f t="shared" ref="I3:I52" si="3">G3-H3</f>
+        <v>22366.290000001027</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3,0)</f>
+        <v>6.6804928315415249E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K52" si="5">RANK(J3,J:J,1)</f>
+        <v>38</v>
+      </c>
       <c r="L3">
         <v>322700</v>
       </c>
       <c r="M3">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="N3">
+        <f t="shared" ref="N3:N52" si="6">L3-M3</f>
+        <v>436.96000000002095</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
+        <v>1.3540749922529313E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P52" si="8">RANK(O3,O:O,1)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1308,23 +1374,56 @@
       <c r="C4">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>15442.440000010189</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9327413275443007E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="G4">
         <v>3652300</v>
       </c>
       <c r="H4">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>62606.790000009816</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7141743558856015E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
       <c r="L4">
         <v>3662400</v>
       </c>
       <c r="M4">
         <v>3564983.04999999</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>97416.950000009965</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6599210899959033E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1334,23 +1433,56 @@
       <c r="C5">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>723147.33000000007</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>9.4273968477453174E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
       <c r="G5">
         <v>7968300</v>
       </c>
       <c r="H5">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>947690.6799999997</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.118932605449092</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
       <c r="L5">
         <v>7759600</v>
       </c>
       <c r="M5">
         <v>7497322.9100000001</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>262277.08999999985</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="7"/>
+        <v>3.3800336357544182E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1360,23 +1492,56 @@
       <c r="C6">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>23391.479999999981</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7149963352064452E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
       <c r="G6">
         <v>428500</v>
       </c>
       <c r="H6">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>741.35999999998603</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7301283547257551E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="L6">
         <v>445200</v>
       </c>
       <c r="M6">
         <v>445114.28999999899</v>
       </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>85.710000001010485</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="7"/>
+        <v>1.925202156356929E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1386,23 +1551,56 @@
       <c r="C7">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>382928.79000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11502817362571344</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
       <c r="G7">
         <v>3390900</v>
       </c>
       <c r="H7">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>339416.58999999985</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10009631366303927</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
       <c r="L7">
         <v>3345200</v>
       </c>
       <c r="M7">
         <v>2946440.08</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>398759.91999999993</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11920361114432618</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1412,23 +1610,56 @@
       <c r="C8">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>236476.69000000996</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15235918433091292</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
       <c r="G8">
         <v>1590700</v>
       </c>
       <c r="H8">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>206794.01000001002</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13000189224870184</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
       <c r="L8">
         <v>1579300</v>
       </c>
       <c r="M8">
         <v>1337735.3199999901</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>241564.68000000995</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="7"/>
+        <v>0.15295680364719175</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1438,23 +1669,56 @@
       <c r="C9">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>396574.72000000067</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2417130511048909E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="G9">
         <v>11073700</v>
       </c>
       <c r="H9">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1144640.4800000004</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10336567542917005</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
       <c r="L9">
         <v>10790500</v>
       </c>
       <c r="M9">
         <v>9993599.52999999</v>
       </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>796900.47000000998</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="7"/>
+        <v>7.3852043000788653E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1464,23 +1728,56 @@
       <c r="C10">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>8.1681998646514792E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
       <c r="G10">
         <v>495200</v>
       </c>
       <c r="H10">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>27292.159999999974</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="4"/>
+        <v>5.5113408723747932E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="L10">
         <v>487500</v>
       </c>
       <c r="M10">
         <v>478318.92</v>
       </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>9181.0800000000163</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="7"/>
+        <v>1.883298461538465E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1490,23 +1787,56 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="L11">
         <v>375000</v>
       </c>
       <c r="M11">
         <v>63771.91</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>311228.08999999997</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="7"/>
+        <v>0.82994157333333329</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1516,23 +1846,56 @@
       <c r="C12">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>214304.66999999993</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0060657805601608E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
       <c r="G12">
         <v>4700400</v>
       </c>
       <c r="H12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>494844.40000000037</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10527708280146378</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
       <c r="L12">
         <v>4677800</v>
       </c>
       <c r="M12">
         <v>4371713.1399999997</v>
       </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>306086.86000000034</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="7"/>
+        <v>6.5433934755654441E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1542,23 +1905,56 @@
       <c r="C13">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>75511.669999999925</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2912833886247806E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="G13">
         <v>6223700</v>
       </c>
       <c r="H13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>314622.06000000983</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="4"/>
+        <v>5.0552253482656594E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
       <c r="L13">
         <v>6207300</v>
       </c>
       <c r="M13">
         <v>6056976.6699999999</v>
       </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>150323.33000000007</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="7"/>
+        <v>2.4217184605222895E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1568,23 +1964,56 @@
       <c r="C14">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6982.6300000000047</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3637949218750009E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="G14">
         <v>530500</v>
       </c>
       <c r="H14">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>6097.0200000000186</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1492968897266765E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
       <c r="L14">
         <v>526200</v>
       </c>
       <c r="M14">
         <v>504989.88</v>
       </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>21210.119999999995</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0308095781071827E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1594,23 +2023,56 @@
       <c r="C15">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-496819.90000000596</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.1837408866824991E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="G15">
         <v>184167800</v>
       </c>
       <c r="H15">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>8201410.7500010133</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="4"/>
+        <v>4.4532273014072019E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
       <c r="L15">
         <v>188953500</v>
       </c>
       <c r="M15">
         <v>184450910.84999901</v>
       </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>4502589.1500009894</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="7"/>
+        <v>2.3829085727446114E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1620,23 +2082,56 @@
       <c r="C16">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>78219.540000010282</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1850188616360429E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="G16">
         <v>7352500</v>
       </c>
       <c r="H16">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2035.9199999999255</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="4"/>
+        <v>2.769017341040361E-4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="L16">
         <v>7397200</v>
       </c>
       <c r="M16">
         <v>7397093</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4464932677229222E-5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1646,23 +2141,56 @@
       <c r="C17">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>421319.94999999925</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8351094826658003E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
       <c r="G17">
         <v>15309700</v>
       </c>
       <c r="H17">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>664466.49000000022</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="4"/>
+        <v>4.3401666263871937E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
       <c r="L17">
         <v>15311800</v>
       </c>
       <c r="M17">
         <v>14346057.039999999</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>965742.96000000089</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="7"/>
+        <v>6.3071811282801551E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1672,23 +2200,56 @@
       <c r="C18">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4037002206391245E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="G18">
         <v>2861000</v>
       </c>
       <c r="H18">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>189254.06000000006</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>6.6149619014330668E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
       <c r="L18">
         <v>2910600</v>
       </c>
       <c r="M18">
         <v>2535637.09</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>374962.91000000015</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12882667147667154</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1698,23 +2259,56 @@
       <c r="C19">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>376336.80000001006</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>4.258504294298146E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
       <c r="G19">
         <v>9713300</v>
       </c>
       <c r="H19">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>721592.76000000909</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="4"/>
+        <v>7.4289145810384635E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
       <c r="L19">
         <v>9343000</v>
       </c>
       <c r="M19">
         <v>8766655.9100000001</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>576344.08999999985</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="7"/>
+        <v>6.1687262121374278E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1724,23 +2318,56 @@
       <c r="C20">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1539.8400010019541</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2379538203300809E-5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="G20">
         <v>131849400</v>
       </c>
       <c r="H20">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>9775.6299999952316</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="4"/>
+        <v>7.4142392760188761E-5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="L20">
         <v>130621400</v>
       </c>
       <c r="M20">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>116.46000100672245</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="7"/>
+        <v>8.9158438821450736E-7</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1750,23 +2377,56 @@
       <c r="C21">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1923512.4500000998</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>7.9052463618023094E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
       <c r="G21">
         <v>24497400</v>
       </c>
       <c r="H21">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1841406.370000001</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="4"/>
+        <v>7.5167420624229556E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
       <c r="L21">
         <v>24323000</v>
       </c>
       <c r="M21">
         <v>23434073.089999899</v>
       </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>888926.91000010073</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="7"/>
+        <v>3.6546762734864152E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1776,23 +2436,56 @@
       <c r="C22">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>153660.12000009976</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3285502334437123E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="G22">
         <v>11980700</v>
       </c>
       <c r="H22">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>188722.03000009991</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5752170574348738E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
       <c r="L22">
         <v>11935200</v>
       </c>
       <c r="M22">
         <v>11934454.77</v>
       </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>745.23000000044703</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="7"/>
+        <v>6.2439674240938325E-5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1802,23 +2495,56 @@
       <c r="C23">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>825956.59000010043</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>3.9590110100806722E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
       <c r="G23">
         <v>22683800</v>
       </c>
       <c r="H23">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>961673.78000010177</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="4"/>
+        <v>4.2394738976719144E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
       <c r="L23">
         <v>23220300</v>
       </c>
       <c r="M23">
         <v>22619057.440000001</v>
       </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>601242.55999999866</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5892971236375011E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1828,23 +2554,56 @@
       <c r="C24">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3334943305713101E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="G24">
         <v>1112700</v>
       </c>
       <c r="H24">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>45485.580000000075</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="4"/>
+        <v>4.087856565111897E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
       <c r="L24">
         <v>1112600</v>
       </c>
       <c r="M24">
         <v>1112527.1200000001</v>
       </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>72.879999999888241</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="7"/>
+        <v>6.5504224339284781E-5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1854,23 +2613,56 @@
       <c r="C25">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0226130964676661E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="G25">
         <v>505200</v>
       </c>
       <c r="H25">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>8005.7900000010268</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5846773555029746E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
       <c r="L25">
         <v>496500</v>
       </c>
       <c r="M25">
         <v>494775.1</v>
       </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>1724.9000000000233</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="7"/>
+        <v>3.4741188318228064E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1880,23 +2672,56 @@
       <c r="C26">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>447839.91999999993</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>8.5306091660634673E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
       <c r="G26">
         <v>5442200</v>
       </c>
       <c r="H26">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>319870.97000000998</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="4"/>
+        <v>5.8776040939327839E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
       <c r="L26">
         <v>5430700</v>
       </c>
       <c r="M26">
         <v>5117235.21</v>
       </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>313464.79000000004</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="7"/>
+        <v>5.7720881286022069E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1906,23 +2731,56 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1932,23 +2790,56 @@
       <c r="C28">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>132457.97999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>9.5782760864849215E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
       <c r="G28">
         <v>1545700</v>
       </c>
       <c r="H28">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>264364.77</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17103239309050916</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
       <c r="L28">
         <v>1525900</v>
       </c>
       <c r="M28">
         <v>1393285.06</v>
       </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>132614.93999999994</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="7"/>
+        <v>8.6909325643882263E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1958,23 +2849,56 @@
       <c r="C29">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>37915.290000000037</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4800253727847622E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
       <c r="G29">
         <v>2779500</v>
       </c>
       <c r="H29">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>114235.56000000983</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="4"/>
+        <v>4.1099320021590155E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
       <c r="L29">
         <v>2889900</v>
       </c>
       <c r="M29">
         <v>2889864.67</v>
       </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>35.330000000074506</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="7"/>
+        <v>1.2225336516860273E-5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1984,23 +2908,56 @@
       <c r="C30">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>101705.90000000037</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>8.3831374359143746E-3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="G30">
         <v>12735900</v>
       </c>
       <c r="H30">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>50385.720000099391</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="4"/>
+        <v>3.9561962641116366E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="L30">
         <v>12861300</v>
       </c>
       <c r="M30">
         <v>12826009.609999999</v>
       </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>35290.390000000596</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7439209100169185E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2010,23 +2967,56 @@
       <c r="C31">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>24772.310000000056</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4030533529678329E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
       <c r="G31">
         <v>1823300</v>
       </c>
       <c r="H31">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>60623.149999999907</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="4"/>
+        <v>3.3249136181648611E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
       <c r="L31">
         <v>1870700</v>
       </c>
       <c r="M31">
         <v>1801391.34</v>
       </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>69308.659999999916</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="7"/>
+        <v>3.7049585716576634E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +3026,56 @@
       <c r="C32">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>73762.280000009574</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2294942827617691E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="G32">
         <v>6195500</v>
       </c>
       <c r="H32">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>110514.53000000026</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7837871035428981E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
       <c r="L32">
         <v>6157400</v>
       </c>
       <c r="M32">
         <v>5987572.0199999996</v>
       </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>169827.98000000045</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7581118653977402E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2062,23 +3085,56 @@
       <c r="C33">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>7418835.2699990273</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>7.9969930789269058E-3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="G33">
         <v>979671000</v>
       </c>
       <c r="H33">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>2602486.5199999809</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6564903115433454E-3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="L33">
         <v>989572899.99999905</v>
       </c>
       <c r="M33">
         <v>984116289.40999901</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>5456610.5900000334</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="7"/>
+        <v>5.5141067323084929E-3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2088,23 +3144,56 @@
       <c r="C34">
         <v>4109958.22</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>79341.779999999795</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8939149738619768E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
       <c r="G34">
         <v>4350600</v>
       </c>
       <c r="H34">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>213011.23000001023</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="4"/>
+        <v>4.8961345561534093E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
       <c r="L34">
         <v>4345600</v>
       </c>
       <c r="M34">
         <v>4229801.51</v>
       </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>115798.49000000022</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6647296115611244E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2114,23 +3203,56 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2140,23 +3262,56 @@
       <c r="C36">
         <v>735423.27999999898</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>62776.72000000102</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>7.8647857679780775E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
       <c r="G36">
         <v>898700</v>
       </c>
       <c r="H36">
         <v>740966.94999999902</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>157733.05000000098</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17551246244575608</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
       <c r="L36">
         <v>878300</v>
       </c>
       <c r="M36">
         <v>777215.28999999899</v>
       </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>101084.71000000101</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11509132414892521</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2166,23 +3321,56 @@
       <c r="C37">
         <v>2005447.73999999</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>82352.260000010021</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>3.9444515758219188E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
       <c r="G37">
         <v>2229200</v>
       </c>
       <c r="H37">
         <v>2118943.21</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>110256.79000000004</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9460250314014013E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
       <c r="L37">
         <v>2296900</v>
       </c>
       <c r="M37">
         <v>2108718.34</v>
       </c>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>188181.66000000015</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="7"/>
+        <v>8.1928538464887526E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2192,23 +3380,56 @@
       <c r="C38">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>16630.180000000051</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9443680579913542E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
       <c r="G38">
         <v>792800</v>
       </c>
       <c r="H38">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>39348.040000000037</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9631735620585316E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
       <c r="L38">
         <v>777800</v>
       </c>
       <c r="M38">
         <v>777663.26</v>
       </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>136.73999999999069</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7580354847003174E-4</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2218,23 +3439,56 @@
       <c r="C39">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>70791.13</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>8.008952370177623E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
       <c r="G39">
         <v>1294400</v>
       </c>
       <c r="H39">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>180157.72000000998</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13918241656366656</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
       <c r="L39">
         <v>1759500</v>
       </c>
       <c r="M39">
         <v>1680463.8699999901</v>
       </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>79036.1300000099</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="7"/>
+        <v>4.4919653310605226E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2244,23 +3498,56 @@
       <c r="C40">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>816758.14000009745</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>2.1279773539092578E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
       <c r="G40">
         <v>39964900</v>
       </c>
       <c r="H40">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>1869659.8100000992</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="4"/>
+        <v>4.6782546934937892E-2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
       <c r="L40">
         <v>40216700</v>
       </c>
       <c r="M40">
         <v>39606263.709999897</v>
       </c>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>610436.29000010341</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5178676768608648E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2270,23 +3557,56 @@
       <c r="C41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0110550149132493E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
       <c r="G41">
         <v>5089500</v>
       </c>
       <c r="H41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>133456.33000001032</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6221894095689226E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
       <c r="L41">
         <v>4799900</v>
       </c>
       <c r="M41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>82077.349999999627</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7099804162586642E-2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2296,23 +3616,56 @@
       <c r="C42">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>41624.320001006126</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2070943135841053E-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="G42">
         <v>199130300</v>
       </c>
       <c r="H42">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>2375266.6899999976</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1928203241796942E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
       <c r="L42">
         <v>199954600</v>
       </c>
       <c r="M42">
         <v>199954563.74999899</v>
       </c>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>36.250001013278961</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8129115815929696E-7</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2322,23 +3675,56 @@
       <c r="C43">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>166754.16999999993</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0497353541313264E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
       <c r="G43">
         <v>8560800</v>
       </c>
       <c r="H43">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>389327.98000000045</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="4"/>
+        <v>4.5477990374731388E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
       <c r="L43">
         <v>8497500</v>
       </c>
       <c r="M43">
         <v>8150982.5699999901</v>
       </c>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>346517.43000000995</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0778750220654303E-2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2348,23 +3734,56 @@
       <c r="C44">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>294095.62000000104</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>9.7760750186150751E-3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="G44">
         <v>31040700</v>
       </c>
       <c r="H44">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>246988.51999999955</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="4"/>
+        <v>7.9569249404813532E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
       <c r="L44">
         <v>31282200</v>
       </c>
       <c r="M44">
         <v>31282141.25</v>
       </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>58.75</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8780648419868168E-6</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2374,23 +3793,56 @@
       <c r="C45">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>712015.95000009984</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>1.287514194887851E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="G45">
         <v>56792200</v>
       </c>
       <c r="H45">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>2197246.0400001034</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="4"/>
+        <v>3.8689222111488959E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
       <c r="L45">
         <v>56027100</v>
       </c>
       <c r="M45">
         <v>55386549.6599999</v>
       </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>640550.34000010043</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="7"/>
+        <v>1.1432866237947358E-2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2400,23 +3852,56 @@
       <c r="C46">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>777.57000000000698</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0010420686993711E-3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="G46">
         <v>266000</v>
       </c>
       <c r="H46">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>8597.090000000986</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="4"/>
+        <v>3.2319887218048821E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
       <c r="L46">
         <v>267100</v>
       </c>
       <c r="M46">
         <v>254753.15999999901</v>
       </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>12346.840000000986</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="7"/>
+        <v>4.6225533508053113E-2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2426,23 +3911,56 @@
       <c r="C47">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>12273.280000001192</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7435939690898361E-4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="G47">
         <v>73467000</v>
       </c>
       <c r="H47">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>24458.340000003576</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="4"/>
+        <v>3.3291600310348285E-4</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
       <c r="L47">
         <v>75072800</v>
       </c>
       <c r="M47">
         <v>75050829.179999903</v>
       </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>21970.820000097156</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9266019117572752E-4</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2452,23 +3970,56 @@
       <c r="C48">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>209747.43000000995</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1133192323107857E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
       <c r="G48">
         <v>7214700</v>
       </c>
       <c r="H48">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>292627.44000000041</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="4"/>
+        <v>4.0559890224125802E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
       <c r="L48">
         <v>7289800</v>
       </c>
       <c r="M48">
         <v>6882350.23999999</v>
       </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>407449.76000001002</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="7"/>
+        <v>5.5893132870587676E-2</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2478,23 +4029,56 @@
       <c r="C49">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1700.570000000007</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8444360086767971E-2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
       <c r="G49">
         <v>102600</v>
       </c>
       <c r="H49">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>7133.1199999999953</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="4"/>
+        <v>6.9523586744639335E-2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2504,23 +4088,56 @@
       <c r="C50">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="G50">
         <v>859100</v>
       </c>
       <c r="H50">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="L50">
         <v>843200</v>
       </c>
       <c r="M50">
         <v>843200</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2530,23 +4147,56 @@
       <c r="C51">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>110074.66000000946</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2785255822058129E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="G51">
         <v>8925500</v>
       </c>
       <c r="H51">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>326440.38000000082</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="4"/>
+        <v>3.6573903982970231E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
       <c r="L51">
         <v>8833900</v>
       </c>
       <c r="M51">
         <v>8735843.3100000005</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>98056.689999999478</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="7"/>
+        <v>1.1100045280114048E-2</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2556,28 +4206,61 @@
       <c r="C52">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>196315.20000000019</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>8.009596083231342E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
       <c r="G52">
         <v>2440700</v>
       </c>
       <c r="H52">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>236027.12000000011</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="4"/>
+        <v>9.6704683082722218E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
       <c r="L52">
         <v>2321600</v>
       </c>
       <c r="M52">
         <v>2056835.26</v>
       </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="54" spans="1:15" ht="15">
+      <c r="N52">
+        <f t="shared" si="6"/>
+        <v>264764.74</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11404408166781529</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,42 +4274,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="B56">
+        <f>VLOOKUP(A56,A2:D52,4)</f>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="C56">
+        <f>_xlfn.XLOOKUP(A56,A:A,I:I,"value not found",0)</f>
+        <v>27292.159999999974</v>
+      </c>
+      <c r="D56">
+        <f>INDEX(B2:N52,MATCH(A56,A2:A52,0),MATCH(N1,B1:N1,0))</f>
+        <v>9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="B57">
+        <f t="shared" ref="B57:B61" si="9">VLOOKUP(A57,A3:D53,4)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:C61" si="10">_xlfn.XLOOKUP(A57,A:A,I:I,"value not found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:D61" si="11">INDEX(B3:N53,MATCH(A57,A3:A53,0),MATCH(N2,B2:N2,0))</f>
+        <v>311228.08999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="B58">
+        <f t="shared" si="9"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="10"/>
+        <v>189254.06000000006</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="11"/>
+        <v>374962.91000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="B59">
+        <f t="shared" si="9"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="10"/>
+        <v>45485.580000000075</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="11"/>
+        <v>72.879999999888241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="B60">
+        <f t="shared" si="9"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="10"/>
+        <v>8005.7900000010268</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="11"/>
+        <v>1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
+      <c r="B61">
+        <f t="shared" si="9"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="10"/>
+        <v>133456.33000001032</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="11"/>
+        <v>82077.349999999627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,43 +4395,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2690,48 +4444,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,34 +4492,33 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>73</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>75</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +4534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +4554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +4562,7 @@
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -2818,7 +4570,7 @@
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -2826,12 +4578,12 @@
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -2847,7 +4599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +4619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +4628,7 @@
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -2885,7 +4637,7 @@
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -2894,12 +4646,6 @@
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
@@ -2908,6 +4654,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2919,13 +4666,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +4680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +4688,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2949,7 +4696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +4704,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +4712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +4720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +4728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +4736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +4744,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scost\Documents\DA8\Projects\budget_lookups-scost46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D7390-69C8-4E4D-940F-4D193C4C736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FE740-DDD1-4278-A22F-11DC6C63AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4279,15 +4279,15 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <f>VLOOKUP(A56,A2:D52,4)</f>
+        <f>VLOOKUP($A56,$A$2:$N$52,4)</f>
         <v>36209.630000000005</v>
       </c>
       <c r="C56">
-        <f>_xlfn.XLOOKUP(A56,A:A,I:I,"value not found",0)</f>
+        <f>VLOOKUP($A56,$A$2:$N$52,9)</f>
         <v>27292.159999999974</v>
       </c>
       <c r="D56">
-        <f>INDEX(B2:N52,MATCH(A56,A2:A52,0),MATCH(N1,B1:N1,0))</f>
+        <f>VLOOKUP($A56,$A$2:$N$52,14)</f>
         <v>9181.0800000000163</v>
       </c>
     </row>
@@ -4296,15 +4296,15 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="9">VLOOKUP(A57,A3:D53,4)</f>
+        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$2:$N$52,4)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C61" si="10">_xlfn.XLOOKUP(A57,A:A,I:I,"value not found",0)</f>
+        <f t="shared" ref="C57:C61" si="10">VLOOKUP($A57,$A$2:$N$52,9)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D61" si="11">INDEX(B3:N53,MATCH(A57,A3:A53,0),MATCH(N2,B2:N2,0))</f>
+        <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,$A$2:$N$52,14)</f>
         <v>311228.08999999997</v>
       </c>
     </row>
@@ -4399,31 +4399,55 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
+      <c r="C65">
+        <f>_xlfn.XLOOKUP(A56,A:A,I:I,"value not found",0)</f>
+        <v>27292.159999999974</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C70" si="12">_xlfn.XLOOKUP(A57,A:A,I:I,"value not found",0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="12"/>
+        <v>189254.06000000006</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="12"/>
+        <v>45485.580000000075</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="12"/>
+        <v>8005.7900000010268</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
+      <c r="C70">
+        <f t="shared" si="12"/>
+        <v>133456.33000001032</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
@@ -4448,30 +4472,54 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
+      <c r="D74">
+        <f>INDEX(B2:N52,MATCH(A56,A2:A52,0),MATCH(N1,B1:N1,0))</f>
+        <v>9181.0800000000163</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D79" si="13">INDEX(B3:N53,MATCH(A57,A3:A53,0),MATCH(N2,B2:N2,0))</f>
+        <v>311228.08999999997</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
+      <c r="D76">
+        <f t="shared" si="13"/>
+        <v>374962.91000000015</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
+      <c r="D77">
+        <f t="shared" si="13"/>
+        <v>72.879999999888241</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
+      <c r="D78">
+        <f t="shared" si="13"/>
+        <v>1724.9000000000233</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="13"/>
+        <v>82077.349999999627</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4647,11 +4695,14 @@
       <c r="I100" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87" xr:uid="{896A7406-3BAE-432E-83D6-A7A62F7623CF}">
+      <formula1>$A$74:$A$79</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scost\Documents\DA8\Projects\budget_lookups-scost46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FE740-DDD1-4278-A22F-11DC6C63AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DABEBC-B911-4DA5-8143-47A9D9E6A053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4399,54 +4399,102 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
+      <c r="B65">
+        <f>_xlfn.XLOOKUP($A65,$A:$A,D:D)</f>
+        <v>36209.630000000005</v>
+      </c>
       <c r="C65">
-        <f>_xlfn.XLOOKUP(A56,A:A,I:I,"value not found",0)</f>
+        <f>_xlfn.XLOOKUP($A65,$A:$A,I:I)</f>
         <v>27292.159999999974</v>
+      </c>
+      <c r="D65">
+        <f>_xlfn.XLOOKUP($A65,$A:$A,N:N)</f>
+        <v>9181.0800000000163</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B70" si="12">_xlfn.XLOOKUP($A66,$A:$A,D:D)</f>
+        <v>0</v>
+      </c>
       <c r="C66">
-        <f t="shared" ref="C66:C70" si="12">_xlfn.XLOOKUP(A57,A:A,I:I,"value not found",0)</f>
-        <v>0</v>
+        <f t="shared" ref="C66:C70" si="13">_xlfn.XLOOKUP($A66,$A:$A,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP($A66,$A:$A,N:N)</f>
+        <v>311228.08999999997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
+      <c r="B67">
+        <f t="shared" si="12"/>
+        <v>149396.10000000987</v>
+      </c>
       <c r="C67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>189254.06000000006</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="14"/>
+        <v>374962.91000000015</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
+      <c r="B68">
+        <f t="shared" si="12"/>
+        <v>12230.810000000056</v>
+      </c>
       <c r="C68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45485.580000000075</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="14"/>
+        <v>72.879999999888241</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
+      <c r="B69">
+        <f t="shared" si="12"/>
+        <v>4950.4699999999721</v>
+      </c>
       <c r="C69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8005.7900000010268</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="14"/>
+        <v>1724.9000000000233</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
+      <c r="B70">
+        <f t="shared" si="12"/>
+        <v>184239.79000001028</v>
+      </c>
       <c r="C70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>133456.33000001032</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="14"/>
+        <v>82077.349999999627</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4472,8 +4520,16 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
+      <c r="B74">
+        <f>INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$B$1:$P$1,0))</f>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="C74">
+        <f>INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$B$1:$P$1,0))</f>
+        <v>27292.159999999974</v>
+      </c>
       <c r="D74">
-        <f>INDEX(B2:N52,MATCH(A56,A2:A52,0),MATCH(N1,B1:N1,0))</f>
+        <f>INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(D$73,$B$1:$P$1,0))</f>
         <v>9181.0800000000163</v>
       </c>
     </row>
@@ -4481,8 +4537,16 @@
       <c r="A75" t="s">
         <v>25</v>
       </c>
+      <c r="B75">
+        <f t="shared" ref="B75:D79" si="15">INDEX($B$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$B$1:$P$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="D75">
-        <f t="shared" ref="D75:D79" si="13">INDEX(B3:N53,MATCH(A57,A3:A53,0),MATCH(N2,B2:N2,0))</f>
+        <f t="shared" si="15"/>
         <v>311228.08999999997</v>
       </c>
     </row>
@@ -4490,8 +4554,16 @@
       <c r="A76" t="s">
         <v>32</v>
       </c>
+      <c r="B76">
+        <f t="shared" si="15"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="15"/>
+        <v>189254.06000000006</v>
+      </c>
       <c r="D76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>374962.91000000015</v>
       </c>
     </row>
@@ -4499,8 +4571,16 @@
       <c r="A77" t="s">
         <v>38</v>
       </c>
+      <c r="B77">
+        <f t="shared" si="15"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="15"/>
+        <v>45485.580000000075</v>
+      </c>
       <c r="D77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>72.879999999888241</v>
       </c>
     </row>
@@ -4508,8 +4588,16 @@
       <c r="A78" t="s">
         <v>39</v>
       </c>
+      <c r="B78">
+        <f t="shared" si="15"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="15"/>
+        <v>8005.7900000010268</v>
+      </c>
       <c r="D78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1724.9000000000233</v>
       </c>
     </row>
@@ -4517,8 +4605,16 @@
       <c r="A79" t="s">
         <v>55</v>
       </c>
+      <c r="B79">
+        <f t="shared" si="15"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="15"/>
+        <v>133456.33000001032</v>
+      </c>
       <c r="D79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82077.349999999627</v>
       </c>
     </row>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scost\Documents\DA8\Projects\budget_lookups-scost46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DABEBC-B911-4DA5-8143-47A9D9E6A053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B85A67-0B69-401F-80B1-305074776BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>Department</t>
   </si>
@@ -314,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,8 +483,17 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +679,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -809,7 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -821,6 +858,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -877,6 +915,1012 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2017 - 2019 Department</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Budget and Actual Funds </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19015266841644796"/>
+          <c:y val="3.2228360957642727E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$B$84:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30083200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31040700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31282200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6653-4B8E-8C80-2AD0811D5055}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29789104.379999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30793711.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31282141.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6653-4B8E-8C80-2AD0811D5055}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1529176319"/>
+        <c:axId val="1529176735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1529176319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529176735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529176735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529176319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1348740</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4BC3E4-D6D1-4F9C-AF01-5B8427B316CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,3062 +2241,3062 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>356640100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>341243679.13</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>B2-C2</f>
-        <v>15396420.870000005</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <f>IFERROR(D2/B2,0)</f>
-        <v>4.3170750765267295E-2</v>
-      </c>
-      <c r="F2">
-        <f>RANK(E2,E:E,1)</f>
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="str" cm="1">
+        <f t="array" ref="F2">IF(E2=0," ",SUMPRODUCT((E2&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G2">
-        <v>382685200</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>346340810.81999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>G2-H2</f>
-        <v>36344389.180000007</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5">
         <f>IFERROR(I2/G2,0)</f>
-        <v>9.4972027086493035E-2</v>
-      </c>
-      <c r="K2">
-        <f>RANK(J2,J:J,1)</f>
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2">IF(J2=0," ",SUMPRODUCT((J2&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L2">
-        <v>376548600</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>355279492.22999901</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f>L2-M2</f>
-        <v>21269107.770000994</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
         <f>IFERROR(N2/L2,0)</f>
-        <v>5.6484362894991494E-2</v>
-      </c>
-      <c r="P2">
-        <f>RANK(O2,O:O,1)</f>
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P2" t="str" cm="1">
+        <f t="array" ref="P2">IF(O2=0," ",SUMPRODUCT((O2&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B3">
-        <v>328800</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>321214.59000000003</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D52" si="0">B3-C3</f>
-        <v>7585.4099999999744</v>
+        <f>B3-C3</f>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E52" si="1">IFERROR(D3/B3,0)</f>
-        <v>2.3069981751824741E-2</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F52" si="2">RANK(E3,E:E,1)</f>
-        <v>30</v>
+        <f>IFERROR(D3/B3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str" cm="1">
+        <f t="array" ref="F3">IF(E3=0," ",SUMPRODUCT((E3&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3">
-        <v>334800</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>312433.70999999897</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I52" si="3">G3-H3</f>
-        <v>22366.290000001027</v>
+        <f>G3-H3</f>
+        <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3,0)</f>
-        <v>6.6804928315415249E-2</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K52" si="5">RANK(J3,J:J,1)</f>
-        <v>38</v>
+        <f>IFERROR(I3/G3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="str" cm="1">
+        <f t="array" ref="K3">IF(J3=0," ",SUMPRODUCT((J3&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L3">
-        <v>322700</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>322263.03999999998</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N52" si="6">L3-M3</f>
-        <v>436.96000000002095</v>
+        <f>L3-M3</f>
+        <v>0</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
-        <v>1.3540749922529313E-3</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P52" si="8">RANK(O3,O:O,1)</f>
-        <v>15</v>
+        <f>IFERROR(N3/L3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" t="str" cm="1">
+        <f t="array" ref="P3">IF(O3=0," ",SUMPRODUCT((O3&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>3130600</v>
+        <v>832600</v>
       </c>
       <c r="C4">
-        <v>3115157.5599999898</v>
+        <v>832600</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>15442.440000010189</v>
+        <f>B4-C4</f>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>4.9327413275443007E-3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>IFERROR(D4/B4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str" cm="1">
+        <f t="array" ref="F4">IF(E4=0," ",SUMPRODUCT((E4&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4">
-        <v>3652300</v>
+        <v>859100</v>
       </c>
       <c r="H4">
-        <v>3589693.2099999902</v>
+        <v>859100</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>62606.790000009816</v>
+        <f>G4-H4</f>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="4"/>
-        <v>1.7141743558856015E-2</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>IFERROR(I4/G4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" t="str" cm="1">
+        <f t="array" ref="K4">IF(J4=0," ",SUMPRODUCT((J4&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L4">
-        <v>3662400</v>
+        <v>843200</v>
       </c>
       <c r="M4">
-        <v>3564983.04999999</v>
+        <v>843200</v>
       </c>
       <c r="N4">
-        <f t="shared" si="6"/>
-        <v>97416.950000009965</v>
+        <f>L4-M4</f>
+        <v>0</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="7"/>
-        <v>2.6599210899959033E-2</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f>IFERROR(N4/L4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" t="str" cm="1">
+        <f t="array" ref="P4">IF(O4=0," ",SUMPRODUCT((O4&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>7670700</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6947552.6699999999</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>723147.33000000007</v>
+        <f>B5-C5</f>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>9.4273968477453174E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f>IFERROR(D5/B5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str" cm="1">
+        <f t="array" ref="F5">IF(E5=0," ",SUMPRODUCT((E5&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G5">
-        <v>7968300</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7020609.3200000003</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>947690.6799999997</v>
+        <f>G5-H5</f>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.118932605449092</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>47</v>
+        <f>IFERROR(I5/G5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" t="str" cm="1">
+        <f t="array" ref="K5">IF(J5=0," ",SUMPRODUCT((J5&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L5">
-        <v>7759600</v>
+        <v>375000</v>
       </c>
       <c r="M5">
-        <v>7497322.9100000001</v>
+        <v>63771.91</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
-        <v>262277.08999999985</v>
+        <f>L5-M5</f>
+        <v>311228.08999999997</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="7"/>
-        <v>3.3800336357544182E-2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f>IFERROR(N5/L5,0)</f>
+        <v>0.82994157333333329</v>
+      </c>
+      <c r="P5" cm="1">
+        <f t="array" ref="P5">IF(O5=0," ",SUMPRODUCT((O5&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>409300</v>
+        <v>124385900</v>
       </c>
       <c r="C6">
-        <v>385908.52</v>
+        <v>124384360.159999</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>23391.479999999981</v>
+        <f>B6-C6</f>
+        <v>1539.8400010019541</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7149963352064452E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f>IFERROR(D6/B6,0)</f>
+        <v>1.2379538203300809E-5</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">IF(E6=0," ",SUMPRODUCT((E6&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>428500</v>
+        <v>131849400</v>
       </c>
       <c r="H6">
-        <v>427758.64</v>
+        <v>131839624.37</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
-        <v>741.35999999998603</v>
+        <f>G6-H6</f>
+        <v>9775.6299999952316</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="4"/>
-        <v>1.7301283547257551E-3</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IFERROR(I6/G6,0)</f>
+        <v>7.4142392760188761E-5</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">IF(J6=0," ",SUMPRODUCT((J6&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>47</v>
       </c>
       <c r="L6">
-        <v>445200</v>
+        <v>130621400</v>
       </c>
       <c r="M6">
-        <v>445114.28999999899</v>
+        <v>130621283.53999899</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
-        <v>85.710000001010485</v>
+        <f>L6-M6</f>
+        <v>116.46000100672245</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="7"/>
-        <v>1.925202156356929E-4</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f>IFERROR(N6/L6,0)</f>
+        <v>8.9158438821450736E-7</v>
+      </c>
+      <c r="P6" cm="1">
+        <f t="array" ref="P6">IF(O6=0," ",SUMPRODUCT((O6&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>3329000</v>
+        <v>6600700</v>
       </c>
       <c r="C7">
-        <v>2946071.21</v>
+        <v>6522480.4599999897</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>382928.79000000004</v>
+        <f>B7-C7</f>
+        <v>78219.540000010282</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.11502817362571344</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>IFERROR(D7/B7,0)</f>
+        <v>1.1850188616360429E-2</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">IF(E7=0," ",SUMPRODUCT((E7&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>3390900</v>
+        <v>7352500</v>
       </c>
       <c r="H7">
-        <v>3051483.41</v>
+        <v>7350464.0800000001</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
-        <v>339416.58999999985</v>
+        <f>G7-H7</f>
+        <v>2035.9199999999255</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.10009631366303927</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f>IFERROR(I7/G7,0)</f>
+        <v>2.769017341040361E-4</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">IF(J7=0," ",SUMPRODUCT((J7&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>46</v>
       </c>
       <c r="L7">
-        <v>3345200</v>
+        <v>7397200</v>
       </c>
       <c r="M7">
-        <v>2946440.08</v>
+        <v>7397093</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
-        <v>398759.91999999993</v>
+        <f>L7-M7</f>
+        <v>107</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="7"/>
-        <v>0.11920361114432618</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="8"/>
-        <v>48</v>
+        <f>IFERROR(N7/L7,0)</f>
+        <v>1.4464932677229222E-5</v>
+      </c>
+      <c r="P7" cm="1">
+        <f t="array" ref="P7">IF(O7=0," ",SUMPRODUCT((O7&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>1552100</v>
+        <v>70390700</v>
       </c>
       <c r="C8">
-        <v>1315623.30999999</v>
+        <v>70378426.719999999</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>236476.69000000996</v>
+        <f>B8-C8</f>
+        <v>12273.280000001192</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.15235918433091292</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>51</v>
+        <f>IFERROR(D8/B8,0)</f>
+        <v>1.7435939690898361E-4</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">IF(E8=0," ",SUMPRODUCT((E8&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>1590700</v>
+        <v>73467000</v>
       </c>
       <c r="H8">
-        <v>1383905.98999999</v>
+        <v>73442541.659999996</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>206794.01000001002</v>
+        <f>G8-H8</f>
+        <v>24458.340000003576</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="4"/>
-        <v>0.13000189224870184</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>48</v>
+        <f>IFERROR(I8/G8,0)</f>
+        <v>3.3291600310348285E-4</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">IF(J8=0," ",SUMPRODUCT((J8&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>45</v>
       </c>
       <c r="L8">
-        <v>1579300</v>
+        <v>75072800</v>
       </c>
       <c r="M8">
-        <v>1337735.3199999901</v>
+        <v>75050829.179999903</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
-        <v>241564.68000000995</v>
+        <f>L8-M8</f>
+        <v>21970.820000097156</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="7"/>
-        <v>0.15295680364719175</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>IFERROR(N8/L8,0)</f>
+        <v>2.9266019117572752E-4</v>
+      </c>
+      <c r="P8" cm="1">
+        <f t="array" ref="P8">IF(O8=0," ",SUMPRODUCT((O8&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>9349400</v>
+        <v>409300</v>
       </c>
       <c r="C9">
-        <v>8952825.2799999993</v>
+        <v>385908.52</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>396574.72000000067</v>
+        <f>B9-C9</f>
+        <v>23391.479999999981</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2417130511048909E-2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f>IFERROR(D9/B9,0)</f>
+        <v>5.7149963352064452E-2</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">IF(E9=0," ",SUMPRODUCT((E9&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11073700</v>
+        <v>428500</v>
       </c>
       <c r="H9">
-        <v>9929059.5199999996</v>
+        <v>427758.64</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
-        <v>1144640.4800000004</v>
+        <f>G9-H9</f>
+        <v>741.35999999998603</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.10336567542917005</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>45</v>
+        <f>IFERROR(I9/G9,0)</f>
+        <v>1.7301283547257551E-3</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">IF(J9=0," ",SUMPRODUCT((J9&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>44</v>
       </c>
       <c r="L9">
-        <v>10790500</v>
+        <v>445200</v>
       </c>
       <c r="M9">
-        <v>9993599.52999999</v>
+        <v>445114.28999999899</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
-        <v>796900.47000000998</v>
+        <f>L9-M9</f>
+        <v>85.710000001010485</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="7"/>
-        <v>7.3852043000788653E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f>IFERROR(N9/L9,0)</f>
+        <v>1.925202156356929E-4</v>
+      </c>
+      <c r="P9" cm="1">
+        <f t="array" ref="P9">IF(O9=0," ",SUMPRODUCT((O9&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>443300</v>
+        <v>927703099.99999905</v>
       </c>
       <c r="C10">
-        <v>407090.37</v>
+        <v>920284264.73000002</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>36209.630000000005</v>
+        <f>B10-C10</f>
+        <v>7418835.2699990273</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>8.1681998646514792E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <f>IFERROR(D10/B10,0)</f>
+        <v>7.9969930789269058E-3</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">IF(E10=0," ",SUMPRODUCT((E10&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>495200</v>
+        <v>979671000</v>
       </c>
       <c r="H10">
-        <v>467907.84000000003</v>
+        <v>977068513.48000002</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
-        <v>27292.159999999974</v>
+        <f>G10-H10</f>
+        <v>2602486.5199999809</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="4"/>
-        <v>5.5113408723747932E-2</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <f>IFERROR(I10/G10,0)</f>
+        <v>2.6564903115433454E-3</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">IF(J10=0," ",SUMPRODUCT((J10&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>43</v>
       </c>
       <c r="L10">
-        <v>487500</v>
+        <v>989572899.99999905</v>
       </c>
       <c r="M10">
-        <v>478318.92</v>
+        <v>984116289.40999901</v>
       </c>
       <c r="N10">
-        <f t="shared" si="6"/>
-        <v>9181.0800000000163</v>
+        <f>L10-M10</f>
+        <v>5456610.5900000334</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="7"/>
-        <v>1.883298461538465E-2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <f>IFERROR(N10/L10,0)</f>
+        <v>5.5141067323084929E-3</v>
+      </c>
+      <c r="P10" cm="1">
+        <f t="array" ref="P10">IF(O10=0," ",SUMPRODUCT((O10&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>12132200</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>12030494.1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B11-C11</f>
+        <v>101705.90000000037</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>IFERROR(D11/B11,0)</f>
+        <v>8.3831374359143746E-3</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">IF(E11=0," ",SUMPRODUCT((E11&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>12735900</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12685514.279999901</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>G11-H11</f>
+        <v>50385.720000099391</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IFERROR(I11/G11,0)</f>
+        <v>3.9561962641116366E-3</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">IF(J11=0," ",SUMPRODUCT((J11&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>42</v>
       </c>
       <c r="L11">
-        <v>375000</v>
+        <v>12861300</v>
       </c>
       <c r="M11">
-        <v>63771.91</v>
+        <v>12826009.609999999</v>
       </c>
       <c r="N11">
-        <f t="shared" si="6"/>
-        <v>311228.08999999997</v>
+        <f>L11-M11</f>
+        <v>35290.390000000596</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="7"/>
-        <v>0.82994157333333329</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f>IFERROR(N11/L11,0)</f>
+        <v>2.7439209100169185E-3</v>
+      </c>
+      <c r="P11" cm="1">
+        <f t="array" ref="P11">IF(O11=0," ",SUMPRODUCT((O11&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>4280900</v>
+        <v>30083200</v>
       </c>
       <c r="C12">
-        <v>4066595.33</v>
+        <v>29789104.379999999</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>214304.66999999993</v>
+        <f>B12-C12</f>
+        <v>294095.62000000104</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>5.0060657805601608E-2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
+        <f>IFERROR(D12/B12,0)</f>
+        <v>9.7760750186150751E-3</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">IF(E12=0," ",SUMPRODUCT((E12&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
         <v>39</v>
       </c>
       <c r="G12">
-        <v>4700400</v>
+        <v>31040700</v>
       </c>
       <c r="H12">
-        <v>4205555.5999999996</v>
+        <v>30793711.48</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
-        <v>494844.40000000037</v>
+        <f>G12-H12</f>
+        <v>246988.51999999955</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="4"/>
-        <v>0.10527708280146378</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
-        <v>46</v>
+        <f>IFERROR(I12/G12,0)</f>
+        <v>7.9569249404813532E-3</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">IF(J12=0," ",SUMPRODUCT((J12&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>41</v>
       </c>
       <c r="L12">
-        <v>4677800</v>
+        <v>31282200</v>
       </c>
       <c r="M12">
-        <v>4371713.1399999997</v>
+        <v>31282141.25</v>
       </c>
       <c r="N12">
-        <f t="shared" si="6"/>
-        <v>306086.86000000034</v>
+        <f>L12-M12</f>
+        <v>58.75</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="7"/>
-        <v>6.5433934755654441E-2</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f>IFERROR(N12/L12,0)</f>
+        <v>1.8780648419868168E-6</v>
+      </c>
+      <c r="P12" cm="1">
+        <f t="array" ref="P12">IF(O12=0," ",SUMPRODUCT((O12&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>5847800</v>
+        <v>512000</v>
       </c>
       <c r="C13">
-        <v>5772288.3300000001</v>
+        <v>505017.37</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>75511.669999999925</v>
+        <f>B13-C13</f>
+        <v>6982.6300000000047</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2912833886247806E-2</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
+        <f>IFERROR(D13/B13,0)</f>
+        <v>1.3637949218750009E-2</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">IF(E13=0," ",SUMPRODUCT((E13&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>530500</v>
+      </c>
+      <c r="H13">
+        <v>524402.98</v>
+      </c>
+      <c r="I13">
+        <f>G13-H13</f>
+        <v>6097.0200000000186</v>
+      </c>
+      <c r="J13" s="5">
+        <f>IFERROR(I13/G13,0)</f>
+        <v>1.1492968897266765E-2</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">IF(J13=0," ",SUMPRODUCT((J13&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>526200</v>
+      </c>
+      <c r="M13">
+        <v>504989.88</v>
+      </c>
+      <c r="N13">
+        <f>L13-M13</f>
+        <v>21210.119999999995</v>
+      </c>
+      <c r="O13" s="5">
+        <f>IFERROR(N13/L13,0)</f>
+        <v>4.0308095781071827E-2</v>
+      </c>
+      <c r="P13" cm="1">
+        <f t="array" ref="P13">IF(O13=0," ",SUMPRODUCT((O13&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
         <v>19</v>
-      </c>
-      <c r="G13">
-        <v>6223700</v>
-      </c>
-      <c r="H13">
-        <v>5909077.9399999902</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>314622.06000000983</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="4"/>
-        <v>5.0552253482656594E-2</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="L13">
-        <v>6207300</v>
-      </c>
-      <c r="M13">
-        <v>6056976.6699999999</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="6"/>
-        <v>150323.33000000007</v>
-      </c>
-      <c r="O13" s="5">
-        <f t="shared" si="7"/>
-        <v>2.4217184605222895E-2</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="8"/>
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>512000</v>
+        <v>188593300</v>
       </c>
       <c r="C14">
-        <v>505017.37</v>
+        <v>188551675.67999899</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>6982.6300000000047</v>
+        <f>B14-C14</f>
+        <v>41624.320001006126</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3637949218750009E-2</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>IFERROR(D14/B14,0)</f>
+        <v>2.2070943135841053E-4</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">IF(E14=0," ",SUMPRODUCT((E14&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>530500</v>
+        <v>199130300</v>
       </c>
       <c r="H14">
-        <v>524402.98</v>
+        <v>196755033.31</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
-        <v>6097.0200000000186</v>
+        <f>G14-H14</f>
+        <v>2375266.6899999976</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1492968897266765E-2</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IFERROR(I14/G14,0)</f>
+        <v>1.1928203241796942E-2</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">IF(J14=0," ",SUMPRODUCT((J14&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>39</v>
       </c>
       <c r="L14">
-        <v>526200</v>
+        <v>199954600</v>
       </c>
       <c r="M14">
-        <v>504989.88</v>
+        <v>199954563.74999899</v>
       </c>
       <c r="N14">
-        <f t="shared" si="6"/>
-        <v>21210.119999999995</v>
+        <f>L14-M14</f>
+        <v>36.250001013278961</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="7"/>
-        <v>4.0308095781071827E-2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="8"/>
-        <v>33</v>
+        <f>IFERROR(N14/L14,0)</f>
+        <v>1.8129115815929696E-7</v>
+      </c>
+      <c r="P14" cm="1">
+        <f t="array" ref="P14">IF(O14=0," ",SUMPRODUCT((O14&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>156049100</v>
+        <v>11566000</v>
       </c>
       <c r="C15">
-        <v>156545919.90000001</v>
+        <v>11412339.8799999</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>-496819.90000000596</v>
+        <f>B15-C15</f>
+        <v>153660.12000009976</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.1837408866824991E-3</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IFERROR(D15/B15,0)</f>
+        <v>1.3285502334437123E-2</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">IF(E15=0," ",SUMPRODUCT((E15&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>32</v>
       </c>
       <c r="G15">
-        <v>184167800</v>
+        <v>11980700</v>
       </c>
       <c r="H15">
-        <v>175966389.24999899</v>
+        <v>11791977.9699999</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>8201410.7500010133</v>
+        <f>G15-H15</f>
+        <v>188722.03000009991</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="4"/>
-        <v>4.4532273014072019E-2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f>IFERROR(I15/G15,0)</f>
+        <v>1.5752170574348738E-2</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">IF(J15=0," ",SUMPRODUCT((J15&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>38</v>
       </c>
       <c r="L15">
-        <v>188953500</v>
+        <v>11935200</v>
       </c>
       <c r="M15">
-        <v>184450910.84999901</v>
+        <v>11934454.77</v>
       </c>
       <c r="N15">
-        <f t="shared" si="6"/>
-        <v>4502589.1500009894</v>
+        <f>L15-M15</f>
+        <v>745.23000000044703</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="7"/>
-        <v>2.3829085727446114E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="8"/>
-        <v>24</v>
+        <f>IFERROR(N15/L15,0)</f>
+        <v>6.2439674240938325E-5</v>
+      </c>
+      <c r="P15" cm="1">
+        <f t="array" ref="P15">IF(O15=0," ",SUMPRODUCT((O15&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>6600700</v>
+        <v>484100</v>
       </c>
       <c r="C16">
-        <v>6522480.4599999897</v>
+        <v>479149.53</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>78219.540000010282</v>
+        <f>B16-C16</f>
+        <v>4950.4699999999721</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1850188616360429E-2</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f>IFERROR(D16/B16,0)</f>
+        <v>1.0226130964676661E-2</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">IF(E16=0," ",SUMPRODUCT((E16&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>38</v>
       </c>
       <c r="G16">
-        <v>7352500</v>
+        <v>505200</v>
       </c>
       <c r="H16">
-        <v>7350464.0800000001</v>
+        <v>497194.20999999897</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>2035.9199999999255</v>
+        <f>G16-H16</f>
+        <v>8005.7900000010268</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="4"/>
-        <v>2.769017341040361E-4</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>IFERROR(I16/G16,0)</f>
+        <v>1.5846773555029746E-2</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">IF(J16=0," ",SUMPRODUCT((J16&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>37</v>
       </c>
       <c r="L16">
-        <v>7397200</v>
+        <v>496500</v>
       </c>
       <c r="M16">
-        <v>7397093</v>
+        <v>494775.1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="6"/>
-        <v>107</v>
+        <f>L16-M16</f>
+        <v>1724.9000000000233</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="7"/>
-        <v>1.4464932677229222E-5</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f>IFERROR(N16/L16,0)</f>
+        <v>3.4741188318228064E-3</v>
+      </c>
+      <c r="P16" cm="1">
+        <f t="array" ref="P16">IF(O16=0," ",SUMPRODUCT((O16&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>14860800</v>
+        <v>3130600</v>
       </c>
       <c r="C17">
-        <v>14439480.050000001</v>
+        <v>3115157.5599999898</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>421319.94999999925</v>
+        <f>B17-C17</f>
+        <v>15442.440000010189</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8351094826658003E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f>IFERROR(D17/B17,0)</f>
+        <v>4.9327413275443007E-3</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">IF(E17=0," ",SUMPRODUCT((E17&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>42</v>
       </c>
       <c r="G17">
-        <v>15309700</v>
+        <v>3652300</v>
       </c>
       <c r="H17">
-        <v>14645233.51</v>
+        <v>3589693.2099999902</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
-        <v>664466.49000000022</v>
+        <f>G17-H17</f>
+        <v>62606.790000009816</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="4"/>
-        <v>4.3401666263871937E-2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f>IFERROR(I17/G17,0)</f>
+        <v>1.7141743558856015E-2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">IF(J17=0," ",SUMPRODUCT((J17&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>36</v>
       </c>
       <c r="L17">
-        <v>15311800</v>
+        <v>3662400</v>
       </c>
       <c r="M17">
-        <v>14346057.039999999</v>
+        <v>3564983.04999999</v>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
-        <v>965742.96000000089</v>
+        <f>L17-M17</f>
+        <v>97416.950000009965</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="7"/>
-        <v>6.3071811282801551E-2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="8"/>
-        <v>41</v>
+        <f>IFERROR(N17/L17,0)</f>
+        <v>2.6599210899959033E-2</v>
+      </c>
+      <c r="P17" cm="1">
+        <f t="array" ref="P17">IF(O17=0," ",SUMPRODUCT((O17&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>2764700</v>
+        <v>5999400</v>
       </c>
       <c r="C18">
-        <v>2615303.8999999901</v>
+        <v>5925637.7199999904</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>149396.10000000987</v>
+        <f>B18-C18</f>
+        <v>73762.280000009574</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>5.4037002206391245E-2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f>IFERROR(D18/B18,0)</f>
+        <v>1.2294942827617691E-2</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">IF(E18=0," ",SUMPRODUCT((E18&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>2861000</v>
+        <v>6195500</v>
       </c>
       <c r="H18">
-        <v>2671745.94</v>
+        <v>6084985.4699999997</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>189254.06000000006</v>
+        <f>G18-H18</f>
+        <v>110514.53000000026</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="4"/>
-        <v>6.6149619014330668E-2</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f>IFERROR(I18/G18,0)</f>
+        <v>1.7837871035428981E-2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">IF(J18=0," ",SUMPRODUCT((J18&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>35</v>
       </c>
       <c r="L18">
-        <v>2910600</v>
+        <v>6157400</v>
       </c>
       <c r="M18">
-        <v>2535637.09</v>
+        <v>5987572.0199999996</v>
       </c>
       <c r="N18">
-        <f t="shared" si="6"/>
-        <v>374962.91000000015</v>
+        <f>L18-M18</f>
+        <v>169827.98000000045</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="7"/>
-        <v>0.12882667147667154</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="8"/>
-        <v>49</v>
+        <f>IFERROR(N18/L18,0)</f>
+        <v>2.7581118653977402E-2</v>
+      </c>
+      <c r="P18" cm="1">
+        <f t="array" ref="P18">IF(O18=0," ",SUMPRODUCT((O18&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>8837300</v>
+        <v>4593300</v>
       </c>
       <c r="C19">
-        <v>8460963.1999999899</v>
+        <v>4409060.2099999897</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>376336.80000001006</v>
+        <f>B19-C19</f>
+        <v>184239.79000001028</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
-        <v>4.258504294298146E-2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f>IFERROR(D19/B19,0)</f>
+        <v>4.0110550149132493E-2</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">IF(E19=0," ",SUMPRODUCT((E19&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>17</v>
       </c>
       <c r="G19">
-        <v>9713300</v>
+        <v>5089500</v>
       </c>
       <c r="H19">
-        <v>8991707.2399999909</v>
+        <v>4956043.6699999897</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
-        <v>721592.76000000909</v>
+        <f>G19-H19</f>
+        <v>133456.33000001032</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="4"/>
-        <v>7.4289145810384635E-2</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f>IFERROR(I19/G19,0)</f>
+        <v>2.6221894095689226E-2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">IF(J19=0," ",SUMPRODUCT((J19&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>34</v>
       </c>
       <c r="L19">
-        <v>9343000</v>
+        <v>4799900</v>
       </c>
       <c r="M19">
-        <v>8766655.9100000001</v>
+        <v>4717822.6500000004</v>
       </c>
       <c r="N19">
-        <f t="shared" si="6"/>
-        <v>576344.08999999985</v>
+        <f>L19-M19</f>
+        <v>82077.349999999627</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="7"/>
-        <v>6.1687262121374278E-2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <f>IFERROR(N19/L19,0)</f>
+        <v>1.7099804162586642E-2</v>
+      </c>
+      <c r="P19" cm="1">
+        <f t="array" ref="P19">IF(O19=0," ",SUMPRODUCT((O19&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B20">
-        <v>124385900</v>
+        <v>259100</v>
       </c>
       <c r="C20">
-        <v>124384360.159999</v>
+        <v>258322.43</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1539.8400010019541</v>
+        <f>B20-C20</f>
+        <v>777.57000000000698</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2379538203300809E-5</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>IFERROR(D20/B20,0)</f>
+        <v>3.0010420686993711E-3</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">IF(E20=0," ",SUMPRODUCT((E20&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>43</v>
       </c>
       <c r="G20">
-        <v>131849400</v>
+        <v>266000</v>
       </c>
       <c r="H20">
-        <v>131839624.37</v>
+        <v>257402.90999999901</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>9775.6299999952316</v>
+        <f>G20-H20</f>
+        <v>8597.090000000986</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="4"/>
-        <v>7.4142392760188761E-5</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>IFERROR(I20/G20,0)</f>
+        <v>3.2319887218048821E-2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">IF(J20=0," ",SUMPRODUCT((J20&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>33</v>
       </c>
       <c r="L20">
-        <v>130621400</v>
+        <v>267100</v>
       </c>
       <c r="M20">
-        <v>130621283.53999899</v>
+        <v>254753.15999999901</v>
       </c>
       <c r="N20">
-        <f t="shared" si="6"/>
-        <v>116.46000100672245</v>
+        <f>L20-M20</f>
+        <v>12346.840000000986</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="7"/>
-        <v>8.9158438821450736E-7</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f>IFERROR(N20/L20,0)</f>
+        <v>4.6225533508053113E-2</v>
+      </c>
+      <c r="P20" cm="1">
+        <f t="array" ref="P20">IF(O20=0," ",SUMPRODUCT((O20&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>24332100</v>
+        <v>1765600</v>
       </c>
       <c r="C21">
-        <v>22408587.5499999</v>
+        <v>1740827.69</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1923512.4500000998</v>
+        <f>B21-C21</f>
+        <v>24772.310000000056</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
-        <v>7.9052463618023094E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <f>IFERROR(D21/B21,0)</f>
+        <v>1.4030533529678329E-2</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">IF(E21=0," ",SUMPRODUCT((E21&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>29</v>
       </c>
       <c r="G21">
-        <v>24497400</v>
+        <v>1823300</v>
       </c>
       <c r="H21">
-        <v>22655993.629999999</v>
+        <v>1762676.85</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
-        <v>1841406.370000001</v>
+        <f>G21-H21</f>
+        <v>60623.149999999907</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="4"/>
-        <v>7.5167420624229556E-2</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <f>IFERROR(I21/G21,0)</f>
+        <v>3.3249136181648611E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">IF(J21=0," ",SUMPRODUCT((J21&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>32</v>
       </c>
       <c r="L21">
-        <v>24323000</v>
+        <v>1870700</v>
       </c>
       <c r="M21">
-        <v>23434073.089999899</v>
+        <v>1801391.34</v>
       </c>
       <c r="N21">
-        <f t="shared" si="6"/>
-        <v>888926.91000010073</v>
+        <f>L21-M21</f>
+        <v>69308.659999999916</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="7"/>
-        <v>3.6546762734864152E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f>IFERROR(N21/L21,0)</f>
+        <v>3.7049585716576634E-2</v>
+      </c>
+      <c r="P21" cm="1">
+        <f t="array" ref="P21">IF(O21=0," ",SUMPRODUCT((O21&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B22">
-        <v>11566000</v>
+        <v>8609500</v>
       </c>
       <c r="C22">
-        <v>11412339.8799999</v>
+        <v>8499425.3399999905</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>153660.12000009976</v>
+        <f>B22-C22</f>
+        <v>110074.66000000946</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3285502334437123E-2</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>IFERROR(D22/B22,0)</f>
+        <v>1.2785255822058129E-2</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">IF(E22=0," ",SUMPRODUCT((E22&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>11980700</v>
+        <v>8925500</v>
       </c>
       <c r="H22">
-        <v>11791977.9699999</v>
+        <v>8599059.6199999992</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
-        <v>188722.03000009991</v>
+        <f>G22-H22</f>
+        <v>326440.38000000082</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="4"/>
-        <v>1.5752170574348738E-2</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>IFERROR(I22/G22,0)</f>
+        <v>3.6573903982970231E-2</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">IF(J22=0," ",SUMPRODUCT((J22&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>31</v>
       </c>
       <c r="L22">
-        <v>11935200</v>
+        <v>8833900</v>
       </c>
       <c r="M22">
-        <v>11934454.77</v>
+        <v>8735843.3100000005</v>
       </c>
       <c r="N22">
-        <f t="shared" si="6"/>
-        <v>745.23000000044703</v>
+        <f>L22-M22</f>
+        <v>98056.689999999478</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="7"/>
-        <v>6.2439674240938325E-5</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f>IFERROR(N22/L22,0)</f>
+        <v>1.1100045280114048E-2</v>
+      </c>
+      <c r="P22" cm="1">
+        <f t="array" ref="P22">IF(O22=0," ",SUMPRODUCT((O22&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B23">
-        <v>20862700</v>
+        <v>55301600</v>
       </c>
       <c r="C23">
-        <v>20036743.4099999</v>
+        <v>54589584.0499999</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>825956.59000010043</v>
+        <f>B23-C23</f>
+        <v>712015.95000009984</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
-        <v>3.9590110100806722E-2</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
+        <f>IFERROR(D23/B23,0)</f>
+        <v>1.287514194887851E-2</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">IF(E23=0," ",SUMPRODUCT((E23&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
         <v>34</v>
       </c>
       <c r="G23">
-        <v>22683800</v>
+        <v>56792200</v>
       </c>
       <c r="H23">
-        <v>21722126.219999898</v>
+        <v>54594953.959999897</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>961673.78000010177</v>
+        <f>G23-H23</f>
+        <v>2197246.0400001034</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="4"/>
-        <v>4.2394738976719144E-2</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f>IFERROR(I23/G23,0)</f>
+        <v>3.8689222111488959E-2</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">IF(J23=0," ",SUMPRODUCT((J23&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>30</v>
       </c>
       <c r="L23">
-        <v>23220300</v>
+        <v>56027100</v>
       </c>
       <c r="M23">
-        <v>22619057.440000001</v>
+        <v>55386549.6599999</v>
       </c>
       <c r="N23">
-        <f t="shared" si="6"/>
-        <v>601242.55999999866</v>
+        <f>L23-M23</f>
+        <v>640550.34000010043</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="7"/>
-        <v>2.5892971236375011E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="8"/>
-        <v>26</v>
+        <f>IFERROR(N23/L23,0)</f>
+        <v>1.1432866237947358E-2</v>
+      </c>
+      <c r="P23" cm="1">
+        <f t="array" ref="P23">IF(O23=0," ",SUMPRODUCT((O23&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>917200</v>
+        <v>6737100</v>
       </c>
       <c r="C24">
-        <v>904969.19</v>
+        <v>6527352.5699999901</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>12230.810000000056</v>
+        <f>B24-C24</f>
+        <v>209747.43000000995</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3334943305713101E-2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>IFERROR(D24/B24,0)</f>
+        <v>3.1133192323107857E-2</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">IF(E24=0," ",SUMPRODUCT((E24&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>20</v>
       </c>
       <c r="G24">
-        <v>1112700</v>
+        <v>7214700</v>
       </c>
       <c r="H24">
-        <v>1067214.42</v>
+        <v>6922072.5599999996</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
-        <v>45485.580000000075</v>
+        <f>G24-H24</f>
+        <v>292627.44000000041</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="4"/>
-        <v>4.087856565111897E-2</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f>IFERROR(I24/G24,0)</f>
+        <v>4.0559890224125802E-2</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">IF(J24=0," ",SUMPRODUCT((J24&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>29</v>
       </c>
       <c r="L24">
-        <v>1112600</v>
+        <v>7289800</v>
       </c>
       <c r="M24">
-        <v>1112527.1200000001</v>
+        <v>6882350.23999999</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
-        <v>72.879999999888241</v>
+        <f>L24-M24</f>
+        <v>407449.76000001002</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="7"/>
-        <v>6.5504224339284781E-5</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <f>IFERROR(N24/L24,0)</f>
+        <v>5.5893132870587676E-2</v>
+      </c>
+      <c r="P24" cm="1">
+        <f t="array" ref="P24">IF(O24=0," ",SUMPRODUCT((O24&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>484100</v>
+        <v>917200</v>
       </c>
       <c r="C25">
-        <v>479149.53</v>
+        <v>904969.19</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>4950.4699999999721</v>
+        <f>B25-C25</f>
+        <v>12230.810000000056</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0226130964676661E-2</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>IFERROR(D25/B25,0)</f>
+        <v>1.3334943305713101E-2</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">IF(E25=0," ",SUMPRODUCT((E25&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>31</v>
       </c>
       <c r="G25">
-        <v>505200</v>
+        <v>1112700</v>
       </c>
       <c r="H25">
-        <v>497194.20999999897</v>
+        <v>1067214.42</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>8005.7900000010268</v>
+        <f>G25-H25</f>
+        <v>45485.580000000075</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="4"/>
-        <v>1.5846773555029746E-2</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>IFERROR(I25/G25,0)</f>
+        <v>4.087856565111897E-2</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">IF(J25=0," ",SUMPRODUCT((J25&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>28</v>
       </c>
       <c r="L25">
-        <v>496500</v>
+        <v>1112600</v>
       </c>
       <c r="M25">
-        <v>494775.1</v>
+        <v>1112527.1200000001</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
-        <v>1724.9000000000233</v>
+        <f>L25-M25</f>
+        <v>72.879999999888241</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="7"/>
-        <v>3.4741188318228064E-3</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f>IFERROR(N25/L25,0)</f>
+        <v>6.5504224339284781E-5</v>
+      </c>
+      <c r="P25" cm="1">
+        <f t="array" ref="P25">IF(O25=0," ",SUMPRODUCT((O25&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>5249800</v>
+        <v>2561800</v>
       </c>
       <c r="C26">
-        <v>4801960.08</v>
+        <v>2523884.71</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>447839.91999999993</v>
+        <f>B26-C26</f>
+        <v>37915.290000000037</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="1"/>
-        <v>8.5306091660634673E-2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <f>IFERROR(D26/B26,0)</f>
+        <v>1.4800253727847622E-2</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">IF(E26=0," ",SUMPRODUCT((E26&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>28</v>
       </c>
       <c r="G26">
-        <v>5442200</v>
+        <v>2779500</v>
       </c>
       <c r="H26">
-        <v>5122329.02999999</v>
+        <v>2665264.4399999902</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>319870.97000000998</v>
+        <f>G26-H26</f>
+        <v>114235.56000000983</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="4"/>
-        <v>5.8776040939327839E-2</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f>IFERROR(I26/G26,0)</f>
+        <v>4.1099320021590155E-2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">IF(J26=0," ",SUMPRODUCT((J26&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>27</v>
       </c>
       <c r="L26">
-        <v>5430700</v>
+        <v>2889900</v>
       </c>
       <c r="M26">
-        <v>5117235.21</v>
+        <v>2889864.67</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
-        <v>313464.79000000004</v>
+        <f>L26-M26</f>
+        <v>35.330000000074506</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="7"/>
-        <v>5.7720881286022069E-2</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f>IFERROR(N26/L26,0)</f>
+        <v>1.2225336516860273E-5</v>
+      </c>
+      <c r="P26" cm="1">
+        <f t="array" ref="P26">IF(O26=0," ",SUMPRODUCT((O26&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>20862700</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>20036743.4099999</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B27-C27</f>
+        <v>825956.59000010043</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>IFERROR(D27/B27,0)</f>
+        <v>3.9590110100806722E-2</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">IF(E27=0," ",SUMPRODUCT((E27&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>18</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>22683800</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>21722126.219999898</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>G27-H27</f>
+        <v>961673.78000010177</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IFERROR(I27/G27,0)</f>
+        <v>4.2394738976719144E-2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">IF(J27=0," ",SUMPRODUCT((J27&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>26</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>23220300</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>22619057.440000001</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>L27-M27</f>
+        <v>601242.55999999866</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IFERROR(N27/L27,0)</f>
+        <v>2.5892971236375011E-2</v>
+      </c>
+      <c r="P27" cm="1">
+        <f t="array" ref="P27">IF(O27=0," ",SUMPRODUCT((O27&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>1382900</v>
+        <v>14860800</v>
       </c>
       <c r="C28">
-        <v>1250442.02</v>
+        <v>14439480.050000001</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>132457.97999999998</v>
+        <f>B28-C28</f>
+        <v>421319.94999999925</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
-        <v>9.5782760864849215E-2</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f>IFERROR(D28/B28,0)</f>
+        <v>2.8351094826658003E-2</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">IF(E28=0," ",SUMPRODUCT((E28&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>21</v>
       </c>
       <c r="G28">
-        <v>1545700</v>
+        <v>15309700</v>
       </c>
       <c r="H28">
-        <v>1281335.23</v>
+        <v>14645233.51</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
-        <v>264364.77</v>
+        <f>G28-H28</f>
+        <v>664466.49000000022</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="4"/>
-        <v>0.17103239309050916</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <f>IFERROR(I28/G28,0)</f>
+        <v>4.3401666263871937E-2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">IF(J28=0," ",SUMPRODUCT((J28&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>25</v>
       </c>
       <c r="L28">
-        <v>1525900</v>
+        <v>15311800</v>
       </c>
       <c r="M28">
-        <v>1393285.06</v>
+        <v>14346057.039999999</v>
       </c>
       <c r="N28">
-        <f t="shared" si="6"/>
-        <v>132614.93999999994</v>
+        <f>L28-M28</f>
+        <v>965742.96000000089</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="7"/>
-        <v>8.6909325643882263E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="8"/>
-        <v>45</v>
+        <f>IFERROR(N28/L28,0)</f>
+        <v>6.3071811282801551E-2</v>
+      </c>
+      <c r="P28" cm="1">
+        <f t="array" ref="P28">IF(O28=0," ",SUMPRODUCT((O28&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>2561800</v>
+        <v>156049100</v>
       </c>
       <c r="C29">
-        <v>2523884.71</v>
+        <v>156545919.90000001</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>37915.290000000037</v>
+        <f>B29-C29</f>
+        <v>-496819.90000000596</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4800253727847622E-2</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
+        <f>IFERROR(D29/B29,0)</f>
+        <v>-3.1837408866824991E-3</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">IF(E29=0," ",SUMPRODUCT((E29&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>184167800</v>
+      </c>
+      <c r="H29">
+        <v>175966389.24999899</v>
+      </c>
+      <c r="I29">
+        <f>G29-H29</f>
+        <v>8201410.7500010133</v>
+      </c>
+      <c r="J29" s="5">
+        <f>IFERROR(I29/G29,0)</f>
+        <v>4.4532273014072019E-2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">IF(J29=0," ",SUMPRODUCT((J29&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
         <v>24</v>
       </c>
-      <c r="G29">
-        <v>2779500</v>
-      </c>
-      <c r="H29">
-        <v>2665264.4399999902</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
-        <v>114235.56000000983</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="4"/>
-        <v>4.1099320021590155E-2</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
       <c r="L29">
-        <v>2889900</v>
+        <v>188953500</v>
       </c>
       <c r="M29">
-        <v>2889864.67</v>
+        <v>184450910.84999901</v>
       </c>
       <c r="N29">
-        <f t="shared" si="6"/>
-        <v>35.330000000074506</v>
+        <f>L29-M29</f>
+        <v>4502589.1500009894</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="7"/>
-        <v>1.2225336516860273E-5</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f>IFERROR(N29/L29,0)</f>
+        <v>2.3829085727446114E-2</v>
+      </c>
+      <c r="P29" cm="1">
+        <f t="array" ref="P29">IF(O29=0," ",SUMPRODUCT((O29&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B30">
-        <v>12132200</v>
+        <v>8135400</v>
       </c>
       <c r="C30">
-        <v>12030494.1</v>
+        <v>7968645.8300000001</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>101705.90000000037</v>
+        <f>B30-C30</f>
+        <v>166754.16999999993</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="1"/>
-        <v>8.3831374359143746E-3</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>IFERROR(D30/B30,0)</f>
+        <v>2.0497353541313264E-2</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">IF(E30=0," ",SUMPRODUCT((E30&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>24</v>
       </c>
       <c r="G30">
-        <v>12735900</v>
+        <v>8560800</v>
       </c>
       <c r="H30">
-        <v>12685514.279999901</v>
+        <v>8171472.0199999996</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>50385.720000099391</v>
+        <f>G30-H30</f>
+        <v>389327.98000000045</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="4"/>
-        <v>3.9561962641116366E-3</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IFERROR(I30/G30,0)</f>
+        <v>4.5477990374731388E-2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">IF(J30=0," ",SUMPRODUCT((J30&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>23</v>
       </c>
       <c r="L30">
-        <v>12861300</v>
+        <v>8497500</v>
       </c>
       <c r="M30">
-        <v>12826009.609999999</v>
+        <v>8150982.5699999901</v>
       </c>
       <c r="N30">
-        <f t="shared" si="6"/>
-        <v>35290.390000000596</v>
+        <f>L30-M30</f>
+        <v>346517.43000000995</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="7"/>
-        <v>2.7439209100169185E-3</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <f>IFERROR(N30/L30,0)</f>
+        <v>4.0778750220654303E-2</v>
+      </c>
+      <c r="P30" cm="1">
+        <f t="array" ref="P30">IF(O30=0," ",SUMPRODUCT((O30&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B31">
-        <v>1765600</v>
+        <v>38381900</v>
       </c>
       <c r="C31">
-        <v>1740827.69</v>
+        <v>37565141.859999903</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>24772.310000000056</v>
+        <f>B31-C31</f>
+        <v>816758.14000009745</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4030533529678329E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
+        <f>IFERROR(D31/B31,0)</f>
+        <v>2.1279773539092578E-2</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">IF(E31=0," ",SUMPRODUCT((E31&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
         <v>23</v>
       </c>
       <c r="G31">
-        <v>1823300</v>
+        <v>39964900</v>
       </c>
       <c r="H31">
-        <v>1762676.85</v>
+        <v>38095240.189999901</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>60623.149999999907</v>
+        <f>G31-H31</f>
+        <v>1869659.8100000992</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="4"/>
-        <v>3.3249136181648611E-2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>IFERROR(I31/G31,0)</f>
+        <v>4.6782546934937892E-2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">IF(J31=0," ",SUMPRODUCT((J31&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>22</v>
       </c>
       <c r="L31">
-        <v>1870700</v>
+        <v>40216700</v>
       </c>
       <c r="M31">
-        <v>1801391.34</v>
+        <v>39606263.709999897</v>
       </c>
       <c r="N31">
-        <f t="shared" si="6"/>
-        <v>69308.659999999916</v>
+        <f>L31-M31</f>
+        <v>610436.29000010341</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="7"/>
-        <v>3.7049585716576634E-2</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f>IFERROR(N31/L31,0)</f>
+        <v>1.5178676768608648E-2</v>
+      </c>
+      <c r="P31" cm="1">
+        <f t="array" ref="P31">IF(O31=0," ",SUMPRODUCT((O31&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>5999400</v>
+        <v>4189300</v>
       </c>
       <c r="C32">
-        <v>5925637.7199999904</v>
+        <v>4109958.22</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>73762.280000009574</v>
+        <f>B32-C32</f>
+        <v>79341.779999999795</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2294942827617691E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>IFERROR(D32/B32,0)</f>
+        <v>1.8939149738619768E-2</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">IF(E32=0," ",SUMPRODUCT((E32&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>26</v>
       </c>
       <c r="G32">
-        <v>6195500</v>
+        <v>4350600</v>
       </c>
       <c r="H32">
-        <v>6084985.4699999997</v>
+        <v>4137588.7699999898</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
-        <v>110514.53000000026</v>
+        <f>G32-H32</f>
+        <v>213011.23000001023</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="4"/>
-        <v>1.7837871035428981E-2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>IFERROR(I32/G32,0)</f>
+        <v>4.8961345561534093E-2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">IF(J32=0," ",SUMPRODUCT((J32&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>21</v>
       </c>
       <c r="L32">
-        <v>6157400</v>
+        <v>4345600</v>
       </c>
       <c r="M32">
-        <v>5987572.0199999996</v>
+        <v>4229801.51</v>
       </c>
       <c r="N32">
-        <f t="shared" si="6"/>
-        <v>169827.98000000045</v>
+        <f>L32-M32</f>
+        <v>115798.49000000022</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="7"/>
-        <v>2.7581118653977402E-2</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <f>IFERROR(N32/L32,0)</f>
+        <v>2.6647296115611244E-2</v>
+      </c>
+      <c r="P32" cm="1">
+        <f t="array" ref="P32">IF(O32=0," ",SUMPRODUCT((O32&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B33">
-        <v>927703099.99999905</v>
+        <v>2087800</v>
       </c>
       <c r="C33">
-        <v>920284264.73000002</v>
+        <v>2005447.73999999</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>7418835.2699990273</v>
+        <f>B33-C33</f>
+        <v>82352.260000010021</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="1"/>
-        <v>7.9969930789269058E-3</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>IFERROR(D33/B33,0)</f>
+        <v>3.9444515758219188E-2</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">IF(E33=0," ",SUMPRODUCT((E33&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>19</v>
       </c>
       <c r="G33">
-        <v>979671000</v>
+        <v>2229200</v>
       </c>
       <c r="H33">
-        <v>977068513.48000002</v>
+        <v>2118943.21</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
-        <v>2602486.5199999809</v>
+        <f>G33-H33</f>
+        <v>110256.79000000004</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="4"/>
-        <v>2.6564903115433454E-3</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>IFERROR(I33/G33,0)</f>
+        <v>4.9460250314014013E-2</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">IF(J33=0," ",SUMPRODUCT((J33&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>20</v>
       </c>
       <c r="L33">
-        <v>989572899.99999905</v>
+        <v>2296900</v>
       </c>
       <c r="M33">
-        <v>984116289.40999901</v>
+        <v>2108718.34</v>
       </c>
       <c r="N33">
-        <f t="shared" si="6"/>
-        <v>5456610.5900000334</v>
+        <f>L33-M33</f>
+        <v>188181.66000000015</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="7"/>
-        <v>5.5141067323084929E-3</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f>IFERROR(N33/L33,0)</f>
+        <v>8.1928538464887526E-2</v>
+      </c>
+      <c r="P33" cm="1">
+        <f t="array" ref="P33">IF(O33=0," ",SUMPRODUCT((O33&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B34">
-        <v>4189300</v>
+        <v>855300</v>
       </c>
       <c r="C34">
-        <v>4109958.22</v>
+        <v>838669.82</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>79341.779999999795</v>
+        <f>B34-C34</f>
+        <v>16630.180000000051</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8939149738619768E-2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>IFERROR(D34/B34,0)</f>
+        <v>1.9443680579913542E-2</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">IF(E34=0," ",SUMPRODUCT((E34&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>4350600</v>
+        <v>792800</v>
       </c>
       <c r="H34">
-        <v>4137588.7699999898</v>
+        <v>753451.96</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>213011.23000001023</v>
+        <f>G34-H34</f>
+        <v>39348.040000000037</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8961345561534093E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="5"/>
-        <v>31</v>
+        <f>IFERROR(I34/G34,0)</f>
+        <v>4.9631735620585316E-2</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">IF(J34=0," ",SUMPRODUCT((J34&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>19</v>
       </c>
       <c r="L34">
-        <v>4345600</v>
+        <v>777800</v>
       </c>
       <c r="M34">
-        <v>4229801.51</v>
+        <v>777663.26</v>
       </c>
       <c r="N34">
-        <f t="shared" si="6"/>
-        <v>115798.49000000022</v>
+        <f>L34-M34</f>
+        <v>136.73999999999069</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="7"/>
-        <v>2.6647296115611244E-2</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="8"/>
-        <v>28</v>
+        <f>IFERROR(N34/L34,0)</f>
+        <v>1.7580354847003174E-4</v>
+      </c>
+      <c r="P34" cm="1">
+        <f t="array" ref="P34">IF(O34=0," ",SUMPRODUCT((O34&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5847800</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5772288.3300000001</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B35-C35</f>
+        <v>75511.669999999925</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>IFERROR(D35/B35,0)</f>
+        <v>1.2912833886247806E-2</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">IF(E35=0," ",SUMPRODUCT((E35&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>33</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>6223700</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5909077.9399999902</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>G35-H35</f>
+        <v>314622.06000000983</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IFERROR(I35/G35,0)</f>
+        <v>5.0552253482656594E-2</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">IF(J35=0," ",SUMPRODUCT((J35&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>18</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>6207300</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>6056976.6699999999</v>
       </c>
       <c r="N35">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>L35-M35</f>
+        <v>150323.33000000007</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IFERROR(N35/L35,0)</f>
+        <v>2.4217184605222895E-2</v>
+      </c>
+      <c r="P35" cm="1">
+        <f t="array" ref="P35">IF(O35=0," ",SUMPRODUCT((O35&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>798200</v>
+        <v>443300</v>
       </c>
       <c r="C36">
-        <v>735423.27999999898</v>
+        <v>407090.37</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>62776.72000000102</v>
+        <f>B36-C36</f>
+        <v>36209.630000000005</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
-        <v>7.8647857679780775E-2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f>IFERROR(D36/B36,0)</f>
+        <v>8.1681998646514792E-2</v>
+      </c>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">IF(E36=0," ",SUMPRODUCT((E36&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>898700</v>
+        <v>495200</v>
       </c>
       <c r="H36">
-        <v>740966.94999999902</v>
+        <v>467907.84000000003</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
-        <v>157733.05000000098</v>
+        <f>G36-H36</f>
+        <v>27292.159999999974</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="4"/>
-        <v>0.17551246244575608</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
-        <v>51</v>
+        <f>IFERROR(I36/G36,0)</f>
+        <v>5.5113408723747932E-2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">IF(J36=0," ",SUMPRODUCT((J36&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>17</v>
       </c>
       <c r="L36">
-        <v>878300</v>
+        <v>487500</v>
       </c>
       <c r="M36">
-        <v>777215.28999999899</v>
+        <v>478318.92</v>
       </c>
       <c r="N36">
-        <f t="shared" si="6"/>
-        <v>101084.71000000101</v>
+        <f>L36-M36</f>
+        <v>9181.0800000000163</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="7"/>
-        <v>0.11509132414892521</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f>IFERROR(N36/L36,0)</f>
+        <v>1.883298461538465E-2</v>
+      </c>
+      <c r="P36" cm="1">
+        <f t="array" ref="P36">IF(O36=0," ",SUMPRODUCT((O36&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>2087800</v>
+        <v>5249800</v>
       </c>
       <c r="C37">
-        <v>2005447.73999999</v>
+        <v>4801960.08</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>82352.260000010021</v>
+        <f>B37-C37</f>
+        <v>447839.91999999993</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
-        <v>3.9444515758219188E-2</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f>IFERROR(D37/B37,0)</f>
+        <v>8.5306091660634673E-2</v>
+      </c>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">IF(E37=0," ",SUMPRODUCT((E37&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>2229200</v>
+        <v>5442200</v>
       </c>
       <c r="H37">
-        <v>2118943.21</v>
+        <v>5122329.02999999</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>110256.79000000004</v>
+        <f>G37-H37</f>
+        <v>319870.97000000998</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9460250314014013E-2</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f>IFERROR(I37/G37,0)</f>
+        <v>5.8776040939327839E-2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">IF(J37=0," ",SUMPRODUCT((J37&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>16</v>
       </c>
       <c r="L37">
-        <v>2296900</v>
+        <v>5430700</v>
       </c>
       <c r="M37">
-        <v>2108718.34</v>
+        <v>5117235.21</v>
       </c>
       <c r="N37">
-        <f t="shared" si="6"/>
-        <v>188181.66000000015</v>
+        <f>L37-M37</f>
+        <v>313464.79000000004</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="7"/>
-        <v>8.1928538464887526E-2</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="8"/>
-        <v>44</v>
+        <f>IFERROR(N37/L37,0)</f>
+        <v>5.7720881286022069E-2</v>
+      </c>
+      <c r="P37" cm="1">
+        <f t="array" ref="P37">IF(O37=0," ",SUMPRODUCT((O37&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>855300</v>
+        <v>2764700</v>
       </c>
       <c r="C38">
-        <v>838669.82</v>
+        <v>2615303.8999999901</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>16630.180000000051</v>
+        <f>B38-C38</f>
+        <v>149396.10000000987</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="1"/>
-        <v>1.9443680579913542E-2</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f>IFERROR(D38/B38,0)</f>
+        <v>5.4037002206391245E-2</v>
+      </c>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">IF(E38=0," ",SUMPRODUCT((E38&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>12</v>
       </c>
       <c r="G38">
-        <v>792800</v>
+        <v>2861000</v>
       </c>
       <c r="H38">
-        <v>753451.96</v>
+        <v>2671745.94</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>39348.040000000037</v>
+        <f>G38-H38</f>
+        <v>189254.06000000006</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9631735620585316E-2</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
-        <v>33</v>
+        <f>IFERROR(I38/G38,0)</f>
+        <v>6.6149619014330668E-2</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">IF(J38=0," ",SUMPRODUCT((J38&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>15</v>
       </c>
       <c r="L38">
-        <v>777800</v>
+        <v>2910600</v>
       </c>
       <c r="M38">
-        <v>777663.26</v>
+        <v>2535637.09</v>
       </c>
       <c r="N38">
-        <f t="shared" si="6"/>
-        <v>136.73999999999069</v>
+        <f>L38-M38</f>
+        <v>374962.91000000015</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="7"/>
-        <v>1.7580354847003174E-4</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f>IFERROR(N38/L38,0)</f>
+        <v>0.12882667147667154</v>
+      </c>
+      <c r="P38" cm="1">
+        <f t="array" ref="P38">IF(O38=0," ",SUMPRODUCT((O38&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>883900</v>
+        <v>328800</v>
       </c>
       <c r="C39">
-        <v>813108.87</v>
+        <v>321214.59000000003</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>70791.13</v>
+        <f>B39-C39</f>
+        <v>7585.4099999999744</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="1"/>
-        <v>8.008952370177623E-2</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <f>IFERROR(D39/B39,0)</f>
+        <v>2.3069981751824741E-2</v>
+      </c>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">IF(E39=0," ",SUMPRODUCT((E39&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>22</v>
       </c>
       <c r="G39">
-        <v>1294400</v>
+        <v>334800</v>
       </c>
       <c r="H39">
-        <v>1114242.27999999</v>
+        <v>312433.70999999897</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>180157.72000000998</v>
+        <f>G39-H39</f>
+        <v>22366.290000001027</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="4"/>
-        <v>0.13918241656366656</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="5"/>
-        <v>49</v>
+        <f>IFERROR(I39/G39,0)</f>
+        <v>6.6804928315415249E-2</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">IF(J39=0," ",SUMPRODUCT((J39&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>14</v>
       </c>
       <c r="L39">
-        <v>1759500</v>
+        <v>322700</v>
       </c>
       <c r="M39">
-        <v>1680463.8699999901</v>
+        <v>322263.03999999998</v>
       </c>
       <c r="N39">
-        <f t="shared" si="6"/>
-        <v>79036.1300000099</v>
+        <f>L39-M39</f>
+        <v>436.96000000002095</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="7"/>
-        <v>4.4919653310605226E-2</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f>IFERROR(N39/L39,0)</f>
+        <v>1.3540749922529313E-3</v>
+      </c>
+      <c r="P39" cm="1">
+        <f t="array" ref="P39">IF(O39=0," ",SUMPRODUCT((O39&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B40">
-        <v>38381900</v>
+        <v>92200</v>
       </c>
       <c r="C40">
-        <v>37565141.859999903</v>
+        <v>90499.43</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>816758.14000009745</v>
+        <f>B40-C40</f>
+        <v>1700.570000000007</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="1"/>
-        <v>2.1279773539092578E-2</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f>IFERROR(D40/B40,0)</f>
+        <v>1.8444360086767971E-2</v>
+      </c>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">IF(E40=0," ",SUMPRODUCT((E40&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>27</v>
       </c>
       <c r="G40">
-        <v>39964900</v>
+        <v>102600</v>
       </c>
       <c r="H40">
-        <v>38095240.189999901</v>
+        <v>95466.880000000005</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>1869659.8100000992</v>
+        <f>G40-H40</f>
+        <v>7133.1199999999953</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="4"/>
-        <v>4.6782546934937892E-2</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f>IFERROR(I40/G40,0)</f>
+        <v>6.9523586744639335E-2</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">IF(J40=0," ",SUMPRODUCT((J40&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>13</v>
       </c>
       <c r="L40">
-        <v>40216700</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>39606263.709999897</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="6"/>
-        <v>610436.29000010341</v>
+        <f>L40-M40</f>
+        <v>0</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="7"/>
-        <v>1.5178676768608648E-2</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f>IFERROR(N40/L40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" t="str" cm="1">
+        <f t="array" ref="P40">IF(O40=0," ",SUMPRODUCT((O40&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>4593300</v>
+        <v>8837300</v>
       </c>
       <c r="C41">
-        <v>4409060.2099999897</v>
+        <v>8460963.1999999899</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>184239.79000001028</v>
+        <f>B41-C41</f>
+        <v>376336.80000001006</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="1"/>
-        <v>4.0110550149132493E-2</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>IFERROR(D41/B41,0)</f>
+        <v>4.258504294298146E-2</v>
+      </c>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">IF(E41=0," ",SUMPRODUCT((E41&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>5089500</v>
+        <v>9713300</v>
       </c>
       <c r="H41">
-        <v>4956043.6699999897</v>
+        <v>8991707.2399999909</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
-        <v>133456.33000001032</v>
+        <f>G41-H41</f>
+        <v>721592.76000000909</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="4"/>
-        <v>2.6221894095689226E-2</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f>IFERROR(I41/G41,0)</f>
+        <v>7.4289145810384635E-2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">IF(J41=0," ",SUMPRODUCT((J41&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>12</v>
       </c>
       <c r="L41">
-        <v>4799900</v>
+        <v>9343000</v>
       </c>
       <c r="M41">
-        <v>4717822.6500000004</v>
+        <v>8766655.9100000001</v>
       </c>
       <c r="N41">
-        <f t="shared" si="6"/>
-        <v>82077.349999999627</v>
+        <f>L41-M41</f>
+        <v>576344.08999999985</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="7"/>
-        <v>1.7099804162586642E-2</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f>IFERROR(N41/L41,0)</f>
+        <v>6.1687262121374278E-2</v>
+      </c>
+      <c r="P41" cm="1">
+        <f t="array" ref="P41">IF(O41=0," ",SUMPRODUCT((O41&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B42">
-        <v>188593300</v>
+        <v>24332100</v>
       </c>
       <c r="C42">
-        <v>188551675.67999899</v>
+        <v>22408587.5499999</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>41624.320001006126</v>
+        <f>B42-C42</f>
+        <v>1923512.4500000998</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2070943135841053E-4</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>IFERROR(D42/B42,0)</f>
+        <v>7.9052463618023094E-2</v>
+      </c>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">IF(E42=0," ",SUMPRODUCT((E42&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>9</v>
       </c>
       <c r="G42">
-        <v>199130300</v>
+        <v>24497400</v>
       </c>
       <c r="H42">
-        <v>196755033.31</v>
+        <v>22655993.629999999</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>2375266.6899999976</v>
+        <f>G42-H42</f>
+        <v>1841406.370000001</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1928203241796942E-2</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IFERROR(I42/G42,0)</f>
+        <v>7.5167420624229556E-2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">IF(J42=0," ",SUMPRODUCT((J42&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>11</v>
       </c>
       <c r="L42">
-        <v>199954600</v>
+        <v>24323000</v>
       </c>
       <c r="M42">
-        <v>199954563.74999899</v>
+        <v>23434073.089999899</v>
       </c>
       <c r="N42">
-        <f t="shared" si="6"/>
-        <v>36.250001013278961</v>
+        <f>L42-M42</f>
+        <v>888926.91000010073</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="7"/>
-        <v>1.8129115815929696E-7</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f>IFERROR(N42/L42,0)</f>
+        <v>3.6546762734864152E-2</v>
+      </c>
+      <c r="P42" cm="1">
+        <f t="array" ref="P42">IF(O42=0," ",SUMPRODUCT((O42&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>8135400</v>
+        <v>356640100</v>
       </c>
       <c r="C43">
-        <v>7968645.8300000001</v>
+        <v>341243679.13</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>166754.16999999993</v>
+        <f>B43-C43</f>
+        <v>15396420.870000005</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="1"/>
-        <v>2.0497353541313264E-2</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>IFERROR(D43/B43,0)</f>
+        <v>4.3170750765267295E-2</v>
+      </c>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">IF(E43=0," ",SUMPRODUCT((E43&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>14</v>
       </c>
       <c r="G43">
-        <v>8560800</v>
+        <v>382685200</v>
       </c>
       <c r="H43">
-        <v>8171472.0199999996</v>
+        <v>346340810.81999999</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
-        <v>389327.98000000045</v>
+        <f>G43-H43</f>
+        <v>36344389.180000007</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="4"/>
-        <v>4.5477990374731388E-2</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="5"/>
-        <v>29</v>
+        <f>IFERROR(I43/G43,0)</f>
+        <v>9.4972027086493035E-2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">IF(J43=0," ",SUMPRODUCT((J43&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>10</v>
       </c>
       <c r="L43">
-        <v>8497500</v>
+        <v>376548600</v>
       </c>
       <c r="M43">
-        <v>8150982.5699999901</v>
+        <v>355279492.22999901</v>
       </c>
       <c r="N43">
-        <f t="shared" si="6"/>
-        <v>346517.43000000995</v>
+        <f>L43-M43</f>
+        <v>21269107.770000994</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="7"/>
-        <v>4.0778750220654303E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f>IFERROR(N43/L43,0)</f>
+        <v>5.6484362894991494E-2</v>
+      </c>
+      <c r="P43" cm="1">
+        <f t="array" ref="P43">IF(O43=0," ",SUMPRODUCT((O43&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>30083200</v>
+        <v>2451000</v>
       </c>
       <c r="C44">
-        <v>29789104.379999999</v>
+        <v>2254684.7999999998</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>294095.62000000104</v>
+        <f>B44-C44</f>
+        <v>196315.20000000019</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="1"/>
-        <v>9.7760750186150751E-3</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f>IFERROR(D44/B44,0)</f>
+        <v>8.009596083231342E-2</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">IF(E44=0," ",SUMPRODUCT((E44&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>7</v>
       </c>
       <c r="G44">
-        <v>31040700</v>
+        <v>2440700</v>
       </c>
       <c r="H44">
-        <v>30793711.48</v>
+        <v>2204672.88</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
-        <v>246988.51999999955</v>
+        <f>G44-H44</f>
+        <v>236027.12000000011</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="4"/>
-        <v>7.9569249404813532E-3</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>IFERROR(I44/G44,0)</f>
+        <v>9.6704683082722218E-2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">IF(J44=0," ",SUMPRODUCT((J44&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>9</v>
       </c>
       <c r="L44">
-        <v>31282200</v>
+        <v>2321600</v>
       </c>
       <c r="M44">
-        <v>31282141.25</v>
+        <v>2056835.26</v>
       </c>
       <c r="N44">
-        <f t="shared" si="6"/>
-        <v>58.75</v>
+        <f>L44-M44</f>
+        <v>264764.74</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="7"/>
-        <v>1.8780648419868168E-6</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f>IFERROR(N44/L44,0)</f>
+        <v>0.11404408166781529</v>
+      </c>
+      <c r="P44" cm="1">
+        <f t="array" ref="P44">IF(O44=0," ",SUMPRODUCT((O44&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>55301600</v>
+        <v>3329000</v>
       </c>
       <c r="C45">
-        <v>54589584.0499999</v>
+        <v>2946071.21</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>712015.95000009984</v>
+        <f>B45-C45</f>
+        <v>382928.79000000004</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="1"/>
-        <v>1.287514194887851E-2</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>IFERROR(D45/B45,0)</f>
+        <v>0.11502817362571344</v>
+      </c>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">IF(E45=0," ",SUMPRODUCT((E45&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>56792200</v>
+        <v>3390900</v>
       </c>
       <c r="H45">
-        <v>54594953.959999897</v>
+        <v>3051483.41</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>2197246.0400001034</v>
+        <f>G45-H45</f>
+        <v>339416.58999999985</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="4"/>
-        <v>3.8689222111488959E-2</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f>IFERROR(I45/G45,0)</f>
+        <v>0.10009631366303927</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">IF(J45=0," ",SUMPRODUCT((J45&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>8</v>
       </c>
       <c r="L45">
-        <v>56027100</v>
+        <v>3345200</v>
       </c>
       <c r="M45">
-        <v>55386549.6599999</v>
+        <v>2946440.08</v>
       </c>
       <c r="N45">
-        <f t="shared" si="6"/>
-        <v>640550.34000010043</v>
+        <f>L45-M45</f>
+        <v>398759.91999999993</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="7"/>
-        <v>1.1432866237947358E-2</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f>IFERROR(N45/L45,0)</f>
+        <v>0.11920361114432618</v>
+      </c>
+      <c r="P45" cm="1">
+        <f t="array" ref="P45">IF(O45=0," ",SUMPRODUCT((O45&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>259100</v>
+        <v>9349400</v>
       </c>
       <c r="C46">
-        <v>258322.43</v>
+        <v>8952825.2799999993</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>777.57000000000698</v>
+        <f>B46-C46</f>
+        <v>396574.72000000067</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="1"/>
-        <v>3.0010420686993711E-3</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
+        <f>IFERROR(D46/B46,0)</f>
+        <v>4.2417130511048909E-2</v>
+      </c>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">IF(E46=0," ",SUMPRODUCT((E46&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>11073700</v>
+      </c>
+      <c r="H46">
+        <v>9929059.5199999996</v>
+      </c>
+      <c r="I46">
+        <f>G46-H46</f>
+        <v>1144640.4800000004</v>
+      </c>
+      <c r="J46" s="5">
+        <f>IFERROR(I46/G46,0)</f>
+        <v>0.10336567542917005</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">IF(J46=0," ",SUMPRODUCT((J46&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>10790500</v>
+      </c>
+      <c r="M46">
+        <v>9993599.52999999</v>
+      </c>
+      <c r="N46">
+        <f>L46-M46</f>
+        <v>796900.47000000998</v>
+      </c>
+      <c r="O46" s="5">
+        <f>IFERROR(N46/L46,0)</f>
+        <v>7.3852043000788653E-2</v>
+      </c>
+      <c r="P46" cm="1">
+        <f t="array" ref="P46">IF(O46=0," ",SUMPRODUCT((O46&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
         <v>9</v>
-      </c>
-      <c r="G46">
-        <v>266000</v>
-      </c>
-      <c r="H46">
-        <v>257402.90999999901</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="3"/>
-        <v>8597.090000000986</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="4"/>
-        <v>3.2319887218048821E-2</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="L46">
-        <v>267100</v>
-      </c>
-      <c r="M46">
-        <v>254753.15999999901</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="6"/>
-        <v>12346.840000000986</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="7"/>
-        <v>4.6225533508053113E-2</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="8"/>
-        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>70390700</v>
+        <v>4280900</v>
       </c>
       <c r="C47">
-        <v>70378426.719999999</v>
+        <v>4066595.33</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>12273.280000001192</v>
+        <f>B47-C47</f>
+        <v>214304.66999999993</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7435939690898361E-4</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>IFERROR(D47/B47,0)</f>
+        <v>5.0060657805601608E-2</v>
+      </c>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">IF(E47=0," ",SUMPRODUCT((E47&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>13</v>
       </c>
       <c r="G47">
-        <v>73467000</v>
+        <v>4700400</v>
       </c>
       <c r="H47">
-        <v>73442541.659999996</v>
+        <v>4205555.5999999996</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
-        <v>24458.340000003576</v>
+        <f>G47-H47</f>
+        <v>494844.40000000037</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="4"/>
-        <v>3.3291600310348285E-4</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f>IFERROR(I47/G47,0)</f>
+        <v>0.10527708280146378</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">IF(J47=0," ",SUMPRODUCT((J47&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>75072800</v>
+        <v>4677800</v>
       </c>
       <c r="M47">
-        <v>75050829.179999903</v>
+        <v>4371713.1399999997</v>
       </c>
       <c r="N47">
-        <f t="shared" si="6"/>
-        <v>21970.820000097156</v>
+        <f>L47-M47</f>
+        <v>306086.86000000034</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="7"/>
-        <v>2.9266019117572752E-4</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f>IFERROR(N47/L47,0)</f>
+        <v>6.5433934755654441E-2</v>
+      </c>
+      <c r="P47" cm="1">
+        <f t="array" ref="P47">IF(O47=0," ",SUMPRODUCT((O47&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>6737100</v>
+        <v>7670700</v>
       </c>
       <c r="C48">
-        <v>6527352.5699999901</v>
+        <v>6947552.6699999999</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>209747.43000000995</v>
+        <f>B48-C48</f>
+        <v>723147.33000000007</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="1"/>
-        <v>3.1133192323107857E-2</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f>IFERROR(D48/B48,0)</f>
+        <v>9.4273968477453174E-2</v>
+      </c>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">IF(E48=0," ",SUMPRODUCT((E48&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>7214700</v>
+        <v>7968300</v>
       </c>
       <c r="H48">
-        <v>6922072.5599999996</v>
+        <v>7020609.3200000003</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
-        <v>292627.44000000041</v>
+        <f>G48-H48</f>
+        <v>947690.6799999997</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="4"/>
-        <v>4.0559890224125802E-2</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>IFERROR(I48/G48,0)</f>
+        <v>0.118932605449092</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">IF(J48=0," ",SUMPRODUCT((J48&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>5</v>
       </c>
       <c r="L48">
-        <v>7289800</v>
+        <v>7759600</v>
       </c>
       <c r="M48">
-        <v>6882350.23999999</v>
+        <v>7497322.9100000001</v>
       </c>
       <c r="N48">
-        <f t="shared" si="6"/>
-        <v>407449.76000001002</v>
+        <f>L48-M48</f>
+        <v>262277.08999999985</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="7"/>
-        <v>5.5893132870587676E-2</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="8"/>
-        <v>37</v>
+        <f>IFERROR(N48/L48,0)</f>
+        <v>3.3800336357544182E-2</v>
+      </c>
+      <c r="P48" cm="1">
+        <f t="array" ref="P48">IF(O48=0," ",SUMPRODUCT((O48&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>92200</v>
+        <v>1552100</v>
       </c>
       <c r="C49">
-        <v>90499.43</v>
+        <v>1315623.30999999</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1700.570000000007</v>
+        <f>B49-C49</f>
+        <v>236476.69000000996</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8444360086767971E-2</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>IFERROR(D49/B49,0)</f>
+        <v>0.15235918433091292</v>
+      </c>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">IF(E49=0," ",SUMPRODUCT((E49&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>102600</v>
+        <v>1590700</v>
       </c>
       <c r="H49">
-        <v>95466.880000000005</v>
+        <v>1383905.98999999</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
-        <v>7133.1199999999953</v>
+        <f>G49-H49</f>
+        <v>206794.01000001002</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="4"/>
-        <v>6.9523586744639335E-2</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="5"/>
-        <v>39</v>
+        <f>IFERROR(I49/G49,0)</f>
+        <v>0.13000189224870184</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">IF(J49=0," ",SUMPRODUCT((J49&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1579300</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1337735.3199999901</v>
       </c>
       <c r="N49">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>L49-M49</f>
+        <v>241564.68000000995</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IFERROR(N49/L49,0)</f>
+        <v>0.15295680364719175</v>
+      </c>
+      <c r="P49" cm="1">
+        <f t="array" ref="P49">IF(O49=0," ",SUMPRODUCT((O49&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>832600</v>
+        <v>883900</v>
       </c>
       <c r="C50">
-        <v>832600</v>
+        <v>813108.87</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B50-C50</f>
+        <v>70791.13</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>IFERROR(D50/B50,0)</f>
+        <v>8.008952370177623E-2</v>
+      </c>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">IF(E50=0," ",SUMPRODUCT((E50&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>8</v>
       </c>
       <c r="G50">
-        <v>859100</v>
+        <v>1294400</v>
       </c>
       <c r="H50">
-        <v>859100</v>
+        <v>1114242.27999999</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>G50-H50</f>
+        <v>180157.72000000998</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IFERROR(I50/G50,0)</f>
+        <v>0.13918241656366656</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">IF(J50=0," ",SUMPRODUCT((J50&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>843200</v>
+        <v>1759500</v>
       </c>
       <c r="M50">
-        <v>843200</v>
+        <v>1680463.8699999901</v>
       </c>
       <c r="N50">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>L50-M50</f>
+        <v>79036.1300000099</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IFERROR(N50/L50,0)</f>
+        <v>4.4919653310605226E-2</v>
+      </c>
+      <c r="P50" cm="1">
+        <f t="array" ref="P50">IF(O50=0," ",SUMPRODUCT((O50&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B51">
-        <v>8609500</v>
+        <v>1382900</v>
       </c>
       <c r="C51">
-        <v>8499425.3399999905</v>
+        <v>1250442.02</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>110074.66000000946</v>
+        <f>B51-C51</f>
+        <v>132457.97999999998</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2785255822058129E-2</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f>IFERROR(D51/B51,0)</f>
+        <v>9.5782760864849215E-2</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">IF(E51=0," ",SUMPRODUCT((E51&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>8925500</v>
+        <v>1545700</v>
       </c>
       <c r="H51">
-        <v>8599059.6199999992</v>
+        <v>1281335.23</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
-        <v>326440.38000000082</v>
+        <f>G51-H51</f>
+        <v>264364.77</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="4"/>
-        <v>3.6573903982970231E-2</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f>IFERROR(I51/G51,0)</f>
+        <v>0.17103239309050916</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">IF(J51=0," ",SUMPRODUCT((J51&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>8833900</v>
+        <v>1525900</v>
       </c>
       <c r="M51">
-        <v>8735843.3100000005</v>
+        <v>1393285.06</v>
       </c>
       <c r="N51">
-        <f t="shared" si="6"/>
-        <v>98056.689999999478</v>
+        <f>L51-M51</f>
+        <v>132614.93999999994</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="7"/>
-        <v>1.1100045280114048E-2</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f>IFERROR(N51/L51,0)</f>
+        <v>8.6909325643882263E-2</v>
+      </c>
+      <c r="P51" cm="1">
+        <f t="array" ref="P51">IF(O51=0," ",SUMPRODUCT((O51&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>2451000</v>
+        <v>798200</v>
       </c>
       <c r="C52">
-        <v>2254684.7999999998</v>
+        <v>735423.27999999898</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>196315.20000000019</v>
+        <f>B52-C52</f>
+        <v>62776.72000000102</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="1"/>
-        <v>8.009596083231342E-2</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f>IFERROR(D52/B52,0)</f>
+        <v>7.8647857679780775E-2</v>
+      </c>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">IF(E52=0," ",SUMPRODUCT((E52&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
+        <v>10</v>
       </c>
       <c r="G52">
-        <v>2440700</v>
+        <v>898700</v>
       </c>
       <c r="H52">
-        <v>2204672.88</v>
+        <v>740966.94999999902</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
-        <v>236027.12000000011</v>
+        <f>G52-H52</f>
+        <v>157733.05000000098</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="4"/>
-        <v>9.6704683082722218E-2</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="5"/>
-        <v>43</v>
+        <f>IFERROR(I52/G52,0)</f>
+        <v>0.17551246244575608</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">IF(J52=0," ",SUMPRODUCT((J52&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>2321600</v>
+        <v>878300</v>
       </c>
       <c r="M52">
-        <v>2056835.26</v>
+        <v>777215.28999999899</v>
       </c>
       <c r="N52">
-        <f t="shared" si="6"/>
-        <v>264764.74</v>
+        <f>L52-M52</f>
+        <v>101084.71000000101</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="7"/>
-        <v>0.11404408166781529</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="8"/>
-        <v>46</v>
+        <f>IFERROR(N52/L52,0)</f>
+        <v>0.11509132414892521</v>
+      </c>
+      <c r="P52" cm="1">
+        <f t="array" ref="P52">IF(O52=0," ",SUMPRODUCT((O52&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -4279,15 +5323,15 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <f>VLOOKUP($A56,$A$2:$N$52,4)</f>
+        <f>VLOOKUP($A56,$A$1:$P$52,4,FALSE)</f>
         <v>36209.630000000005</v>
       </c>
       <c r="C56">
-        <f>VLOOKUP($A56,$A$2:$N$52,9)</f>
+        <f>VLOOKUP($A56,$A$1:$P$52,9,FALSE)</f>
         <v>27292.159999999974</v>
       </c>
       <c r="D56">
-        <f>VLOOKUP($A56,$A$2:$N$52,14)</f>
+        <f>VLOOKUP($A56,$A$1:$P$52,14,FALSE)</f>
         <v>9181.0800000000163</v>
       </c>
     </row>
@@ -4296,15 +5340,15 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$2:$N$52,4)</f>
+        <f t="shared" ref="B57:B61" si="0">VLOOKUP($A57,$A$1:$P$52,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C61" si="10">VLOOKUP($A57,$A$2:$N$52,9)</f>
+        <f t="shared" ref="C57:C61" si="1">VLOOKUP($A57,$A$1:$P$52,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,$A$2:$N$52,14)</f>
+        <f t="shared" ref="D57:D61" si="2">VLOOKUP($A57,$A$1:$P$52,14,FALSE)</f>
         <v>311228.08999999997</v>
       </c>
     </row>
@@ -4313,15 +5357,15 @@
         <v>32</v>
       </c>
       <c r="B58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>149396.10000000987</v>
       </c>
       <c r="C58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>189254.06000000006</v>
       </c>
       <c r="D58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>374962.91000000015</v>
       </c>
     </row>
@@ -4330,15 +5374,15 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>12230.810000000056</v>
       </c>
       <c r="C59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45485.580000000075</v>
       </c>
       <c r="D59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>72.879999999888241</v>
       </c>
     </row>
@@ -4347,15 +5391,15 @@
         <v>39</v>
       </c>
       <c r="B60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>4950.4699999999721</v>
       </c>
       <c r="C60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>8005.7900000010268</v>
       </c>
       <c r="D60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1724.9000000000233</v>
       </c>
     </row>
@@ -4364,15 +5408,15 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>184239.79000001028</v>
       </c>
       <c r="C61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>133456.33000001032</v>
       </c>
       <c r="D61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>82077.349999999627</v>
       </c>
     </row>
@@ -4400,15 +5444,15 @@
         <v>24</v>
       </c>
       <c r="B65">
-        <f>_xlfn.XLOOKUP($A65,$A:$A,D:D)</f>
+        <f t="shared" ref="B65:B70" si="3">_xlfn.XLOOKUP($A65,$A:$A,D:D)</f>
         <v>36209.630000000005</v>
       </c>
       <c r="C65">
-        <f>_xlfn.XLOOKUP($A65,$A:$A,I:I)</f>
+        <f t="shared" ref="C65:C70" si="4">_xlfn.XLOOKUP($A65,$A:$A,I:I)</f>
         <v>27292.159999999974</v>
       </c>
       <c r="D65">
-        <f>_xlfn.XLOOKUP($A65,$A:$A,N:N)</f>
+        <f t="shared" ref="D65:D70" si="5">_xlfn.XLOOKUP($A65,$A:$A,N:N)</f>
         <v>9181.0800000000163</v>
       </c>
     </row>
@@ -4417,15 +5461,15 @@
         <v>25</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B70" si="12">_xlfn.XLOOKUP($A66,$A:$A,D:D)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C70" si="13">_xlfn.XLOOKUP($A66,$A:$A,I:I)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP($A66,$A:$A,N:N)</f>
+        <f t="shared" si="5"/>
         <v>311228.08999999997</v>
       </c>
     </row>
@@ -4434,15 +5478,15 @@
         <v>32</v>
       </c>
       <c r="B67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>149396.10000000987</v>
       </c>
       <c r="C67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>189254.06000000006</v>
       </c>
       <c r="D67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>374962.91000000015</v>
       </c>
     </row>
@@ -4451,15 +5495,15 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>12230.810000000056</v>
       </c>
       <c r="C68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>45485.580000000075</v>
       </c>
       <c r="D68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>72.879999999888241</v>
       </c>
     </row>
@@ -4468,15 +5512,15 @@
         <v>39</v>
       </c>
       <c r="B69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>4950.4699999999721</v>
       </c>
       <c r="C69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>8005.7900000010268</v>
       </c>
       <c r="D69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>1724.9000000000233</v>
       </c>
     </row>
@@ -4485,15 +5529,15 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>184239.79000001028</v>
       </c>
       <c r="C70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>133456.33000001032</v>
       </c>
       <c r="D70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>82077.349999999627</v>
       </c>
     </row>
@@ -4521,15 +5565,15 @@
         <v>24</v>
       </c>
       <c r="B74">
-        <f>INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$B$1:$P$1,0))</f>
+        <f t="shared" ref="B74:D79" si="6">INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$B$1:$P$1,0))</f>
         <v>36209.630000000005</v>
       </c>
       <c r="C74">
-        <f>INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$B$1:$P$1,0))</f>
+        <f t="shared" si="6"/>
         <v>27292.159999999974</v>
       </c>
       <c r="D74">
-        <f>INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(D$73,$B$1:$P$1,0))</f>
+        <f t="shared" si="6"/>
         <v>9181.0800000000163</v>
       </c>
     </row>
@@ -4538,15 +5582,15 @@
         <v>25</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:D79" si="15">INDEX($B$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$B$1:$P$1,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>311228.08999999997</v>
       </c>
     </row>
@@ -4555,15 +5599,15 @@
         <v>32</v>
       </c>
       <c r="B76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>149396.10000000987</v>
       </c>
       <c r="C76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>189254.06000000006</v>
       </c>
       <c r="D76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>374962.91000000015</v>
       </c>
     </row>
@@ -4572,15 +5616,15 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>12230.810000000056</v>
       </c>
       <c r="C77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>45485.580000000075</v>
       </c>
       <c r="D77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>72.879999999888241</v>
       </c>
     </row>
@@ -4589,15 +5633,15 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>4950.4699999999721</v>
       </c>
       <c r="C78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>8005.7900000010268</v>
       </c>
       <c r="D78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>1724.9000000000233</v>
       </c>
     </row>
@@ -4606,15 +5650,15 @@
         <v>55</v>
       </c>
       <c r="B79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>184239.79000001028</v>
       </c>
       <c r="C79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>133456.33000001032</v>
       </c>
       <c r="D79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>82077.349999999627</v>
       </c>
     </row>
@@ -4640,22 +5684,48 @@
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="6">
+        <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(B$1,$B$1:$P$1,0))</f>
+        <v>30083200</v>
+      </c>
+      <c r="C84" s="6">
+        <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(C$1,$B$1:$P$1,0))</f>
+        <v>29789104.379999999</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="6">
+        <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(G$1,$B$1:$P$1,0))</f>
+        <v>31040700</v>
+      </c>
+      <c r="C85" s="6">
+        <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(H$1,$B$1:$P$1,0))</f>
+        <v>30793711.48</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6">
+        <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(L$1,$B$1:$P$1,0))</f>
+        <v>31282200</v>
+      </c>
+      <c r="C86" s="6">
+        <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(M$1,$B$1:$P$1,0))</f>
+        <v>31282141.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
@@ -4701,6 +5771,10 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>73</v>
+      </c>
+      <c r="B91" t="e">
+        <f>_xlfn.XLOOKUP(MAX(F6:F52),F6:F52,A2:A52,"value not found",0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C91" s="5"/>
       <c r="E91" s="5"/>
@@ -4791,17 +5865,18 @@
       <c r="I100" s="4"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P52">
+    <sortCondition descending="1" ref="K2:K52"/>
+  </sortState>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 B87" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87" xr:uid="{896A7406-3BAE-432E-83D6-A7A62F7623CF}">
-      <formula1>$A$74:$A$79</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scost\Documents\DA8\Projects\budget_lookups-scost46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B85A67-0B69-401F-80B1-305074776BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376E8484-421C-4EA3-86C2-872C68B12E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1054,13 +1054,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30083200</c:v>
+                  <c:v>11566000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31040700</c:v>
+                  <c:v>11980700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31282200</c:v>
+                  <c:v>11935200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,13 +1119,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29789104.379999999</c:v>
+                  <c:v>11412339.8799999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30793711.48</c:v>
+                  <c:v>11791977.9699999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31282141.25</c:v>
+                  <c:v>11934454.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2301,11 +2301,11 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>B2-C2</f>
+        <f>C2-B2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <f>IFERROR(D2/B2,0)</f>
+        <f t="shared" ref="E2:E33" si="0">IFERROR(D2/B2,0)</f>
         <v>0</v>
       </c>
       <c r="F2" t="str" cm="1">
@@ -2319,11 +2319,11 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>G2-H2</f>
+        <f>H2-G2</f>
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <f>IFERROR(I2/G2,0)</f>
+        <f t="shared" ref="J2:J33" si="1">IFERROR(I2/G2,0)</f>
         <v>0</v>
       </c>
       <c r="K2" t="str" cm="1">
@@ -2337,11 +2337,11 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>L2-M2</f>
+        <f>M2-L2</f>
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <f>IFERROR(N2/L2,0)</f>
+        <f t="shared" ref="O2:O33" si="2">IFERROR(N2/L2,0)</f>
         <v>0</v>
       </c>
       <c r="P2" t="str" cm="1">
@@ -2360,11 +2360,11 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>B3-C3</f>
+        <f t="shared" ref="D3:D52" si="3">C3-B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <f>IFERROR(D3/B3,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" t="str" cm="1">
@@ -2378,11 +2378,11 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>G3-H3</f>
+        <f t="shared" ref="I3:I52" si="4">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>IFERROR(I3/G3,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3" t="str" cm="1">
@@ -2396,11 +2396,11 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f>L3-M3</f>
+        <f t="shared" ref="N3:N52" si="5">M3-L3</f>
         <v>0</v>
       </c>
       <c r="O3" s="5">
-        <f>IFERROR(N3/L3,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P3" t="str" cm="1">
@@ -2419,11 +2419,11 @@
         <v>832600</v>
       </c>
       <c r="D4">
-        <f>B4-C4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f>IFERROR(D4/B4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" t="str" cm="1">
@@ -2437,11 +2437,11 @@
         <v>859100</v>
       </c>
       <c r="I4">
-        <f>G4-H4</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f>IFERROR(I4/G4,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" t="str" cm="1">
@@ -2455,11 +2455,11 @@
         <v>843200</v>
       </c>
       <c r="N4">
-        <f>L4-M4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <f>IFERROR(N4/L4,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4" t="str" cm="1">
@@ -2478,11 +2478,11 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>B5-C5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <f>IFERROR(D5/B5,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" t="str" cm="1">
@@ -2496,11 +2496,11 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>G5-H5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f>IFERROR(I5/G5,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" t="str" cm="1">
@@ -2514,16 +2514,16 @@
         <v>63771.91</v>
       </c>
       <c r="N5">
-        <f>L5-M5</f>
-        <v>311228.08999999997</v>
+        <f t="shared" si="5"/>
+        <v>-311228.08999999997</v>
       </c>
       <c r="O5" s="5">
-        <f>IFERROR(N5/L5,0)</f>
-        <v>0.82994157333333329</v>
+        <f t="shared" si="2"/>
+        <v>-0.82994157333333329</v>
       </c>
       <c r="P5" cm="1">
         <f t="array" ref="P5">IF(O5=0," ",SUMPRODUCT((O5&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -2537,16 +2537,16 @@
         <v>124384360.159999</v>
       </c>
       <c r="D6">
-        <f>B6-C6</f>
-        <v>1539.8400010019541</v>
+        <f t="shared" si="3"/>
+        <v>-1539.8400010019541</v>
       </c>
       <c r="E6" s="5">
-        <f>IFERROR(D6/B6,0)</f>
-        <v>1.2379538203300809E-5</v>
+        <f t="shared" si="0"/>
+        <v>-1.2379538203300809E-5</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">IF(E6=0," ",SUMPRODUCT((E6&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>131849400</v>
@@ -2555,16 +2555,16 @@
         <v>131839624.37</v>
       </c>
       <c r="I6">
-        <f>G6-H6</f>
-        <v>9775.6299999952316</v>
+        <f t="shared" si="4"/>
+        <v>-9775.6299999952316</v>
       </c>
       <c r="J6" s="5">
-        <f>IFERROR(I6/G6,0)</f>
-        <v>7.4142392760188761E-5</v>
+        <f t="shared" si="1"/>
+        <v>-7.4142392760188761E-5</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">IF(J6=0," ",SUMPRODUCT((J6&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>130621400</v>
@@ -2573,16 +2573,16 @@
         <v>130621283.53999899</v>
       </c>
       <c r="N6">
-        <f>L6-M6</f>
-        <v>116.46000100672245</v>
+        <f t="shared" si="5"/>
+        <v>-116.46000100672245</v>
       </c>
       <c r="O6" s="5">
-        <f>IFERROR(N6/L6,0)</f>
-        <v>8.9158438821450736E-7</v>
+        <f t="shared" si="2"/>
+        <v>-8.9158438821450736E-7</v>
       </c>
       <c r="P6" cm="1">
         <f t="array" ref="P6">IF(O6=0," ",SUMPRODUCT((O6&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -2596,16 +2596,16 @@
         <v>6522480.4599999897</v>
       </c>
       <c r="D7">
-        <f>B7-C7</f>
-        <v>78219.540000010282</v>
+        <f t="shared" si="3"/>
+        <v>-78219.540000010282</v>
       </c>
       <c r="E7" s="5">
-        <f>IFERROR(D7/B7,0)</f>
-        <v>1.1850188616360429E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.1850188616360429E-2</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">IF(E7=0," ",SUMPRODUCT((E7&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>7352500</v>
@@ -2614,16 +2614,16 @@
         <v>7350464.0800000001</v>
       </c>
       <c r="I7">
-        <f>G7-H7</f>
-        <v>2035.9199999999255</v>
+        <f t="shared" si="4"/>
+        <v>-2035.9199999999255</v>
       </c>
       <c r="J7" s="5">
-        <f>IFERROR(I7/G7,0)</f>
-        <v>2.769017341040361E-4</v>
+        <f t="shared" si="1"/>
+        <v>-2.769017341040361E-4</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">IF(J7=0," ",SUMPRODUCT((J7&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>7397200</v>
@@ -2632,16 +2632,16 @@
         <v>7397093</v>
       </c>
       <c r="N7">
-        <f>L7-M7</f>
-        <v>107</v>
+        <f t="shared" si="5"/>
+        <v>-107</v>
       </c>
       <c r="O7" s="5">
-        <f>IFERROR(N7/L7,0)</f>
-        <v>1.4464932677229222E-5</v>
+        <f t="shared" si="2"/>
+        <v>-1.4464932677229222E-5</v>
       </c>
       <c r="P7" cm="1">
         <f t="array" ref="P7">IF(O7=0," ",SUMPRODUCT((O7&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -2655,16 +2655,16 @@
         <v>70378426.719999999</v>
       </c>
       <c r="D8">
-        <f>B8-C8</f>
-        <v>12273.280000001192</v>
+        <f t="shared" si="3"/>
+        <v>-12273.280000001192</v>
       </c>
       <c r="E8" s="5">
-        <f>IFERROR(D8/B8,0)</f>
-        <v>1.7435939690898361E-4</v>
+        <f t="shared" si="0"/>
+        <v>-1.7435939690898361E-4</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">IF(E8=0," ",SUMPRODUCT((E8&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>73467000</v>
@@ -2673,16 +2673,16 @@
         <v>73442541.659999996</v>
       </c>
       <c r="I8">
-        <f>G8-H8</f>
-        <v>24458.340000003576</v>
+        <f t="shared" si="4"/>
+        <v>-24458.340000003576</v>
       </c>
       <c r="J8" s="5">
-        <f>IFERROR(I8/G8,0)</f>
-        <v>3.3291600310348285E-4</v>
+        <f t="shared" si="1"/>
+        <v>-3.3291600310348285E-4</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" ref="K8">IF(J8=0," ",SUMPRODUCT((J8&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>75072800</v>
@@ -2691,16 +2691,16 @@
         <v>75050829.179999903</v>
       </c>
       <c r="N8">
-        <f>L8-M8</f>
-        <v>21970.820000097156</v>
+        <f t="shared" si="5"/>
+        <v>-21970.820000097156</v>
       </c>
       <c r="O8" s="5">
-        <f>IFERROR(N8/L8,0)</f>
-        <v>2.9266019117572752E-4</v>
+        <f t="shared" si="2"/>
+        <v>-2.9266019117572752E-4</v>
       </c>
       <c r="P8" cm="1">
         <f t="array" ref="P8">IF(O8=0," ",SUMPRODUCT((O8&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2714,16 +2714,16 @@
         <v>385908.52</v>
       </c>
       <c r="D9">
-        <f>B9-C9</f>
-        <v>23391.479999999981</v>
+        <f t="shared" si="3"/>
+        <v>-23391.479999999981</v>
       </c>
       <c r="E9" s="5">
-        <f>IFERROR(D9/B9,0)</f>
-        <v>5.7149963352064452E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.7149963352064452E-2</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">IF(E9=0," ",SUMPRODUCT((E9&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>428500</v>
@@ -2732,16 +2732,16 @@
         <v>427758.64</v>
       </c>
       <c r="I9">
-        <f>G9-H9</f>
-        <v>741.35999999998603</v>
+        <f t="shared" si="4"/>
+        <v>-741.35999999998603</v>
       </c>
       <c r="J9" s="5">
-        <f>IFERROR(I9/G9,0)</f>
-        <v>1.7301283547257551E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.7301283547257551E-3</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" ref="K9">IF(J9=0," ",SUMPRODUCT((J9&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>445200</v>
@@ -2750,16 +2750,16 @@
         <v>445114.28999999899</v>
       </c>
       <c r="N9">
-        <f>L9-M9</f>
-        <v>85.710000001010485</v>
+        <f t="shared" si="5"/>
+        <v>-85.710000001010485</v>
       </c>
       <c r="O9" s="5">
-        <f>IFERROR(N9/L9,0)</f>
-        <v>1.925202156356929E-4</v>
+        <f t="shared" si="2"/>
+        <v>-1.925202156356929E-4</v>
       </c>
       <c r="P9" cm="1">
         <f t="array" ref="P9">IF(O9=0," ",SUMPRODUCT((O9&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2773,16 +2773,16 @@
         <v>920284264.73000002</v>
       </c>
       <c r="D10">
-        <f>B10-C10</f>
-        <v>7418835.2699990273</v>
+        <f t="shared" si="3"/>
+        <v>-7418835.2699990273</v>
       </c>
       <c r="E10" s="5">
-        <f>IFERROR(D10/B10,0)</f>
-        <v>7.9969930789269058E-3</v>
+        <f t="shared" si="0"/>
+        <v>-7.9969930789269058E-3</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">IF(E10=0," ",SUMPRODUCT((E10&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>979671000</v>
@@ -2791,16 +2791,16 @@
         <v>977068513.48000002</v>
       </c>
       <c r="I10">
-        <f>G10-H10</f>
-        <v>2602486.5199999809</v>
+        <f t="shared" si="4"/>
+        <v>-2602486.5199999809</v>
       </c>
       <c r="J10" s="5">
-        <f>IFERROR(I10/G10,0)</f>
-        <v>2.6564903115433454E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.6564903115433454E-3</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" ref="K10">IF(J10=0," ",SUMPRODUCT((J10&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>989572899.99999905</v>
@@ -2809,16 +2809,16 @@
         <v>984116289.40999901</v>
       </c>
       <c r="N10">
-        <f>L10-M10</f>
-        <v>5456610.5900000334</v>
+        <f t="shared" si="5"/>
+        <v>-5456610.5900000334</v>
       </c>
       <c r="O10" s="5">
-        <f>IFERROR(N10/L10,0)</f>
-        <v>5.5141067323084929E-3</v>
+        <f t="shared" si="2"/>
+        <v>-5.5141067323084929E-3</v>
       </c>
       <c r="P10" cm="1">
         <f t="array" ref="P10">IF(O10=0," ",SUMPRODUCT((O10&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2832,16 +2832,16 @@
         <v>12030494.1</v>
       </c>
       <c r="D11">
-        <f>B11-C11</f>
-        <v>101705.90000000037</v>
+        <f t="shared" si="3"/>
+        <v>-101705.90000000037</v>
       </c>
       <c r="E11" s="5">
-        <f>IFERROR(D11/B11,0)</f>
-        <v>8.3831374359143746E-3</v>
+        <f t="shared" si="0"/>
+        <v>-8.3831374359143746E-3</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">IF(E11=0," ",SUMPRODUCT((E11&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>12735900</v>
@@ -2850,16 +2850,16 @@
         <v>12685514.279999901</v>
       </c>
       <c r="I11">
-        <f>G11-H11</f>
-        <v>50385.720000099391</v>
+        <f t="shared" si="4"/>
+        <v>-50385.720000099391</v>
       </c>
       <c r="J11" s="5">
-        <f>IFERROR(I11/G11,0)</f>
-        <v>3.9561962641116366E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.9561962641116366E-3</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" ref="K11">IF(J11=0," ",SUMPRODUCT((J11&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>12861300</v>
@@ -2868,16 +2868,16 @@
         <v>12826009.609999999</v>
       </c>
       <c r="N11">
-        <f>L11-M11</f>
-        <v>35290.390000000596</v>
+        <f t="shared" si="5"/>
+        <v>-35290.390000000596</v>
       </c>
       <c r="O11" s="5">
-        <f>IFERROR(N11/L11,0)</f>
-        <v>2.7439209100169185E-3</v>
+        <f t="shared" si="2"/>
+        <v>-2.7439209100169185E-3</v>
       </c>
       <c r="P11" cm="1">
         <f t="array" ref="P11">IF(O11=0," ",SUMPRODUCT((O11&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2891,16 +2891,16 @@
         <v>29789104.379999999</v>
       </c>
       <c r="D12">
-        <f>B12-C12</f>
-        <v>294095.62000000104</v>
+        <f t="shared" si="3"/>
+        <v>-294095.62000000104</v>
       </c>
       <c r="E12" s="5">
-        <f>IFERROR(D12/B12,0)</f>
-        <v>9.7760750186150751E-3</v>
+        <f t="shared" si="0"/>
+        <v>-9.7760750186150751E-3</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">IF(E12=0," ",SUMPRODUCT((E12&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>31040700</v>
@@ -2909,16 +2909,16 @@
         <v>30793711.48</v>
       </c>
       <c r="I12">
-        <f>G12-H12</f>
-        <v>246988.51999999955</v>
+        <f t="shared" si="4"/>
+        <v>-246988.51999999955</v>
       </c>
       <c r="J12" s="5">
-        <f>IFERROR(I12/G12,0)</f>
-        <v>7.9569249404813532E-3</v>
+        <f t="shared" si="1"/>
+        <v>-7.9569249404813532E-3</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" ref="K12">IF(J12=0," ",SUMPRODUCT((J12&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>31282200</v>
@@ -2927,16 +2927,16 @@
         <v>31282141.25</v>
       </c>
       <c r="N12">
-        <f>L12-M12</f>
-        <v>58.75</v>
+        <f t="shared" si="5"/>
+        <v>-58.75</v>
       </c>
       <c r="O12" s="5">
-        <f>IFERROR(N12/L12,0)</f>
-        <v>1.8780648419868168E-6</v>
+        <f t="shared" si="2"/>
+        <v>-1.8780648419868168E-6</v>
       </c>
       <c r="P12" cm="1">
         <f t="array" ref="P12">IF(O12=0," ",SUMPRODUCT((O12&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2950,16 +2950,16 @@
         <v>505017.37</v>
       </c>
       <c r="D13">
-        <f>B13-C13</f>
-        <v>6982.6300000000047</v>
+        <f t="shared" si="3"/>
+        <v>-6982.6300000000047</v>
       </c>
       <c r="E13" s="5">
-        <f>IFERROR(D13/B13,0)</f>
-        <v>1.3637949218750009E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.3637949218750009E-2</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">IF(E13=0," ",SUMPRODUCT((E13&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>530500</v>
@@ -2968,16 +2968,16 @@
         <v>524402.98</v>
       </c>
       <c r="I13">
-        <f>G13-H13</f>
-        <v>6097.0200000000186</v>
+        <f t="shared" si="4"/>
+        <v>-6097.0200000000186</v>
       </c>
       <c r="J13" s="5">
-        <f>IFERROR(I13/G13,0)</f>
-        <v>1.1492968897266765E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.1492968897266765E-2</v>
       </c>
       <c r="K13" cm="1">
         <f t="array" ref="K13">IF(J13=0," ",SUMPRODUCT((J13&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>526200</v>
@@ -2986,16 +2986,16 @@
         <v>504989.88</v>
       </c>
       <c r="N13">
-        <f>L13-M13</f>
-        <v>21210.119999999995</v>
+        <f t="shared" si="5"/>
+        <v>-21210.119999999995</v>
       </c>
       <c r="O13" s="5">
-        <f>IFERROR(N13/L13,0)</f>
-        <v>4.0308095781071827E-2</v>
+        <f t="shared" si="2"/>
+        <v>-4.0308095781071827E-2</v>
       </c>
       <c r="P13" cm="1">
         <f t="array" ref="P13">IF(O13=0," ",SUMPRODUCT((O13&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -3009,16 +3009,16 @@
         <v>188551675.67999899</v>
       </c>
       <c r="D14">
-        <f>B14-C14</f>
-        <v>41624.320001006126</v>
+        <f t="shared" si="3"/>
+        <v>-41624.320001006126</v>
       </c>
       <c r="E14" s="5">
-        <f>IFERROR(D14/B14,0)</f>
-        <v>2.2070943135841053E-4</v>
+        <f t="shared" si="0"/>
+        <v>-2.2070943135841053E-4</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">IF(E14=0," ",SUMPRODUCT((E14&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>199130300</v>
@@ -3027,16 +3027,16 @@
         <v>196755033.31</v>
       </c>
       <c r="I14">
-        <f>G14-H14</f>
-        <v>2375266.6899999976</v>
+        <f t="shared" si="4"/>
+        <v>-2375266.6899999976</v>
       </c>
       <c r="J14" s="5">
-        <f>IFERROR(I14/G14,0)</f>
-        <v>1.1928203241796942E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.1928203241796942E-2</v>
       </c>
       <c r="K14" cm="1">
         <f t="array" ref="K14">IF(J14=0," ",SUMPRODUCT((J14&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>199954600</v>
@@ -3045,16 +3045,16 @@
         <v>199954563.74999899</v>
       </c>
       <c r="N14">
-        <f>L14-M14</f>
-        <v>36.250001013278961</v>
+        <f t="shared" si="5"/>
+        <v>-36.250001013278961</v>
       </c>
       <c r="O14" s="5">
-        <f>IFERROR(N14/L14,0)</f>
-        <v>1.8129115815929696E-7</v>
+        <f t="shared" si="2"/>
+        <v>-1.8129115815929696E-7</v>
       </c>
       <c r="P14" cm="1">
         <f t="array" ref="P14">IF(O14=0," ",SUMPRODUCT((O14&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -3068,16 +3068,16 @@
         <v>11412339.8799999</v>
       </c>
       <c r="D15">
-        <f>B15-C15</f>
-        <v>153660.12000009976</v>
+        <f t="shared" si="3"/>
+        <v>-153660.12000009976</v>
       </c>
       <c r="E15" s="5">
-        <f>IFERROR(D15/B15,0)</f>
-        <v>1.3285502334437123E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.3285502334437123E-2</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">IF(E15=0," ",SUMPRODUCT((E15&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>11980700</v>
@@ -3086,16 +3086,16 @@
         <v>11791977.9699999</v>
       </c>
       <c r="I15">
-        <f>G15-H15</f>
-        <v>188722.03000009991</v>
+        <f t="shared" si="4"/>
+        <v>-188722.03000009991</v>
       </c>
       <c r="J15" s="5">
-        <f>IFERROR(I15/G15,0)</f>
-        <v>1.5752170574348738E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.5752170574348738E-2</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">IF(J15=0," ",SUMPRODUCT((J15&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L15">
         <v>11935200</v>
@@ -3104,16 +3104,16 @@
         <v>11934454.77</v>
       </c>
       <c r="N15">
-        <f>L15-M15</f>
-        <v>745.23000000044703</v>
+        <f t="shared" si="5"/>
+        <v>-745.23000000044703</v>
       </c>
       <c r="O15" s="5">
-        <f>IFERROR(N15/L15,0)</f>
-        <v>6.2439674240938325E-5</v>
+        <f t="shared" si="2"/>
+        <v>-6.2439674240938325E-5</v>
       </c>
       <c r="P15" cm="1">
         <f t="array" ref="P15">IF(O15=0," ",SUMPRODUCT((O15&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -3127,16 +3127,16 @@
         <v>479149.53</v>
       </c>
       <c r="D16">
-        <f>B16-C16</f>
-        <v>4950.4699999999721</v>
+        <f t="shared" si="3"/>
+        <v>-4950.4699999999721</v>
       </c>
       <c r="E16" s="5">
-        <f>IFERROR(D16/B16,0)</f>
-        <v>1.0226130964676661E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.0226130964676661E-2</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">IF(E16=0," ",SUMPRODUCT((E16&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>505200</v>
@@ -3145,16 +3145,16 @@
         <v>497194.20999999897</v>
       </c>
       <c r="I16">
-        <f>G16-H16</f>
-        <v>8005.7900000010268</v>
+        <f t="shared" si="4"/>
+        <v>-8005.7900000010268</v>
       </c>
       <c r="J16" s="5">
-        <f>IFERROR(I16/G16,0)</f>
-        <v>1.5846773555029746E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.5846773555029746E-2</v>
       </c>
       <c r="K16" cm="1">
         <f t="array" ref="K16">IF(J16=0," ",SUMPRODUCT((J16&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L16">
         <v>496500</v>
@@ -3163,16 +3163,16 @@
         <v>494775.1</v>
       </c>
       <c r="N16">
-        <f>L16-M16</f>
-        <v>1724.9000000000233</v>
+        <f t="shared" si="5"/>
+        <v>-1724.9000000000233</v>
       </c>
       <c r="O16" s="5">
-        <f>IFERROR(N16/L16,0)</f>
-        <v>3.4741188318228064E-3</v>
+        <f t="shared" si="2"/>
+        <v>-3.4741188318228064E-3</v>
       </c>
       <c r="P16" cm="1">
         <f t="array" ref="P16">IF(O16=0," ",SUMPRODUCT((O16&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -3186,16 +3186,16 @@
         <v>3115157.5599999898</v>
       </c>
       <c r="D17">
-        <f>B17-C17</f>
-        <v>15442.440000010189</v>
+        <f t="shared" si="3"/>
+        <v>-15442.440000010189</v>
       </c>
       <c r="E17" s="5">
-        <f>IFERROR(D17/B17,0)</f>
-        <v>4.9327413275443007E-3</v>
+        <f t="shared" si="0"/>
+        <v>-4.9327413275443007E-3</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">IF(E17=0," ",SUMPRODUCT((E17&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>3652300</v>
@@ -3204,16 +3204,16 @@
         <v>3589693.2099999902</v>
       </c>
       <c r="I17">
-        <f>G17-H17</f>
-        <v>62606.790000009816</v>
+        <f t="shared" si="4"/>
+        <v>-62606.790000009816</v>
       </c>
       <c r="J17" s="5">
-        <f>IFERROR(I17/G17,0)</f>
-        <v>1.7141743558856015E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.7141743558856015E-2</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">IF(J17=0," ",SUMPRODUCT((J17&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="L17">
         <v>3662400</v>
@@ -3222,16 +3222,16 @@
         <v>3564983.04999999</v>
       </c>
       <c r="N17">
-        <f>L17-M17</f>
-        <v>97416.950000009965</v>
+        <f t="shared" si="5"/>
+        <v>-97416.950000009965</v>
       </c>
       <c r="O17" s="5">
-        <f>IFERROR(N17/L17,0)</f>
-        <v>2.6599210899959033E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.6599210899959033E-2</v>
       </c>
       <c r="P17" cm="1">
         <f t="array" ref="P17">IF(O17=0," ",SUMPRODUCT((O17&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -3245,16 +3245,16 @@
         <v>5925637.7199999904</v>
       </c>
       <c r="D18">
-        <f>B18-C18</f>
-        <v>73762.280000009574</v>
+        <f t="shared" si="3"/>
+        <v>-73762.280000009574</v>
       </c>
       <c r="E18" s="5">
-        <f>IFERROR(D18/B18,0)</f>
-        <v>1.2294942827617691E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.2294942827617691E-2</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">IF(E18=0," ",SUMPRODUCT((E18&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G18">
         <v>6195500</v>
@@ -3263,16 +3263,16 @@
         <v>6084985.4699999997</v>
       </c>
       <c r="I18">
-        <f>G18-H18</f>
-        <v>110514.53000000026</v>
+        <f t="shared" si="4"/>
+        <v>-110514.53000000026</v>
       </c>
       <c r="J18" s="5">
-        <f>IFERROR(I18/G18,0)</f>
-        <v>1.7837871035428981E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.7837871035428981E-2</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" ref="K18">IF(J18=0," ",SUMPRODUCT((J18&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L18">
         <v>6157400</v>
@@ -3281,16 +3281,16 @@
         <v>5987572.0199999996</v>
       </c>
       <c r="N18">
-        <f>L18-M18</f>
-        <v>169827.98000000045</v>
+        <f t="shared" si="5"/>
+        <v>-169827.98000000045</v>
       </c>
       <c r="O18" s="5">
-        <f>IFERROR(N18/L18,0)</f>
-        <v>2.7581118653977402E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.7581118653977402E-2</v>
       </c>
       <c r="P18" cm="1">
         <f t="array" ref="P18">IF(O18=0," ",SUMPRODUCT((O18&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -3304,16 +3304,16 @@
         <v>4409060.2099999897</v>
       </c>
       <c r="D19">
-        <f>B19-C19</f>
-        <v>184239.79000001028</v>
+        <f t="shared" si="3"/>
+        <v>-184239.79000001028</v>
       </c>
       <c r="E19" s="5">
-        <f>IFERROR(D19/B19,0)</f>
-        <v>4.0110550149132493E-2</v>
+        <f t="shared" si="0"/>
+        <v>-4.0110550149132493E-2</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">IF(E19=0," ",SUMPRODUCT((E19&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>5089500</v>
@@ -3322,16 +3322,16 @@
         <v>4956043.6699999897</v>
       </c>
       <c r="I19">
-        <f>G19-H19</f>
-        <v>133456.33000001032</v>
+        <f t="shared" si="4"/>
+        <v>-133456.33000001032</v>
       </c>
       <c r="J19" s="5">
-        <f>IFERROR(I19/G19,0)</f>
-        <v>2.6221894095689226E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.6221894095689226E-2</v>
       </c>
       <c r="K19" cm="1">
         <f t="array" ref="K19">IF(J19=0," ",SUMPRODUCT((J19&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="L19">
         <v>4799900</v>
@@ -3340,16 +3340,16 @@
         <v>4717822.6500000004</v>
       </c>
       <c r="N19">
-        <f>L19-M19</f>
-        <v>82077.349999999627</v>
+        <f t="shared" si="5"/>
+        <v>-82077.349999999627</v>
       </c>
       <c r="O19" s="5">
-        <f>IFERROR(N19/L19,0)</f>
-        <v>1.7099804162586642E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.7099804162586642E-2</v>
       </c>
       <c r="P19" cm="1">
         <f t="array" ref="P19">IF(O19=0," ",SUMPRODUCT((O19&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -3363,16 +3363,16 @@
         <v>258322.43</v>
       </c>
       <c r="D20">
-        <f>B20-C20</f>
-        <v>777.57000000000698</v>
+        <f t="shared" si="3"/>
+        <v>-777.57000000000698</v>
       </c>
       <c r="E20" s="5">
-        <f>IFERROR(D20/B20,0)</f>
-        <v>3.0010420686993711E-3</v>
+        <f t="shared" si="0"/>
+        <v>-3.0010420686993711E-3</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">IF(E20=0," ",SUMPRODUCT((E20&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>266000</v>
@@ -3381,16 +3381,16 @@
         <v>257402.90999999901</v>
       </c>
       <c r="I20">
-        <f>G20-H20</f>
-        <v>8597.090000000986</v>
+        <f t="shared" si="4"/>
+        <v>-8597.090000000986</v>
       </c>
       <c r="J20" s="5">
-        <f>IFERROR(I20/G20,0)</f>
-        <v>3.2319887218048821E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.2319887218048821E-2</v>
       </c>
       <c r="K20" cm="1">
         <f t="array" ref="K20">IF(J20=0," ",SUMPRODUCT((J20&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="L20">
         <v>267100</v>
@@ -3399,16 +3399,16 @@
         <v>254753.15999999901</v>
       </c>
       <c r="N20">
-        <f>L20-M20</f>
-        <v>12346.840000000986</v>
+        <f t="shared" si="5"/>
+        <v>-12346.840000000986</v>
       </c>
       <c r="O20" s="5">
-        <f>IFERROR(N20/L20,0)</f>
-        <v>4.6225533508053113E-2</v>
+        <f t="shared" si="2"/>
+        <v>-4.6225533508053113E-2</v>
       </c>
       <c r="P20" cm="1">
         <f t="array" ref="P20">IF(O20=0," ",SUMPRODUCT((O20&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -3422,16 +3422,16 @@
         <v>1740827.69</v>
       </c>
       <c r="D21">
-        <f>B21-C21</f>
-        <v>24772.310000000056</v>
+        <f t="shared" si="3"/>
+        <v>-24772.310000000056</v>
       </c>
       <c r="E21" s="5">
-        <f>IFERROR(D21/B21,0)</f>
-        <v>1.4030533529678329E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.4030533529678329E-2</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">IF(E21=0," ",SUMPRODUCT((E21&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>1823300</v>
@@ -3440,16 +3440,16 @@
         <v>1762676.85</v>
       </c>
       <c r="I21">
-        <f>G21-H21</f>
-        <v>60623.149999999907</v>
+        <f t="shared" si="4"/>
+        <v>-60623.149999999907</v>
       </c>
       <c r="J21" s="5">
-        <f>IFERROR(I21/G21,0)</f>
-        <v>3.3249136181648611E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.3249136181648611E-2</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" ref="K21">IF(J21=0," ",SUMPRODUCT((J21&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L21">
         <v>1870700</v>
@@ -3458,16 +3458,16 @@
         <v>1801391.34</v>
       </c>
       <c r="N21">
-        <f>L21-M21</f>
-        <v>69308.659999999916</v>
+        <f t="shared" si="5"/>
+        <v>-69308.659999999916</v>
       </c>
       <c r="O21" s="5">
-        <f>IFERROR(N21/L21,0)</f>
-        <v>3.7049585716576634E-2</v>
+        <f t="shared" si="2"/>
+        <v>-3.7049585716576634E-2</v>
       </c>
       <c r="P21" cm="1">
         <f t="array" ref="P21">IF(O21=0," ",SUMPRODUCT((O21&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -3481,16 +3481,16 @@
         <v>8499425.3399999905</v>
       </c>
       <c r="D22">
-        <f>B22-C22</f>
-        <v>110074.66000000946</v>
+        <f t="shared" si="3"/>
+        <v>-110074.66000000946</v>
       </c>
       <c r="E22" s="5">
-        <f>IFERROR(D22/B22,0)</f>
-        <v>1.2785255822058129E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.2785255822058129E-2</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">IF(E22=0," ",SUMPRODUCT((E22&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>8925500</v>
@@ -3499,16 +3499,16 @@
         <v>8599059.6199999992</v>
       </c>
       <c r="I22">
-        <f>G22-H22</f>
-        <v>326440.38000000082</v>
+        <f t="shared" si="4"/>
+        <v>-326440.38000000082</v>
       </c>
       <c r="J22" s="5">
-        <f>IFERROR(I22/G22,0)</f>
-        <v>3.6573903982970231E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.6573903982970231E-2</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" ref="K22">IF(J22=0," ",SUMPRODUCT((J22&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L22">
         <v>8833900</v>
@@ -3517,16 +3517,16 @@
         <v>8735843.3100000005</v>
       </c>
       <c r="N22">
-        <f>L22-M22</f>
-        <v>98056.689999999478</v>
+        <f t="shared" si="5"/>
+        <v>-98056.689999999478</v>
       </c>
       <c r="O22" s="5">
-        <f>IFERROR(N22/L22,0)</f>
-        <v>1.1100045280114048E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.1100045280114048E-2</v>
       </c>
       <c r="P22" cm="1">
         <f t="array" ref="P22">IF(O22=0," ",SUMPRODUCT((O22&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -3540,16 +3540,16 @@
         <v>54589584.0499999</v>
       </c>
       <c r="D23">
-        <f>B23-C23</f>
-        <v>712015.95000009984</v>
+        <f t="shared" si="3"/>
+        <v>-712015.95000009984</v>
       </c>
       <c r="E23" s="5">
-        <f>IFERROR(D23/B23,0)</f>
-        <v>1.287514194887851E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.287514194887851E-2</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">IF(E23=0," ",SUMPRODUCT((E23&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>56792200</v>
@@ -3558,16 +3558,16 @@
         <v>54594953.959999897</v>
       </c>
       <c r="I23">
-        <f>G23-H23</f>
-        <v>2197246.0400001034</v>
+        <f t="shared" si="4"/>
+        <v>-2197246.0400001034</v>
       </c>
       <c r="J23" s="5">
-        <f>IFERROR(I23/G23,0)</f>
-        <v>3.8689222111488959E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.8689222111488959E-2</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" ref="K23">IF(J23=0," ",SUMPRODUCT((J23&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L23">
         <v>56027100</v>
@@ -3576,16 +3576,16 @@
         <v>55386549.6599999</v>
       </c>
       <c r="N23">
-        <f>L23-M23</f>
-        <v>640550.34000010043</v>
+        <f t="shared" si="5"/>
+        <v>-640550.34000010043</v>
       </c>
       <c r="O23" s="5">
-        <f>IFERROR(N23/L23,0)</f>
-        <v>1.1432866237947358E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.1432866237947358E-2</v>
       </c>
       <c r="P23" cm="1">
         <f t="array" ref="P23">IF(O23=0," ",SUMPRODUCT((O23&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -3599,16 +3599,16 @@
         <v>6527352.5699999901</v>
       </c>
       <c r="D24">
-        <f>B24-C24</f>
-        <v>209747.43000000995</v>
+        <f t="shared" si="3"/>
+        <v>-209747.43000000995</v>
       </c>
       <c r="E24" s="5">
-        <f>IFERROR(D24/B24,0)</f>
-        <v>3.1133192323107857E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.1133192323107857E-2</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">IF(E24=0," ",SUMPRODUCT((E24&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>7214700</v>
@@ -3617,16 +3617,16 @@
         <v>6922072.5599999996</v>
       </c>
       <c r="I24">
-        <f>G24-H24</f>
-        <v>292627.44000000041</v>
+        <f t="shared" si="4"/>
+        <v>-292627.44000000041</v>
       </c>
       <c r="J24" s="5">
-        <f>IFERROR(I24/G24,0)</f>
-        <v>4.0559890224125802E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.0559890224125802E-2</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" ref="K24">IF(J24=0," ",SUMPRODUCT((J24&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <v>7289800</v>
@@ -3635,16 +3635,16 @@
         <v>6882350.23999999</v>
       </c>
       <c r="N24">
-        <f>L24-M24</f>
-        <v>407449.76000001002</v>
+        <f t="shared" si="5"/>
+        <v>-407449.76000001002</v>
       </c>
       <c r="O24" s="5">
-        <f>IFERROR(N24/L24,0)</f>
-        <v>5.5893132870587676E-2</v>
+        <f t="shared" si="2"/>
+        <v>-5.5893132870587676E-2</v>
       </c>
       <c r="P24" cm="1">
         <f t="array" ref="P24">IF(O24=0," ",SUMPRODUCT((O24&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -3658,16 +3658,16 @@
         <v>904969.19</v>
       </c>
       <c r="D25">
-        <f>B25-C25</f>
-        <v>12230.810000000056</v>
+        <f t="shared" si="3"/>
+        <v>-12230.810000000056</v>
       </c>
       <c r="E25" s="5">
-        <f>IFERROR(D25/B25,0)</f>
-        <v>1.3334943305713101E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.3334943305713101E-2</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">IF(E25=0," ",SUMPRODUCT((E25&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>1112700</v>
@@ -3676,16 +3676,16 @@
         <v>1067214.42</v>
       </c>
       <c r="I25">
-        <f>G25-H25</f>
-        <v>45485.580000000075</v>
+        <f t="shared" si="4"/>
+        <v>-45485.580000000075</v>
       </c>
       <c r="J25" s="5">
-        <f>IFERROR(I25/G25,0)</f>
-        <v>4.087856565111897E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.087856565111897E-2</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" ref="K25">IF(J25=0," ",SUMPRODUCT((J25&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L25">
         <v>1112600</v>
@@ -3694,16 +3694,16 @@
         <v>1112527.1200000001</v>
       </c>
       <c r="N25">
-        <f>L25-M25</f>
-        <v>72.879999999888241</v>
+        <f t="shared" si="5"/>
+        <v>-72.879999999888241</v>
       </c>
       <c r="O25" s="5">
-        <f>IFERROR(N25/L25,0)</f>
-        <v>6.5504224339284781E-5</v>
+        <f t="shared" si="2"/>
+        <v>-6.5504224339284781E-5</v>
       </c>
       <c r="P25" cm="1">
         <f t="array" ref="P25">IF(O25=0," ",SUMPRODUCT((O25&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -3717,16 +3717,16 @@
         <v>2523884.71</v>
       </c>
       <c r="D26">
-        <f>B26-C26</f>
-        <v>37915.290000000037</v>
+        <f t="shared" si="3"/>
+        <v>-37915.290000000037</v>
       </c>
       <c r="E26" s="5">
-        <f>IFERROR(D26/B26,0)</f>
-        <v>1.4800253727847622E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.4800253727847622E-2</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">IF(E26=0," ",SUMPRODUCT((E26&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <v>2779500</v>
@@ -3735,16 +3735,16 @@
         <v>2665264.4399999902</v>
       </c>
       <c r="I26">
-        <f>G26-H26</f>
-        <v>114235.56000000983</v>
+        <f t="shared" si="4"/>
+        <v>-114235.56000000983</v>
       </c>
       <c r="J26" s="5">
-        <f>IFERROR(I26/G26,0)</f>
-        <v>4.1099320021590155E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.1099320021590155E-2</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">IF(J26=0," ",SUMPRODUCT((J26&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L26">
         <v>2889900</v>
@@ -3753,16 +3753,16 @@
         <v>2889864.67</v>
       </c>
       <c r="N26">
-        <f>L26-M26</f>
-        <v>35.330000000074506</v>
+        <f t="shared" si="5"/>
+        <v>-35.330000000074506</v>
       </c>
       <c r="O26" s="5">
-        <f>IFERROR(N26/L26,0)</f>
-        <v>1.2225336516860273E-5</v>
+        <f t="shared" si="2"/>
+        <v>-1.2225336516860273E-5</v>
       </c>
       <c r="P26" cm="1">
         <f t="array" ref="P26">IF(O26=0," ",SUMPRODUCT((O26&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -3776,16 +3776,16 @@
         <v>20036743.4099999</v>
       </c>
       <c r="D27">
-        <f>B27-C27</f>
-        <v>825956.59000010043</v>
+        <f t="shared" si="3"/>
+        <v>-825956.59000010043</v>
       </c>
       <c r="E27" s="5">
-        <f>IFERROR(D27/B27,0)</f>
-        <v>3.9590110100806722E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.9590110100806722E-2</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">IF(E27=0," ",SUMPRODUCT((E27&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>22683800</v>
@@ -3794,16 +3794,16 @@
         <v>21722126.219999898</v>
       </c>
       <c r="I27">
-        <f>G27-H27</f>
-        <v>961673.78000010177</v>
+        <f t="shared" si="4"/>
+        <v>-961673.78000010177</v>
       </c>
       <c r="J27" s="5">
-        <f>IFERROR(I27/G27,0)</f>
-        <v>4.2394738976719144E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.2394738976719144E-2</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">IF(J27=0," ",SUMPRODUCT((J27&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L27">
         <v>23220300</v>
@@ -3812,16 +3812,16 @@
         <v>22619057.440000001</v>
       </c>
       <c r="N27">
-        <f>L27-M27</f>
-        <v>601242.55999999866</v>
+        <f t="shared" si="5"/>
+        <v>-601242.55999999866</v>
       </c>
       <c r="O27" s="5">
-        <f>IFERROR(N27/L27,0)</f>
-        <v>2.5892971236375011E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.5892971236375011E-2</v>
       </c>
       <c r="P27" cm="1">
         <f t="array" ref="P27">IF(O27=0," ",SUMPRODUCT((O27&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -3835,16 +3835,16 @@
         <v>14439480.050000001</v>
       </c>
       <c r="D28">
-        <f>B28-C28</f>
-        <v>421319.94999999925</v>
+        <f t="shared" si="3"/>
+        <v>-421319.94999999925</v>
       </c>
       <c r="E28" s="5">
-        <f>IFERROR(D28/B28,0)</f>
-        <v>2.8351094826658003E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.8351094826658003E-2</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">IF(E28=0," ",SUMPRODUCT((E28&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>15309700</v>
@@ -3853,16 +3853,16 @@
         <v>14645233.51</v>
       </c>
       <c r="I28">
-        <f>G28-H28</f>
-        <v>664466.49000000022</v>
+        <f t="shared" si="4"/>
+        <v>-664466.49000000022</v>
       </c>
       <c r="J28" s="5">
-        <f>IFERROR(I28/G28,0)</f>
-        <v>4.3401666263871937E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.3401666263871937E-2</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" ref="K28">IF(J28=0," ",SUMPRODUCT((J28&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L28">
         <v>15311800</v>
@@ -3871,16 +3871,16 @@
         <v>14346057.039999999</v>
       </c>
       <c r="N28">
-        <f>L28-M28</f>
-        <v>965742.96000000089</v>
+        <f t="shared" si="5"/>
+        <v>-965742.96000000089</v>
       </c>
       <c r="O28" s="5">
-        <f>IFERROR(N28/L28,0)</f>
-        <v>6.3071811282801551E-2</v>
+        <f t="shared" si="2"/>
+        <v>-6.3071811282801551E-2</v>
       </c>
       <c r="P28" cm="1">
         <f t="array" ref="P28">IF(O28=0," ",SUMPRODUCT((O28&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -3894,16 +3894,16 @@
         <v>156545919.90000001</v>
       </c>
       <c r="D29">
-        <f>B29-C29</f>
-        <v>-496819.90000000596</v>
+        <f t="shared" si="3"/>
+        <v>496819.90000000596</v>
       </c>
       <c r="E29" s="5">
-        <f>IFERROR(D29/B29,0)</f>
-        <v>-3.1837408866824991E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.1837408866824991E-3</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">IF(E29=0," ",SUMPRODUCT((E29&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>184167800</v>
@@ -3912,16 +3912,16 @@
         <v>175966389.24999899</v>
       </c>
       <c r="I29">
-        <f>G29-H29</f>
-        <v>8201410.7500010133</v>
+        <f t="shared" si="4"/>
+        <v>-8201410.7500010133</v>
       </c>
       <c r="J29" s="5">
-        <f>IFERROR(I29/G29,0)</f>
-        <v>4.4532273014072019E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.4532273014072019E-2</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">IF(J29=0," ",SUMPRODUCT((J29&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L29">
         <v>188953500</v>
@@ -3930,16 +3930,16 @@
         <v>184450910.84999901</v>
       </c>
       <c r="N29">
-        <f>L29-M29</f>
-        <v>4502589.1500009894</v>
+        <f t="shared" si="5"/>
+        <v>-4502589.1500009894</v>
       </c>
       <c r="O29" s="5">
-        <f>IFERROR(N29/L29,0)</f>
-        <v>2.3829085727446114E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.3829085727446114E-2</v>
       </c>
       <c r="P29" cm="1">
         <f t="array" ref="P29">IF(O29=0," ",SUMPRODUCT((O29&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -3953,16 +3953,16 @@
         <v>7968645.8300000001</v>
       </c>
       <c r="D30">
-        <f>B30-C30</f>
-        <v>166754.16999999993</v>
+        <f t="shared" si="3"/>
+        <v>-166754.16999999993</v>
       </c>
       <c r="E30" s="5">
-        <f>IFERROR(D30/B30,0)</f>
-        <v>2.0497353541313264E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.0497353541313264E-2</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">IF(E30=0," ",SUMPRODUCT((E30&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30">
         <v>8560800</v>
@@ -3971,16 +3971,16 @@
         <v>8171472.0199999996</v>
       </c>
       <c r="I30">
-        <f>G30-H30</f>
-        <v>389327.98000000045</v>
+        <f t="shared" si="4"/>
+        <v>-389327.98000000045</v>
       </c>
       <c r="J30" s="5">
-        <f>IFERROR(I30/G30,0)</f>
-        <v>4.5477990374731388E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.5477990374731388E-2</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" ref="K30">IF(J30=0," ",SUMPRODUCT((J30&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L30">
         <v>8497500</v>
@@ -3989,16 +3989,16 @@
         <v>8150982.5699999901</v>
       </c>
       <c r="N30">
-        <f>L30-M30</f>
-        <v>346517.43000000995</v>
+        <f t="shared" si="5"/>
+        <v>-346517.43000000995</v>
       </c>
       <c r="O30" s="5">
-        <f>IFERROR(N30/L30,0)</f>
-        <v>4.0778750220654303E-2</v>
+        <f t="shared" si="2"/>
+        <v>-4.0778750220654303E-2</v>
       </c>
       <c r="P30" cm="1">
         <f t="array" ref="P30">IF(O30=0," ",SUMPRODUCT((O30&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -4012,16 +4012,16 @@
         <v>37565141.859999903</v>
       </c>
       <c r="D31">
-        <f>B31-C31</f>
-        <v>816758.14000009745</v>
+        <f t="shared" si="3"/>
+        <v>-816758.14000009745</v>
       </c>
       <c r="E31" s="5">
-        <f>IFERROR(D31/B31,0)</f>
-        <v>2.1279773539092578E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.1279773539092578E-2</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">IF(E31=0," ",SUMPRODUCT((E31&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>39964900</v>
@@ -4030,16 +4030,16 @@
         <v>38095240.189999901</v>
       </c>
       <c r="I31">
-        <f>G31-H31</f>
-        <v>1869659.8100000992</v>
+        <f t="shared" si="4"/>
+        <v>-1869659.8100000992</v>
       </c>
       <c r="J31" s="5">
-        <f>IFERROR(I31/G31,0)</f>
-        <v>4.6782546934937892E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.6782546934937892E-2</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" ref="K31">IF(J31=0," ",SUMPRODUCT((J31&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L31">
         <v>40216700</v>
@@ -4048,16 +4048,16 @@
         <v>39606263.709999897</v>
       </c>
       <c r="N31">
-        <f>L31-M31</f>
-        <v>610436.29000010341</v>
+        <f t="shared" si="5"/>
+        <v>-610436.29000010341</v>
       </c>
       <c r="O31" s="5">
-        <f>IFERROR(N31/L31,0)</f>
-        <v>1.5178676768608648E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.5178676768608648E-2</v>
       </c>
       <c r="P31" cm="1">
         <f t="array" ref="P31">IF(O31=0," ",SUMPRODUCT((O31&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -4071,16 +4071,16 @@
         <v>4109958.22</v>
       </c>
       <c r="D32">
-        <f>B32-C32</f>
-        <v>79341.779999999795</v>
+        <f t="shared" si="3"/>
+        <v>-79341.779999999795</v>
       </c>
       <c r="E32" s="5">
-        <f>IFERROR(D32/B32,0)</f>
-        <v>1.8939149738619768E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">IF(E32=0," ",SUMPRODUCT((E32&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32">
         <v>4350600</v>
@@ -4089,16 +4089,16 @@
         <v>4137588.7699999898</v>
       </c>
       <c r="I32">
-        <f>G32-H32</f>
-        <v>213011.23000001023</v>
+        <f t="shared" si="4"/>
+        <v>-213011.23000001023</v>
       </c>
       <c r="J32" s="5">
-        <f>IFERROR(I32/G32,0)</f>
-        <v>4.8961345561534093E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.8961345561534093E-2</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" ref="K32">IF(J32=0," ",SUMPRODUCT((J32&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L32">
         <v>4345600</v>
@@ -4107,16 +4107,16 @@
         <v>4229801.51</v>
       </c>
       <c r="N32">
-        <f>L32-M32</f>
-        <v>115798.49000000022</v>
+        <f t="shared" si="5"/>
+        <v>-115798.49000000022</v>
       </c>
       <c r="O32" s="5">
-        <f>IFERROR(N32/L32,0)</f>
-        <v>2.6647296115611244E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.6647296115611244E-2</v>
       </c>
       <c r="P32" cm="1">
         <f t="array" ref="P32">IF(O32=0," ",SUMPRODUCT((O32&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -4130,16 +4130,16 @@
         <v>2005447.73999999</v>
       </c>
       <c r="D33">
-        <f>B33-C33</f>
-        <v>82352.260000010021</v>
+        <f t="shared" si="3"/>
+        <v>-82352.260000010021</v>
       </c>
       <c r="E33" s="5">
-        <f>IFERROR(D33/B33,0)</f>
-        <v>3.9444515758219188E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.9444515758219188E-2</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">IF(E33=0," ",SUMPRODUCT((E33&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>2229200</v>
@@ -4148,16 +4148,16 @@
         <v>2118943.21</v>
       </c>
       <c r="I33">
-        <f>G33-H33</f>
-        <v>110256.79000000004</v>
+        <f t="shared" si="4"/>
+        <v>-110256.79000000004</v>
       </c>
       <c r="J33" s="5">
-        <f>IFERROR(I33/G33,0)</f>
-        <v>4.9460250314014013E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.9460250314014013E-2</v>
       </c>
       <c r="K33" cm="1">
         <f t="array" ref="K33">IF(J33=0," ",SUMPRODUCT((J33&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L33">
         <v>2296900</v>
@@ -4166,16 +4166,16 @@
         <v>2108718.34</v>
       </c>
       <c r="N33">
-        <f>L33-M33</f>
-        <v>188181.66000000015</v>
+        <f t="shared" si="5"/>
+        <v>-188181.66000000015</v>
       </c>
       <c r="O33" s="5">
-        <f>IFERROR(N33/L33,0)</f>
-        <v>8.1928538464887526E-2</v>
+        <f t="shared" si="2"/>
+        <v>-8.1928538464887526E-2</v>
       </c>
       <c r="P33" cm="1">
         <f t="array" ref="P33">IF(O33=0," ",SUMPRODUCT((O33&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -4189,16 +4189,16 @@
         <v>838669.82</v>
       </c>
       <c r="D34">
-        <f>B34-C34</f>
-        <v>16630.180000000051</v>
+        <f t="shared" si="3"/>
+        <v>-16630.180000000051</v>
       </c>
       <c r="E34" s="5">
-        <f>IFERROR(D34/B34,0)</f>
-        <v>1.9443680579913542E-2</v>
+        <f t="shared" ref="E34:E65" si="6">IFERROR(D34/B34,0)</f>
+        <v>-1.9443680579913542E-2</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">IF(E34=0," ",SUMPRODUCT((E34&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34">
         <v>792800</v>
@@ -4207,16 +4207,16 @@
         <v>753451.96</v>
       </c>
       <c r="I34">
-        <f>G34-H34</f>
-        <v>39348.040000000037</v>
+        <f t="shared" si="4"/>
+        <v>-39348.040000000037</v>
       </c>
       <c r="J34" s="5">
-        <f>IFERROR(I34/G34,0)</f>
-        <v>4.9631735620585316E-2</v>
+        <f t="shared" ref="J34:J65" si="7">IFERROR(I34/G34,0)</f>
+        <v>-4.9631735620585316E-2</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" ref="K34">IF(J34=0," ",SUMPRODUCT((J34&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L34">
         <v>777800</v>
@@ -4225,16 +4225,16 @@
         <v>777663.26</v>
       </c>
       <c r="N34">
-        <f>L34-M34</f>
-        <v>136.73999999999069</v>
+        <f t="shared" si="5"/>
+        <v>-136.73999999999069</v>
       </c>
       <c r="O34" s="5">
-        <f>IFERROR(N34/L34,0)</f>
-        <v>1.7580354847003174E-4</v>
+        <f t="shared" ref="O34:O65" si="8">IFERROR(N34/L34,0)</f>
+        <v>-1.7580354847003174E-4</v>
       </c>
       <c r="P34" cm="1">
         <f t="array" ref="P34">IF(O34=0," ",SUMPRODUCT((O34&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -4248,16 +4248,16 @@
         <v>5772288.3300000001</v>
       </c>
       <c r="D35">
-        <f>B35-C35</f>
-        <v>75511.669999999925</v>
+        <f t="shared" si="3"/>
+        <v>-75511.669999999925</v>
       </c>
       <c r="E35" s="5">
-        <f>IFERROR(D35/B35,0)</f>
-        <v>1.2912833886247806E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.2912833886247806E-2</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">IF(E35=0," ",SUMPRODUCT((E35&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G35">
         <v>6223700</v>
@@ -4266,16 +4266,16 @@
         <v>5909077.9399999902</v>
       </c>
       <c r="I35">
-        <f>G35-H35</f>
-        <v>314622.06000000983</v>
+        <f t="shared" si="4"/>
+        <v>-314622.06000000983</v>
       </c>
       <c r="J35" s="5">
-        <f>IFERROR(I35/G35,0)</f>
-        <v>5.0552253482656594E-2</v>
+        <f t="shared" si="7"/>
+        <v>-5.0552253482656594E-2</v>
       </c>
       <c r="K35" cm="1">
         <f t="array" ref="K35">IF(J35=0," ",SUMPRODUCT((J35&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L35">
         <v>6207300</v>
@@ -4284,16 +4284,16 @@
         <v>6056976.6699999999</v>
       </c>
       <c r="N35">
-        <f>L35-M35</f>
-        <v>150323.33000000007</v>
+        <f t="shared" si="5"/>
+        <v>-150323.33000000007</v>
       </c>
       <c r="O35" s="5">
-        <f>IFERROR(N35/L35,0)</f>
-        <v>2.4217184605222895E-2</v>
+        <f t="shared" si="8"/>
+        <v>-2.4217184605222895E-2</v>
       </c>
       <c r="P35" cm="1">
         <f t="array" ref="P35">IF(O35=0," ",SUMPRODUCT((O35&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -4307,16 +4307,16 @@
         <v>407090.37</v>
       </c>
       <c r="D36">
-        <f>B36-C36</f>
-        <v>36209.630000000005</v>
+        <f t="shared" si="3"/>
+        <v>-36209.630000000005</v>
       </c>
       <c r="E36" s="5">
-        <f>IFERROR(D36/B36,0)</f>
-        <v>8.1681998646514792E-2</v>
+        <f t="shared" si="6"/>
+        <v>-8.1681998646514792E-2</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">IF(E36=0," ",SUMPRODUCT((E36&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>495200</v>
@@ -4325,16 +4325,16 @@
         <v>467907.84000000003</v>
       </c>
       <c r="I36">
-        <f>G36-H36</f>
-        <v>27292.159999999974</v>
+        <f t="shared" si="4"/>
+        <v>-27292.159999999974</v>
       </c>
       <c r="J36" s="5">
-        <f>IFERROR(I36/G36,0)</f>
-        <v>5.5113408723747932E-2</v>
+        <f t="shared" si="7"/>
+        <v>-5.5113408723747932E-2</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" ref="K36">IF(J36=0," ",SUMPRODUCT((J36&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L36">
         <v>487500</v>
@@ -4343,16 +4343,16 @@
         <v>478318.92</v>
       </c>
       <c r="N36">
-        <f>L36-M36</f>
-        <v>9181.0800000000163</v>
+        <f t="shared" si="5"/>
+        <v>-9181.0800000000163</v>
       </c>
       <c r="O36" s="5">
-        <f>IFERROR(N36/L36,0)</f>
-        <v>1.883298461538465E-2</v>
+        <f t="shared" si="8"/>
+        <v>-1.883298461538465E-2</v>
       </c>
       <c r="P36" cm="1">
         <f t="array" ref="P36">IF(O36=0," ",SUMPRODUCT((O36&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -4366,16 +4366,16 @@
         <v>4801960.08</v>
       </c>
       <c r="D37">
-        <f>B37-C37</f>
-        <v>447839.91999999993</v>
+        <f t="shared" si="3"/>
+        <v>-447839.91999999993</v>
       </c>
       <c r="E37" s="5">
-        <f>IFERROR(D37/B37,0)</f>
-        <v>8.5306091660634673E-2</v>
+        <f t="shared" si="6"/>
+        <v>-8.5306091660634673E-2</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">IF(E37=0," ",SUMPRODUCT((E37&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>5442200</v>
@@ -4384,16 +4384,16 @@
         <v>5122329.02999999</v>
       </c>
       <c r="I37">
-        <f>G37-H37</f>
-        <v>319870.97000000998</v>
+        <f t="shared" si="4"/>
+        <v>-319870.97000000998</v>
       </c>
       <c r="J37" s="5">
-        <f>IFERROR(I37/G37,0)</f>
-        <v>5.8776040939327839E-2</v>
+        <f t="shared" si="7"/>
+        <v>-5.8776040939327839E-2</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" ref="K37">IF(J37=0," ",SUMPRODUCT((J37&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L37">
         <v>5430700</v>
@@ -4402,16 +4402,16 @@
         <v>5117235.21</v>
       </c>
       <c r="N37">
-        <f>L37-M37</f>
-        <v>313464.79000000004</v>
+        <f t="shared" si="5"/>
+        <v>-313464.79000000004</v>
       </c>
       <c r="O37" s="5">
-        <f>IFERROR(N37/L37,0)</f>
-        <v>5.7720881286022069E-2</v>
+        <f t="shared" si="8"/>
+        <v>-5.7720881286022069E-2</v>
       </c>
       <c r="P37" cm="1">
         <f t="array" ref="P37">IF(O37=0," ",SUMPRODUCT((O37&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -4425,16 +4425,16 @@
         <v>2615303.8999999901</v>
       </c>
       <c r="D38">
-        <f>B38-C38</f>
-        <v>149396.10000000987</v>
+        <f t="shared" si="3"/>
+        <v>-149396.10000000987</v>
       </c>
       <c r="E38" s="5">
-        <f>IFERROR(D38/B38,0)</f>
-        <v>5.4037002206391245E-2</v>
+        <f t="shared" si="6"/>
+        <v>-5.4037002206391245E-2</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">IF(E38=0," ",SUMPRODUCT((E38&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>2861000</v>
@@ -4443,16 +4443,16 @@
         <v>2671745.94</v>
       </c>
       <c r="I38">
-        <f>G38-H38</f>
-        <v>189254.06000000006</v>
+        <f t="shared" si="4"/>
+        <v>-189254.06000000006</v>
       </c>
       <c r="J38" s="5">
-        <f>IFERROR(I38/G38,0)</f>
-        <v>6.6149619014330668E-2</v>
+        <f t="shared" si="7"/>
+        <v>-6.6149619014330668E-2</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" ref="K38">IF(J38=0," ",SUMPRODUCT((J38&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="L38">
         <v>2910600</v>
@@ -4461,16 +4461,16 @@
         <v>2535637.09</v>
       </c>
       <c r="N38">
-        <f>L38-M38</f>
-        <v>374962.91000000015</v>
+        <f t="shared" si="5"/>
+        <v>-374962.91000000015</v>
       </c>
       <c r="O38" s="5">
-        <f>IFERROR(N38/L38,0)</f>
-        <v>0.12882667147667154</v>
+        <f t="shared" si="8"/>
+        <v>-0.12882667147667154</v>
       </c>
       <c r="P38" cm="1">
         <f t="array" ref="P38">IF(O38=0," ",SUMPRODUCT((O38&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -4484,16 +4484,16 @@
         <v>321214.59000000003</v>
       </c>
       <c r="D39">
-        <f>B39-C39</f>
-        <v>7585.4099999999744</v>
+        <f t="shared" si="3"/>
+        <v>-7585.4099999999744</v>
       </c>
       <c r="E39" s="5">
-        <f>IFERROR(D39/B39,0)</f>
-        <v>2.3069981751824741E-2</v>
+        <f t="shared" si="6"/>
+        <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">IF(E39=0," ",SUMPRODUCT((E39&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G39">
         <v>334800</v>
@@ -4502,16 +4502,16 @@
         <v>312433.70999999897</v>
       </c>
       <c r="I39">
-        <f>G39-H39</f>
-        <v>22366.290000001027</v>
+        <f t="shared" si="4"/>
+        <v>-22366.290000001027</v>
       </c>
       <c r="J39" s="5">
-        <f>IFERROR(I39/G39,0)</f>
-        <v>6.6804928315415249E-2</v>
+        <f t="shared" si="7"/>
+        <v>-6.6804928315415249E-2</v>
       </c>
       <c r="K39" cm="1">
         <f t="array" ref="K39">IF(J39=0," ",SUMPRODUCT((J39&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="L39">
         <v>322700</v>
@@ -4520,16 +4520,16 @@
         <v>322263.03999999998</v>
       </c>
       <c r="N39">
-        <f>L39-M39</f>
-        <v>436.96000000002095</v>
+        <f t="shared" si="5"/>
+        <v>-436.96000000002095</v>
       </c>
       <c r="O39" s="5">
-        <f>IFERROR(N39/L39,0)</f>
-        <v>1.3540749922529313E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.3540749922529313E-3</v>
       </c>
       <c r="P39" cm="1">
         <f t="array" ref="P39">IF(O39=0," ",SUMPRODUCT((O39&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -4543,16 +4543,16 @@
         <v>90499.43</v>
       </c>
       <c r="D40">
-        <f>B40-C40</f>
-        <v>1700.570000000007</v>
+        <f t="shared" si="3"/>
+        <v>-1700.570000000007</v>
       </c>
       <c r="E40" s="5">
-        <f>IFERROR(D40/B40,0)</f>
-        <v>1.8444360086767971E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.8444360086767971E-2</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">IF(E40=0," ",SUMPRODUCT((E40&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G40">
         <v>102600</v>
@@ -4561,16 +4561,16 @@
         <v>95466.880000000005</v>
       </c>
       <c r="I40">
-        <f>G40-H40</f>
-        <v>7133.1199999999953</v>
+        <f t="shared" si="4"/>
+        <v>-7133.1199999999953</v>
       </c>
       <c r="J40" s="5">
-        <f>IFERROR(I40/G40,0)</f>
-        <v>6.9523586744639335E-2</v>
+        <f t="shared" si="7"/>
+        <v>-6.9523586744639335E-2</v>
       </c>
       <c r="K40" cm="1">
         <f t="array" ref="K40">IF(J40=0," ",SUMPRODUCT((J40&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4579,11 +4579,11 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f>L40-M40</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O40" s="5">
-        <f>IFERROR(N40/L40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P40" t="str" cm="1">
@@ -4602,16 +4602,16 @@
         <v>8460963.1999999899</v>
       </c>
       <c r="D41">
-        <f>B41-C41</f>
-        <v>376336.80000001006</v>
+        <f t="shared" si="3"/>
+        <v>-376336.80000001006</v>
       </c>
       <c r="E41" s="5">
-        <f>IFERROR(D41/B41,0)</f>
-        <v>4.258504294298146E-2</v>
+        <f t="shared" si="6"/>
+        <v>-4.258504294298146E-2</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" ref="F41">IF(E41=0," ",SUMPRODUCT((E41&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>9713300</v>
@@ -4620,16 +4620,16 @@
         <v>8991707.2399999909</v>
       </c>
       <c r="I41">
-        <f>G41-H41</f>
-        <v>721592.76000000909</v>
+        <f t="shared" si="4"/>
+        <v>-721592.76000000909</v>
       </c>
       <c r="J41" s="5">
-        <f>IFERROR(I41/G41,0)</f>
-        <v>7.4289145810384635E-2</v>
+        <f t="shared" si="7"/>
+        <v>-7.4289145810384635E-2</v>
       </c>
       <c r="K41" cm="1">
         <f t="array" ref="K41">IF(J41=0," ",SUMPRODUCT((J41&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="L41">
         <v>9343000</v>
@@ -4638,16 +4638,16 @@
         <v>8766655.9100000001</v>
       </c>
       <c r="N41">
-        <f>L41-M41</f>
-        <v>576344.08999999985</v>
+        <f t="shared" si="5"/>
+        <v>-576344.08999999985</v>
       </c>
       <c r="O41" s="5">
-        <f>IFERROR(N41/L41,0)</f>
-        <v>6.1687262121374278E-2</v>
+        <f t="shared" si="8"/>
+        <v>-6.1687262121374278E-2</v>
       </c>
       <c r="P41" cm="1">
         <f t="array" ref="P41">IF(O41=0," ",SUMPRODUCT((O41&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -4661,16 +4661,16 @@
         <v>22408587.5499999</v>
       </c>
       <c r="D42">
-        <f>B42-C42</f>
-        <v>1923512.4500000998</v>
+        <f t="shared" si="3"/>
+        <v>-1923512.4500000998</v>
       </c>
       <c r="E42" s="5">
-        <f>IFERROR(D42/B42,0)</f>
-        <v>7.9052463618023094E-2</v>
+        <f t="shared" si="6"/>
+        <v>-7.9052463618023094E-2</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" ref="F42">IF(E42=0," ",SUMPRODUCT((E42&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>24497400</v>
@@ -4679,16 +4679,16 @@
         <v>22655993.629999999</v>
       </c>
       <c r="I42">
-        <f>G42-H42</f>
-        <v>1841406.370000001</v>
+        <f t="shared" si="4"/>
+        <v>-1841406.370000001</v>
       </c>
       <c r="J42" s="5">
-        <f>IFERROR(I42/G42,0)</f>
-        <v>7.5167420624229556E-2</v>
+        <f t="shared" si="7"/>
+        <v>-7.5167420624229556E-2</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">IF(J42=0," ",SUMPRODUCT((J42&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L42">
         <v>24323000</v>
@@ -4697,16 +4697,16 @@
         <v>23434073.089999899</v>
       </c>
       <c r="N42">
-        <f>L42-M42</f>
-        <v>888926.91000010073</v>
+        <f t="shared" si="5"/>
+        <v>-888926.91000010073</v>
       </c>
       <c r="O42" s="5">
-        <f>IFERROR(N42/L42,0)</f>
-        <v>3.6546762734864152E-2</v>
+        <f t="shared" si="8"/>
+        <v>-3.6546762734864152E-2</v>
       </c>
       <c r="P42" cm="1">
         <f t="array" ref="P42">IF(O42=0," ",SUMPRODUCT((O42&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -4720,16 +4720,16 @@
         <v>341243679.13</v>
       </c>
       <c r="D43">
-        <f>B43-C43</f>
-        <v>15396420.870000005</v>
+        <f t="shared" si="3"/>
+        <v>-15396420.870000005</v>
       </c>
       <c r="E43" s="5">
-        <f>IFERROR(D43/B43,0)</f>
-        <v>4.3170750765267295E-2</v>
+        <f t="shared" si="6"/>
+        <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" ref="F43">IF(E43=0," ",SUMPRODUCT((E43&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>382685200</v>
@@ -4738,16 +4738,16 @@
         <v>346340810.81999999</v>
       </c>
       <c r="I43">
-        <f>G43-H43</f>
-        <v>36344389.180000007</v>
+        <f t="shared" si="4"/>
+        <v>-36344389.180000007</v>
       </c>
       <c r="J43" s="5">
-        <f>IFERROR(I43/G43,0)</f>
-        <v>9.4972027086493035E-2</v>
+        <f t="shared" si="7"/>
+        <v>-9.4972027086493035E-2</v>
       </c>
       <c r="K43" cm="1">
         <f t="array" ref="K43">IF(J43=0," ",SUMPRODUCT((J43&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L43">
         <v>376548600</v>
@@ -4756,16 +4756,16 @@
         <v>355279492.22999901</v>
       </c>
       <c r="N43">
-        <f>L43-M43</f>
-        <v>21269107.770000994</v>
+        <f t="shared" si="5"/>
+        <v>-21269107.770000994</v>
       </c>
       <c r="O43" s="5">
-        <f>IFERROR(N43/L43,0)</f>
-        <v>5.6484362894991494E-2</v>
+        <f t="shared" si="8"/>
+        <v>-5.6484362894991494E-2</v>
       </c>
       <c r="P43" cm="1">
         <f t="array" ref="P43">IF(O43=0," ",SUMPRODUCT((O43&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -4779,16 +4779,16 @@
         <v>2254684.7999999998</v>
       </c>
       <c r="D44">
-        <f>B44-C44</f>
-        <v>196315.20000000019</v>
+        <f t="shared" si="3"/>
+        <v>-196315.20000000019</v>
       </c>
       <c r="E44" s="5">
-        <f>IFERROR(D44/B44,0)</f>
-        <v>8.009596083231342E-2</v>
+        <f t="shared" si="6"/>
+        <v>-8.009596083231342E-2</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" ref="F44">IF(E44=0," ",SUMPRODUCT((E44&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>2440700</v>
@@ -4797,16 +4797,16 @@
         <v>2204672.88</v>
       </c>
       <c r="I44">
-        <f>G44-H44</f>
-        <v>236027.12000000011</v>
+        <f t="shared" si="4"/>
+        <v>-236027.12000000011</v>
       </c>
       <c r="J44" s="5">
-        <f>IFERROR(I44/G44,0)</f>
-        <v>9.6704683082722218E-2</v>
+        <f t="shared" si="7"/>
+        <v>-9.6704683082722218E-2</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">IF(J44=0," ",SUMPRODUCT((J44&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L44">
         <v>2321600</v>
@@ -4815,16 +4815,16 @@
         <v>2056835.26</v>
       </c>
       <c r="N44">
-        <f>L44-M44</f>
-        <v>264764.74</v>
+        <f t="shared" si="5"/>
+        <v>-264764.74</v>
       </c>
       <c r="O44" s="5">
-        <f>IFERROR(N44/L44,0)</f>
-        <v>0.11404408166781529</v>
+        <f t="shared" si="8"/>
+        <v>-0.11404408166781529</v>
       </c>
       <c r="P44" cm="1">
         <f t="array" ref="P44">IF(O44=0," ",SUMPRODUCT((O44&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -4838,16 +4838,16 @@
         <v>2946071.21</v>
       </c>
       <c r="D45">
-        <f>B45-C45</f>
-        <v>382928.79000000004</v>
+        <f t="shared" si="3"/>
+        <v>-382928.79000000004</v>
       </c>
       <c r="E45" s="5">
-        <f>IFERROR(D45/B45,0)</f>
-        <v>0.11502817362571344</v>
+        <f t="shared" si="6"/>
+        <v>-0.11502817362571344</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" ref="F45">IF(E45=0," ",SUMPRODUCT((E45&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="G45">
         <v>3390900</v>
@@ -4856,16 +4856,16 @@
         <v>3051483.41</v>
       </c>
       <c r="I45">
-        <f>G45-H45</f>
-        <v>339416.58999999985</v>
+        <f t="shared" si="4"/>
+        <v>-339416.58999999985</v>
       </c>
       <c r="J45" s="5">
-        <f>IFERROR(I45/G45,0)</f>
-        <v>0.10009631366303927</v>
+        <f t="shared" si="7"/>
+        <v>-0.10009631366303927</v>
       </c>
       <c r="K45" cm="1">
         <f t="array" ref="K45">IF(J45=0," ",SUMPRODUCT((J45&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="L45">
         <v>3345200</v>
@@ -4874,16 +4874,16 @@
         <v>2946440.08</v>
       </c>
       <c r="N45">
-        <f>L45-M45</f>
-        <v>398759.91999999993</v>
+        <f t="shared" si="5"/>
+        <v>-398759.91999999993</v>
       </c>
       <c r="O45" s="5">
-        <f>IFERROR(N45/L45,0)</f>
-        <v>0.11920361114432618</v>
+        <f t="shared" si="8"/>
+        <v>-0.11920361114432618</v>
       </c>
       <c r="P45" cm="1">
         <f t="array" ref="P45">IF(O45=0," ",SUMPRODUCT((O45&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -4897,16 +4897,16 @@
         <v>8952825.2799999993</v>
       </c>
       <c r="D46">
-        <f>B46-C46</f>
-        <v>396574.72000000067</v>
+        <f t="shared" si="3"/>
+        <v>-396574.72000000067</v>
       </c>
       <c r="E46" s="5">
-        <f>IFERROR(D46/B46,0)</f>
-        <v>4.2417130511048909E-2</v>
+        <f t="shared" si="6"/>
+        <v>-4.2417130511048909E-2</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" ref="F46">IF(E46=0," ",SUMPRODUCT((E46&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>11073700</v>
@@ -4915,16 +4915,16 @@
         <v>9929059.5199999996</v>
       </c>
       <c r="I46">
-        <f>G46-H46</f>
-        <v>1144640.4800000004</v>
+        <f t="shared" si="4"/>
+        <v>-1144640.4800000004</v>
       </c>
       <c r="J46" s="5">
-        <f>IFERROR(I46/G46,0)</f>
-        <v>0.10336567542917005</v>
+        <f t="shared" si="7"/>
+        <v>-0.10336567542917005</v>
       </c>
       <c r="K46" cm="1">
         <f t="array" ref="K46">IF(J46=0," ",SUMPRODUCT((J46&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="L46">
         <v>10790500</v>
@@ -4933,16 +4933,16 @@
         <v>9993599.52999999</v>
       </c>
       <c r="N46">
-        <f>L46-M46</f>
-        <v>796900.47000000998</v>
+        <f t="shared" si="5"/>
+        <v>-796900.47000000998</v>
       </c>
       <c r="O46" s="5">
-        <f>IFERROR(N46/L46,0)</f>
-        <v>7.3852043000788653E-2</v>
+        <f t="shared" si="8"/>
+        <v>-7.3852043000788653E-2</v>
       </c>
       <c r="P46" cm="1">
         <f t="array" ref="P46">IF(O46=0," ",SUMPRODUCT((O46&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -4956,16 +4956,16 @@
         <v>4066595.33</v>
       </c>
       <c r="D47">
-        <f>B47-C47</f>
-        <v>214304.66999999993</v>
+        <f t="shared" si="3"/>
+        <v>-214304.66999999993</v>
       </c>
       <c r="E47" s="5">
-        <f>IFERROR(D47/B47,0)</f>
-        <v>5.0060657805601608E-2</v>
+        <f t="shared" si="6"/>
+        <v>-5.0060657805601608E-2</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" ref="F47">IF(E47=0," ",SUMPRODUCT((E47&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>4700400</v>
@@ -4974,16 +4974,16 @@
         <v>4205555.5999999996</v>
       </c>
       <c r="I47">
-        <f>G47-H47</f>
-        <v>494844.40000000037</v>
+        <f t="shared" si="4"/>
+        <v>-494844.40000000037</v>
       </c>
       <c r="J47" s="5">
-        <f>IFERROR(I47/G47,0)</f>
-        <v>0.10527708280146378</v>
+        <f t="shared" si="7"/>
+        <v>-0.10527708280146378</v>
       </c>
       <c r="K47" cm="1">
         <f t="array" ref="K47">IF(J47=0," ",SUMPRODUCT((J47&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="L47">
         <v>4677800</v>
@@ -4992,16 +4992,16 @@
         <v>4371713.1399999997</v>
       </c>
       <c r="N47">
-        <f>L47-M47</f>
-        <v>306086.86000000034</v>
+        <f t="shared" si="5"/>
+        <v>-306086.86000000034</v>
       </c>
       <c r="O47" s="5">
-        <f>IFERROR(N47/L47,0)</f>
-        <v>6.5433934755654441E-2</v>
+        <f t="shared" si="8"/>
+        <v>-6.5433934755654441E-2</v>
       </c>
       <c r="P47" cm="1">
         <f t="array" ref="P47">IF(O47=0," ",SUMPRODUCT((O47&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -5015,16 +5015,16 @@
         <v>6947552.6699999999</v>
       </c>
       <c r="D48">
-        <f>B48-C48</f>
-        <v>723147.33000000007</v>
+        <f t="shared" si="3"/>
+        <v>-723147.33000000007</v>
       </c>
       <c r="E48" s="5">
-        <f>IFERROR(D48/B48,0)</f>
-        <v>9.4273968477453174E-2</v>
+        <f t="shared" si="6"/>
+        <v>-9.4273968477453174E-2</v>
       </c>
       <c r="F48" cm="1">
         <f t="array" ref="F48">IF(E48=0," ",SUMPRODUCT((E48&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>7968300</v>
@@ -5033,16 +5033,16 @@
         <v>7020609.3200000003</v>
       </c>
       <c r="I48">
-        <f>G48-H48</f>
-        <v>947690.6799999997</v>
+        <f t="shared" si="4"/>
+        <v>-947690.6799999997</v>
       </c>
       <c r="J48" s="5">
-        <f>IFERROR(I48/G48,0)</f>
-        <v>0.118932605449092</v>
+        <f t="shared" si="7"/>
+        <v>-0.118932605449092</v>
       </c>
       <c r="K48" cm="1">
         <f t="array" ref="K48">IF(J48=0," ",SUMPRODUCT((J48&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="L48">
         <v>7759600</v>
@@ -5051,16 +5051,16 @@
         <v>7497322.9100000001</v>
       </c>
       <c r="N48">
-        <f>L48-M48</f>
-        <v>262277.08999999985</v>
+        <f t="shared" si="5"/>
+        <v>-262277.08999999985</v>
       </c>
       <c r="O48" s="5">
-        <f>IFERROR(N48/L48,0)</f>
-        <v>3.3800336357544182E-2</v>
+        <f t="shared" si="8"/>
+        <v>-3.3800336357544182E-2</v>
       </c>
       <c r="P48" cm="1">
         <f t="array" ref="P48">IF(O48=0," ",SUMPRODUCT((O48&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -5074,16 +5074,16 @@
         <v>1315623.30999999</v>
       </c>
       <c r="D49">
-        <f>B49-C49</f>
-        <v>236476.69000000996</v>
+        <f t="shared" si="3"/>
+        <v>-236476.69000000996</v>
       </c>
       <c r="E49" s="5">
-        <f>IFERROR(D49/B49,0)</f>
-        <v>0.15235918433091292</v>
+        <f t="shared" si="6"/>
+        <v>-0.15235918433091292</v>
       </c>
       <c r="F49" cm="1">
         <f t="array" ref="F49">IF(E49=0," ",SUMPRODUCT((E49&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G49">
         <v>1590700</v>
@@ -5092,16 +5092,16 @@
         <v>1383905.98999999</v>
       </c>
       <c r="I49">
-        <f>G49-H49</f>
-        <v>206794.01000001002</v>
+        <f t="shared" si="4"/>
+        <v>-206794.01000001002</v>
       </c>
       <c r="J49" s="5">
-        <f>IFERROR(I49/G49,0)</f>
-        <v>0.13000189224870184</v>
+        <f t="shared" si="7"/>
+        <v>-0.13000189224870184</v>
       </c>
       <c r="K49" cm="1">
         <f t="array" ref="K49">IF(J49=0," ",SUMPRODUCT((J49&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="L49">
         <v>1579300</v>
@@ -5110,16 +5110,16 @@
         <v>1337735.3199999901</v>
       </c>
       <c r="N49">
-        <f>L49-M49</f>
-        <v>241564.68000000995</v>
+        <f t="shared" si="5"/>
+        <v>-241564.68000000995</v>
       </c>
       <c r="O49" s="5">
-        <f>IFERROR(N49/L49,0)</f>
-        <v>0.15295680364719175</v>
+        <f t="shared" si="8"/>
+        <v>-0.15295680364719175</v>
       </c>
       <c r="P49" cm="1">
         <f t="array" ref="P49">IF(O49=0," ",SUMPRODUCT((O49&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -5133,16 +5133,16 @@
         <v>813108.87</v>
       </c>
       <c r="D50">
-        <f>B50-C50</f>
-        <v>70791.13</v>
+        <f t="shared" si="3"/>
+        <v>-70791.13</v>
       </c>
       <c r="E50" s="5">
-        <f>IFERROR(D50/B50,0)</f>
-        <v>8.008952370177623E-2</v>
+        <f t="shared" si="6"/>
+        <v>-8.008952370177623E-2</v>
       </c>
       <c r="F50" cm="1">
         <f t="array" ref="F50">IF(E50=0," ",SUMPRODUCT((E50&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <v>1294400</v>
@@ -5151,16 +5151,16 @@
         <v>1114242.27999999</v>
       </c>
       <c r="I50">
-        <f>G50-H50</f>
-        <v>180157.72000000998</v>
+        <f t="shared" si="4"/>
+        <v>-180157.72000000998</v>
       </c>
       <c r="J50" s="5">
-        <f>IFERROR(I50/G50,0)</f>
-        <v>0.13918241656366656</v>
+        <f t="shared" si="7"/>
+        <v>-0.13918241656366656</v>
       </c>
       <c r="K50" cm="1">
         <f t="array" ref="K50">IF(J50=0," ",SUMPRODUCT((J50&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="L50">
         <v>1759500</v>
@@ -5169,16 +5169,16 @@
         <v>1680463.8699999901</v>
       </c>
       <c r="N50">
-        <f>L50-M50</f>
-        <v>79036.1300000099</v>
+        <f t="shared" si="5"/>
+        <v>-79036.1300000099</v>
       </c>
       <c r="O50" s="5">
-        <f>IFERROR(N50/L50,0)</f>
-        <v>4.4919653310605226E-2</v>
+        <f t="shared" si="8"/>
+        <v>-4.4919653310605226E-2</v>
       </c>
       <c r="P50" cm="1">
         <f t="array" ref="P50">IF(O50=0," ",SUMPRODUCT((O50&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -5192,16 +5192,16 @@
         <v>1250442.02</v>
       </c>
       <c r="D51">
-        <f>B51-C51</f>
-        <v>132457.97999999998</v>
+        <f t="shared" si="3"/>
+        <v>-132457.97999999998</v>
       </c>
       <c r="E51" s="5">
-        <f>IFERROR(D51/B51,0)</f>
-        <v>9.5782760864849215E-2</v>
+        <f t="shared" si="6"/>
+        <v>-9.5782760864849215E-2</v>
       </c>
       <c r="F51" cm="1">
         <f t="array" ref="F51">IF(E51=0," ",SUMPRODUCT((E51&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G51">
         <v>1545700</v>
@@ -5210,16 +5210,16 @@
         <v>1281335.23</v>
       </c>
       <c r="I51">
-        <f>G51-H51</f>
-        <v>264364.77</v>
+        <f t="shared" si="4"/>
+        <v>-264364.77</v>
       </c>
       <c r="J51" s="5">
-        <f>IFERROR(I51/G51,0)</f>
-        <v>0.17103239309050916</v>
+        <f t="shared" si="7"/>
+        <v>-0.17103239309050916</v>
       </c>
       <c r="K51" cm="1">
         <f t="array" ref="K51">IF(J51=0," ",SUMPRODUCT((J51&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="L51">
         <v>1525900</v>
@@ -5228,16 +5228,16 @@
         <v>1393285.06</v>
       </c>
       <c r="N51">
-        <f>L51-M51</f>
-        <v>132614.93999999994</v>
+        <f t="shared" si="5"/>
+        <v>-132614.93999999994</v>
       </c>
       <c r="O51" s="5">
-        <f>IFERROR(N51/L51,0)</f>
-        <v>8.6909325643882263E-2</v>
+        <f t="shared" si="8"/>
+        <v>-8.6909325643882263E-2</v>
       </c>
       <c r="P51" cm="1">
         <f t="array" ref="P51">IF(O51=0," ",SUMPRODUCT((O51&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -5251,16 +5251,16 @@
         <v>735423.27999999898</v>
       </c>
       <c r="D52">
-        <f>B52-C52</f>
-        <v>62776.72000000102</v>
+        <f t="shared" si="3"/>
+        <v>-62776.72000000102</v>
       </c>
       <c r="E52" s="5">
-        <f>IFERROR(D52/B52,0)</f>
-        <v>7.8647857679780775E-2</v>
+        <f t="shared" si="6"/>
+        <v>-7.8647857679780775E-2</v>
       </c>
       <c r="F52" cm="1">
         <f t="array" ref="F52">IF(E52=0," ",SUMPRODUCT((E52&lt;=$E$2:$E$52)/COUNTIF($E$2:$E$52,$E$2:$E$52)))</f>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>898700</v>
@@ -5269,16 +5269,16 @@
         <v>740966.94999999902</v>
       </c>
       <c r="I52">
-        <f>G52-H52</f>
-        <v>157733.05000000098</v>
+        <f t="shared" si="4"/>
+        <v>-157733.05000000098</v>
       </c>
       <c r="J52" s="5">
-        <f>IFERROR(I52/G52,0)</f>
-        <v>0.17551246244575608</v>
+        <f t="shared" si="7"/>
+        <v>-0.17551246244575608</v>
       </c>
       <c r="K52" cm="1">
         <f t="array" ref="K52">IF(J52=0," ",SUMPRODUCT((J52&lt;=$J$2:$J$52)/COUNTIF($J$2:$J$52,$J$2:$J$52)))</f>
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="L52">
         <v>878300</v>
@@ -5287,16 +5287,16 @@
         <v>777215.28999999899</v>
       </c>
       <c r="N52">
-        <f>L52-M52</f>
-        <v>101084.71000000101</v>
+        <f t="shared" si="5"/>
+        <v>-101084.71000000101</v>
       </c>
       <c r="O52" s="5">
-        <f>IFERROR(N52/L52,0)</f>
-        <v>0.11509132414892521</v>
+        <f t="shared" si="8"/>
+        <v>-0.11509132414892521</v>
       </c>
       <c r="P52" cm="1">
         <f t="array" ref="P52">IF(O52=0," ",SUMPRODUCT((O52&lt;=$O$2:$O$52)/COUNTIF($O$2:$O$52,$O$2:$O$52)))</f>
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -5324,15 +5324,15 @@
       </c>
       <c r="B56">
         <f>VLOOKUP($A56,$A$1:$P$52,4,FALSE)</f>
-        <v>36209.630000000005</v>
+        <v>-36209.630000000005</v>
       </c>
       <c r="C56">
         <f>VLOOKUP($A56,$A$1:$P$52,9,FALSE)</f>
-        <v>27292.159999999974</v>
+        <v>-27292.159999999974</v>
       </c>
       <c r="D56">
         <f>VLOOKUP($A56,$A$1:$P$52,14,FALSE)</f>
-        <v>9181.0800000000163</v>
+        <v>-9181.0800000000163</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -5340,16 +5340,16 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="0">VLOOKUP($A57,$A$1:$P$52,4,FALSE)</f>
+        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$1:$P$52,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C61" si="1">VLOOKUP($A57,$A$1:$P$52,9,FALSE)</f>
+        <f t="shared" ref="C57:C61" si="10">VLOOKUP($A57,$A$1:$P$52,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D61" si="2">VLOOKUP($A57,$A$1:$P$52,14,FALSE)</f>
-        <v>311228.08999999997</v>
+        <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,$A$1:$P$52,14,FALSE)</f>
+        <v>-311228.08999999997</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -5357,16 +5357,16 @@
         <v>32</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
-        <v>149396.10000000987</v>
+        <f t="shared" si="9"/>
+        <v>-149396.10000000987</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
-        <v>189254.06000000006</v>
+        <f t="shared" si="10"/>
+        <v>-189254.06000000006</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
-        <v>374962.91000000015</v>
+        <f t="shared" si="11"/>
+        <v>-374962.91000000015</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -5374,16 +5374,16 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
-        <v>12230.810000000056</v>
+        <f t="shared" si="9"/>
+        <v>-12230.810000000056</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
-        <v>45485.580000000075</v>
+        <f t="shared" si="10"/>
+        <v>-45485.580000000075</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
-        <v>72.879999999888241</v>
+        <f t="shared" si="11"/>
+        <v>-72.879999999888241</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -5391,16 +5391,16 @@
         <v>39</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>4950.4699999999721</v>
+        <f t="shared" si="9"/>
+        <v>-4950.4699999999721</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
-        <v>8005.7900000010268</v>
+        <f t="shared" si="10"/>
+        <v>-8005.7900000010268</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
-        <v>1724.9000000000233</v>
+        <f t="shared" si="11"/>
+        <v>-1724.9000000000233</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -5408,16 +5408,16 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
-        <v>184239.79000001028</v>
+        <f t="shared" si="9"/>
+        <v>-184239.79000001028</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
-        <v>133456.33000001032</v>
+        <f t="shared" si="10"/>
+        <v>-133456.33000001032</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
-        <v>82077.349999999627</v>
+        <f t="shared" si="11"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -5444,16 +5444,16 @@
         <v>24</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:B70" si="3">_xlfn.XLOOKUP($A65,$A:$A,D:D)</f>
-        <v>36209.630000000005</v>
+        <f t="shared" ref="B65:B70" si="12">_xlfn.XLOOKUP($A65,$A:$A,D:D)</f>
+        <v>-36209.630000000005</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C70" si="4">_xlfn.XLOOKUP($A65,$A:$A,I:I)</f>
-        <v>27292.159999999974</v>
+        <f t="shared" ref="C65:C70" si="13">_xlfn.XLOOKUP($A65,$A:$A,I:I)</f>
+        <v>-27292.159999999974</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:D70" si="5">_xlfn.XLOOKUP($A65,$A:$A,N:N)</f>
-        <v>9181.0800000000163</v>
+        <f t="shared" ref="D65:D70" si="14">_xlfn.XLOOKUP($A65,$A:$A,N:N)</f>
+        <v>-9181.0800000000163</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -5461,16 +5461,16 @@
         <v>25</v>
       </c>
       <c r="B66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="5"/>
-        <v>311228.08999999997</v>
+        <f t="shared" si="14"/>
+        <v>-311228.08999999997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -5478,16 +5478,16 @@
         <v>32</v>
       </c>
       <c r="B67">
-        <f t="shared" si="3"/>
-        <v>149396.10000000987</v>
+        <f t="shared" si="12"/>
+        <v>-149396.10000000987</v>
       </c>
       <c r="C67">
-        <f t="shared" si="4"/>
-        <v>189254.06000000006</v>
+        <f t="shared" si="13"/>
+        <v>-189254.06000000006</v>
       </c>
       <c r="D67">
-        <f t="shared" si="5"/>
-        <v>374962.91000000015</v>
+        <f t="shared" si="14"/>
+        <v>-374962.91000000015</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -5495,16 +5495,16 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
-        <v>12230.810000000056</v>
+        <f t="shared" si="12"/>
+        <v>-12230.810000000056</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
-        <v>45485.580000000075</v>
+        <f t="shared" si="13"/>
+        <v>-45485.580000000075</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
-        <v>72.879999999888241</v>
+        <f t="shared" si="14"/>
+        <v>-72.879999999888241</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -5512,16 +5512,16 @@
         <v>39</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
-        <v>4950.4699999999721</v>
+        <f t="shared" si="12"/>
+        <v>-4950.4699999999721</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
-        <v>8005.7900000010268</v>
+        <f t="shared" si="13"/>
+        <v>-8005.7900000010268</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
-        <v>1724.9000000000233</v>
+        <f t="shared" si="14"/>
+        <v>-1724.9000000000233</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -5529,16 +5529,16 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
-        <v>184239.79000001028</v>
+        <f t="shared" si="12"/>
+        <v>-184239.79000001028</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
-        <v>133456.33000001032</v>
+        <f t="shared" si="13"/>
+        <v>-133456.33000001032</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
-        <v>82077.349999999627</v>
+        <f t="shared" si="14"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -5565,16 +5565,16 @@
         <v>24</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:D79" si="6">INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$B$1:$P$1,0))</f>
-        <v>36209.630000000005</v>
+        <f t="shared" ref="B74:D79" si="15">INDEX($B$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$B$1:$P$1,0))</f>
+        <v>-36209.630000000005</v>
       </c>
       <c r="C74">
-        <f t="shared" si="6"/>
-        <v>27292.159999999974</v>
+        <f t="shared" si="15"/>
+        <v>-27292.159999999974</v>
       </c>
       <c r="D74">
-        <f t="shared" si="6"/>
-        <v>9181.0800000000163</v>
+        <f t="shared" si="15"/>
+        <v>-9181.0800000000163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -5582,16 +5582,16 @@
         <v>25</v>
       </c>
       <c r="B75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" si="6"/>
-        <v>311228.08999999997</v>
+        <f t="shared" si="15"/>
+        <v>-311228.08999999997</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -5599,16 +5599,16 @@
         <v>32</v>
       </c>
       <c r="B76">
-        <f t="shared" si="6"/>
-        <v>149396.10000000987</v>
+        <f t="shared" si="15"/>
+        <v>-149396.10000000987</v>
       </c>
       <c r="C76">
-        <f t="shared" si="6"/>
-        <v>189254.06000000006</v>
+        <f t="shared" si="15"/>
+        <v>-189254.06000000006</v>
       </c>
       <c r="D76">
-        <f t="shared" si="6"/>
-        <v>374962.91000000015</v>
+        <f t="shared" si="15"/>
+        <v>-374962.91000000015</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,16 +5616,16 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <f t="shared" si="6"/>
-        <v>12230.810000000056</v>
+        <f t="shared" si="15"/>
+        <v>-12230.810000000056</v>
       </c>
       <c r="C77">
-        <f t="shared" si="6"/>
-        <v>45485.580000000075</v>
+        <f t="shared" si="15"/>
+        <v>-45485.580000000075</v>
       </c>
       <c r="D77">
-        <f t="shared" si="6"/>
-        <v>72.879999999888241</v>
+        <f t="shared" si="15"/>
+        <v>-72.879999999888241</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -5633,16 +5633,16 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <f t="shared" si="6"/>
-        <v>4950.4699999999721</v>
+        <f t="shared" si="15"/>
+        <v>-4950.4699999999721</v>
       </c>
       <c r="C78">
-        <f t="shared" si="6"/>
-        <v>8005.7900000010268</v>
+        <f t="shared" si="15"/>
+        <v>-8005.7900000010268</v>
       </c>
       <c r="D78">
-        <f t="shared" si="6"/>
-        <v>1724.9000000000233</v>
+        <f t="shared" si="15"/>
+        <v>-1724.9000000000233</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -5650,16 +5650,16 @@
         <v>55</v>
       </c>
       <c r="B79">
-        <f t="shared" si="6"/>
-        <v>184239.79000001028</v>
+        <f t="shared" si="15"/>
+        <v>-184239.79000001028</v>
       </c>
       <c r="C79">
-        <f t="shared" si="6"/>
-        <v>133456.33000001032</v>
+        <f t="shared" si="15"/>
+        <v>-133456.33000001032</v>
       </c>
       <c r="D79">
-        <f t="shared" si="6"/>
-        <v>82077.349999999627</v>
+        <f t="shared" si="15"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -5686,11 +5686,11 @@
       </c>
       <c r="B84" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(B$1,$B$1:$P$1,0))</f>
-        <v>30083200</v>
+        <v>11566000</v>
       </c>
       <c r="C84" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(C$1,$B$1:$P$1,0))</f>
-        <v>29789104.379999999</v>
+        <v>11412339.8799999</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -5699,11 +5699,11 @@
       </c>
       <c r="B85" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(G$1,$B$1:$P$1,0))</f>
-        <v>31040700</v>
+        <v>11980700</v>
       </c>
       <c r="C85" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(H$1,$B$1:$P$1,0))</f>
-        <v>30793711.48</v>
+        <v>11791977.9699999</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -5712,11 +5712,11 @@
       </c>
       <c r="B86" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(L$1,$B$1:$P$1,0))</f>
-        <v>31282200</v>
+        <v>11935200</v>
       </c>
       <c r="C86" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(M$1,$B$1:$P$1,0))</f>
-        <v>31282141.25</v>
+        <v>11934454.77</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scost\Documents\DA8\Projects\budget_lookups-scost46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376E8484-421C-4EA3-86C2-872C68B12E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B159ADB4-B68E-460F-816F-00C955A3FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,7 +956,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Budget and Actual Funds </a:t>
+              <a:t> Budget vs Actual Spending </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1054,13 +1054,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11566000</c:v>
+                  <c:v>3130600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11980700</c:v>
+                  <c:v>3652300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11935200</c:v>
+                  <c:v>3662400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,13 +1119,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11412339.8799999</c:v>
+                  <c:v>3115157.5599999898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11791977.9699999</c:v>
+                  <c:v>3589693.2099999902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11934454.77</c:v>
+                  <c:v>3564983.04999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4193,7 +4193,7 @@
         <v>-16630.180000000051</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" ref="E34:E65" si="6">IFERROR(D34/B34,0)</f>
+        <f t="shared" ref="E34:E52" si="6">IFERROR(D34/B34,0)</f>
         <v>-1.9443680579913542E-2</v>
       </c>
       <c r="F34" cm="1">
@@ -4211,7 +4211,7 @@
         <v>-39348.040000000037</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" ref="J34:J65" si="7">IFERROR(I34/G34,0)</f>
+        <f t="shared" ref="J34:J52" si="7">IFERROR(I34/G34,0)</f>
         <v>-4.9631735620585316E-2</v>
       </c>
       <c r="K34" cm="1">
@@ -4229,7 +4229,7 @@
         <v>-136.73999999999069</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:O65" si="8">IFERROR(N34/L34,0)</f>
+        <f t="shared" ref="O34:O52" si="8">IFERROR(N34/L34,0)</f>
         <v>-1.7580354847003174E-4</v>
       </c>
       <c r="P34" cm="1">
@@ -5686,11 +5686,11 @@
       </c>
       <c r="B84" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(B$1,$B$1:$P$1,0))</f>
-        <v>11566000</v>
+        <v>3130600</v>
       </c>
       <c r="C84" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(C$1,$B$1:$P$1,0))</f>
-        <v>11412339.8799999</v>
+        <v>3115157.5599999898</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -5699,11 +5699,11 @@
       </c>
       <c r="B85" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(G$1,$B$1:$P$1,0))</f>
-        <v>11980700</v>
+        <v>3652300</v>
       </c>
       <c r="C85" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(H$1,$B$1:$P$1,0))</f>
-        <v>11791977.9699999</v>
+        <v>3589693.2099999902</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -5712,11 +5712,11 @@
       </c>
       <c r="B86" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(L$1,$B$1:$P$1,0))</f>
-        <v>11935200</v>
+        <v>3662400</v>
       </c>
       <c r="C86" s="6">
         <f>INDEX($B$2:$P$52,MATCH($B87,$A$2:$A$52,0),MATCH(M$1,$B$1:$P$1,0))</f>
-        <v>11934454.77</v>
+        <v>3564983.04999999</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
